--- a/outputs/bst_flag/search.xlsx
+++ b/outputs/bst_flag/search.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.833002897910774e-06</v>
+        <v>1.417007297277451e-06</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.919879863038659e-07</v>
+        <v>9.170034900307655e-07</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.580107871443033e-07</v>
+        <v>7.08969309926033e-07</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.417000359855592e-06</v>
+        <v>2.124987076967955e-06</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.166001311503351e-06</v>
+        <v>1.040985807776451e-06</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.042004441842437e-06</v>
+        <v>1.125037670135498e-06</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.500057108700275e-07</v>
+        <v>1.04197533801198e-06</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.166001311503351e-06</v>
+        <v>1.457985490560532e-06</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.083011738955975e-06</v>
+        <v>1.332955434918404e-06</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.042004441842437e-06</v>
+        <v>1.333013642579317e-06</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.082997187040746e-06</v>
+        <v>1.375039573758841e-06</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.125008566305041e-06</v>
+        <v>1.540989615023136e-06</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.167005393654108e-06</v>
+        <v>1.667009200900793e-06</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.209002221003175e-06</v>
+        <v>1.62498326972127e-06</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.207998138852417e-06</v>
+        <v>1.791981048882008e-06</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.417007297277451e-06</v>
+        <v>1.833017449826002e-06</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.541993697173893e-06</v>
+        <v>1.957989297807217e-06</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.584005076438189e-06</v>
+        <v>2.042041160166264e-06</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.583000994287431e-06</v>
+        <v>2.083019353449345e-06</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.749998773448169e-06</v>
+        <v>2.167013008147478e-06</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.708001946099102e-06</v>
+        <v>2.250017132610083e-06</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.749998773448169e-06</v>
+        <v>2.166023477911949e-06</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.87499972525984e-06</v>
+        <v>2.500019036233425e-06</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.958003849722445e-06</v>
+        <v>2.584012690931559e-06</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.083994331769645e-06</v>
+        <v>2.707995008677244e-06</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.041997504420578e-06</v>
+        <v>2.62499088421464e-06</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.208005753345788e-06</v>
+        <v>2.042041160166264e-06</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.291999408043921e-06</v>
+        <v>2.917018719017506e-06</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.291999408043921e-06</v>
+        <v>2.957996912300587e-06</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.333006705157459e-06</v>
+        <v>3.124994691461325e-06</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.417000359855592e-06</v>
+        <v>2.833025064319372e-06</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.582994056865573e-06</v>
+        <v>3.62499849870801e-06</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.832995960488915e-06</v>
+        <v>3.5830307751894e-06</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.667002263478935e-06</v>
+        <v>3.540946636348963e-06</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.667002263478935e-06</v>
+        <v>3.541004844009876e-06</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.833010512404144e-06</v>
+        <v>3.708992153406143e-06</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.792003215290606e-06</v>
+        <v>3.791006747633219e-06</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.875007339753211e-06</v>
+        <v>3.708002623170614e-06</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.874992787837982e-06</v>
+        <v>4.125002305954695e-06</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.041001036763191e-06</v>
+        <v>3.999972250312567e-06</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.292007022537291e-06</v>
+        <v>4.084024112671614e-06</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.291992470622063e-06</v>
+        <v>3.207998815923929e-06</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.249995643272996e-06</v>
+        <v>4.249974153935909e-06</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.459004801698029e-06</v>
+        <v>4.917033948004246e-06</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.499997546896338e-06</v>
+        <v>4.582980182021856e-06</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.541004844009876e-06</v>
+        <v>4.58303838968277e-06</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.583001671358943e-06</v>
+        <v>4.666042514145374e-06</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.708002623170614e-06</v>
+        <v>4.916975740343332e-06</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.749999450519681e-06</v>
+        <v>4.999979864805937e-06</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.833003574982285e-06</v>
+        <v>4.833040293306112e-06</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.875000402331352e-06</v>
+        <v>4.957953933626413e-06</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.958994057029486e-06</v>
+        <v>5.084031727164984e-06</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.375004209578037e-06</v>
+        <v>4.084024112671614e-06</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.250003257766366e-06</v>
+        <v>4.125002305954695e-06</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.208006430417299e-06</v>
+        <v>5.584035534411669e-06</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.250003257766366e-06</v>
+        <v>4.999979864805937e-06</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.291010554879904e-06</v>
+        <v>5.542009603232145e-06</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.332992830313742e-06</v>
+        <v>5.62501372769475e-06</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.333996912464499e-06</v>
+        <v>5.750043783336878e-06</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.374989657662809e-06</v>
+        <v>5.708017852157354e-06</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.417001036927104e-06</v>
+        <v>6.041955202817917e-06</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.582994733937085e-06</v>
+        <v>6.167043466120958e-06</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.62500611320138e-06</v>
+        <v>5.958019755780697e-06</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.957997589372098e-06</v>
+        <v>6.375019438564777e-06</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.250010872259736e-06</v>
+        <v>6.916990969330072e-06</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.04200579598546e-06</v>
+        <v>6.916990969330072e-06</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.125009920448065e-06</v>
+        <v>6.791029591113329e-06</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.374997272156179e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.333000444807112e-06</v>
+        <v>6.917049176990986e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.374997272156179e-06</v>
+        <v>7.08398874849081e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.458001396618783e-06</v>
+        <v>7.375027053058147e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.541005521081388e-06</v>
+        <v>7.082999218255281e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.624999175779521e-06</v>
+        <v>7.249996997416019e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.667010555043817e-06</v>
+        <v>7.458962500095367e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.666996003128588e-06</v>
+        <v>7.583003025501966e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.750000127591193e-06</v>
+        <v>7.124966941773891e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.249997674487531e-06</v>
+        <v>8.375034667551517e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.041998858563602e-06</v>
+        <v>7.833004929125309e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.791996954940259e-06</v>
+        <v>7.624970749020576e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.041998858563602e-06</v>
+        <v>6.458023563027382e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.166999810375273e-06</v>
+        <v>7.916998583823442e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.250003934837878e-06</v>
+        <v>8.290982805192471e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.207992555573583e-06</v>
+        <v>8.457980584353209e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.333008059300482e-06</v>
+        <v>8.000002708286047e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.458009011112154e-06</v>
+        <v>6.582995411008596e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.499991286545992e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.541988113895059e-06</v>
+        <v>6.66698906570673e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.66698906570673e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.625006790272892e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.709000444971025e-06</v>
+        <v>6.916990969330072e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.709000444971025e-06</v>
+        <v>6.791960913687944e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.750007742084563e-06</v>
+        <v>6.999995093792677e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>7.208029273897409e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.374997949227691e-06</v>
+        <v>7.249996997416019e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.249996997416019e-06</v>
+        <v>7.333001121878624e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.583992555737495e-06</v>
+        <v>7.541966624557972e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.417009328491986e-06</v>
+        <v>7.6669966802001e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.540991646237671e-06</v>
+        <v>7.499998901039362e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.416005246341228e-06</v>
+        <v>7.540977094322443e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>7.750000804662704e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.833004929125309e-06</v>
+        <v>7.666007149964571e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8.000002708286047e-06</v>
+        <v>7.707974873483181e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.624999852851033e-06</v>
+        <v>7.916998583823442e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.875001756474376e-06</v>
+        <v>7.959024515002966e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.916998583823442e-06</v>
+        <v>8.041970431804657e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.875001756474376e-06</v>
+        <v>8.083006832748652e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8.000002708286047e-06</v>
+        <v>8.124974556267262e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8.08399636298418e-06</v>
+        <v>8.167000487446785e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.457995136268437e-06</v>
+        <v>8.542032446712255e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8.292001439258456e-06</v>
+        <v>8.624978363513947e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.332994184456766e-06</v>
+        <v>8.582952432334423e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8.582996088080108e-06</v>
+        <v>8.750008419156075e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8.66700429469347e-06</v>
+        <v>8.875038474798203e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8.666000212542713e-06</v>
+        <v>8.707982487976551e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8.582996088080108e-06</v>
+        <v>8.666014764457941e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.707997039891779e-06</v>
+        <v>8.750008419156075e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.624992915429175e-06</v>
+        <v>8.707982487976551e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.457995136268437e-06</v>
+        <v>8.792034350335598e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>8.749993867240846e-06</v>
+        <v>8.874980267137289e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>8.832997991703451e-06</v>
+        <v>9.041978046298027e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.957998943515122e-06</v>
+        <v>9.000010322779417e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8.959003025665879e-06</v>
+        <v>9.124982170760632e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.000010322779417e-06</v>
+        <v>9.124982170760632e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.166004019789398e-06</v>
+        <v>9.417010005563498e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.166993550024927e-06</v>
+        <v>9.375042282044888e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.082999895326793e-06</v>
+        <v>9.25001222640276e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9.167008101940155e-06</v>
+        <v>9.583018254488707e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.625000529922545e-06</v>
+        <v>9.749957825988531e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.000000338535756e-05</v>
+        <v>1.0124989785254e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9.958006558008492e-06</v>
+        <v>1.037499168887734e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9.916999260894954e-06</v>
+        <v>1.020799390971661e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.004200021270663e-05</v>
+        <v>1.024996163323522e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.008300750982016e-05</v>
+        <v>1.020898343995214e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9.875002433545887e-06</v>
+        <v>1.037504989653826e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9.958006558008492e-06</v>
+        <v>1.020799390971661e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.024999073706567e-05</v>
+        <v>1.054099993780255e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.037500624079257e-05</v>
+        <v>1.062499359250069e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.037500624079257e-05</v>
+        <v>1.041701762005687e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.041599898599088e-05</v>
+        <v>1.050002174451947e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.070799771696329e-05</v>
+        <v>1.083401730284095e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.054200401995331e-05</v>
+        <v>1.07499654404819e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.07910018414259e-05</v>
+        <v>1.091702142730355e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.091600279323757e-05</v>
+        <v>1.091702142730355e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.083299866877496e-05</v>
+        <v>1.104199327528477e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.108400465454906e-05</v>
+        <v>1.13330315798521e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.09999964479357e-05</v>
+        <v>1.12500274553895e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.087499549612403e-05</v>
+        <v>1.120899105444551e-05</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.087499549612403e-05</v>
+        <v>1.099996734410524e-05</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.10830005723983e-05</v>
+        <v>1.116696512326598e-05</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.11250119516626e-05</v>
+        <v>1.120800152420998e-05</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.120800152420998e-05</v>
+        <v>1.100002555176616e-05</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.154199708253145e-05</v>
+        <v>1.166603760793805e-05</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.141699613071978e-05</v>
+        <v>1.150002935901284e-05</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.141699613071978e-05</v>
+        <v>1.179199898615479e-05</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.145798887591809e-05</v>
+        <v>1.174997305497527e-05</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.162500120699406e-05</v>
+        <v>1.175003126263618e-05</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.150000025518239e-05</v>
+        <v>1.170800533145666e-05</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.145800342783332e-05</v>
+        <v>1.170800533145666e-05</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.141701068263501e-05</v>
+        <v>1.162500120699406e-05</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.175000215880573e-05</v>
+        <v>1.18750031106174e-05</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.18329917313531e-05</v>
+        <v>1.191702904179692e-05</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.191699993796647e-05</v>
+        <v>1.204200088977814e-05</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.179199898615479e-05</v>
+        <v>1.216697273775935e-05</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.195800723508e-05</v>
+        <v>1.212500501424074e-05</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.204200088977814e-05</v>
+        <v>1.208297908306122e-05</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.200000406242907e-05</v>
+        <v>1.225003506988287e-05</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.220899866893888e-05</v>
+        <v>1.254200469702482e-05</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.233299553859979e-05</v>
+        <v>1.258304109796882e-05</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.229200279340148e-05</v>
+        <v>1.262500882148743e-05</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.245799649041146e-05</v>
+        <v>1.291703665629029e-05</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.254200469702482e-05</v>
+        <v>1.262500882148743e-05</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.279100251849741e-05</v>
+        <v>1.279200660064816e-05</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.283299934584647e-05</v>
+        <v>1.291703665629029e-05</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.287499617319554e-05</v>
+        <v>1.325004268437624e-05</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.287499617319554e-05</v>
+        <v>1.304096076637506e-05</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.308399077970535e-05</v>
+        <v>1.349998638033867e-05</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.320900628343225e-05</v>
+        <v>1.345801865682006e-05</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.329100632574409e-05</v>
+        <v>1.341599272564054e-05</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.320800220128149e-05</v>
+        <v>1.36250164359808e-05</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.324999902863055e-05</v>
+        <v>1.370796235278249e-05</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.324999902863055e-05</v>
+        <v>1.354201231151819e-05</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.345899363514036e-05</v>
+        <v>1.379195600748062e-05</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.337499998044223e-05</v>
+        <v>1.370796235278249e-05</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.362500188406557e-05</v>
+        <v>1.400004839524627e-05</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.375000283587724e-05</v>
+        <v>1.420796616002917e-05</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.387498923577368e-05</v>
+        <v>1.412496203556657e-05</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.358399458695203e-05</v>
+        <v>1.408299431204796e-05</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.400000473950058e-05</v>
+        <v>1.404195791110396e-05</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.395799336023629e-05</v>
+        <v>1.433398574590683e-05</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.408300886396319e-05</v>
+        <v>1.449999399483204e-05</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.395799336023629e-05</v>
+        <v>1.454201992601156e-05</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.441698987036943e-05</v>
+        <v>1.483300002291799e-05</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.425000664312392e-05</v>
+        <v>1.470796996727586e-05</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.44580117193982e-05</v>
+        <v>1.466600224375725e-05</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.437499304302037e-05</v>
+        <v>1.462502405047417e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.474999589845538e-05</v>
+        <v>1.508399145677686e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.487499685026705e-05</v>
+        <v>1.504196552559733e-05</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.454200537409633e-05</v>
+        <v>1.47920218296349e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.474999589845538e-05</v>
+        <v>1.491699367761612e-05</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.466700632590801e-05</v>
+        <v>1.504196552559733e-05</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.483300002291799e-05</v>
+        <v>1.508300192654133e-05</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.51249987538904e-05</v>
+        <v>1.529103610664606e-05</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.504199462942779e-05</v>
+        <v>1.545896520838141e-05</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.524999970570207e-05</v>
+        <v>1.554202754050493e-05</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.51249987538904e-05</v>
+        <v>1.529103610664606e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.529099245090038e-05</v>
+        <v>1.54580338858068e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.520798832643777e-05</v>
+        <v>1.583399716764688e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.554099435452372e-05</v>
+        <v>1.566600985825062e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.524999970570207e-05</v>
+        <v>1.579202944412827e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.537500065751374e-05</v>
+        <v>1.570902531966567e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.558399526402354e-05</v>
+        <v>1.579197123646736e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.575000351294875e-05</v>
+        <v>1.612503547221422e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.566699938848615e-05</v>
+        <v>1.595803769305348e-05</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.587500446476042e-05</v>
+        <v>1.637497916817665e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.583300763741136e-05</v>
+        <v>1.637497916817665e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.616700319573283e-05</v>
+        <v>1.645798329263926e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.633299689274281e-05</v>
+        <v>1.645798329263926e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.591700129210949e-05</v>
+        <v>1.658301334828138e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.616700319573283e-05</v>
+        <v>1.65420351549983e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.641600101720542e-05</v>
+        <v>1.65420351549983e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.629100006539375e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.637499372009188e-05</v>
+        <v>1.666601747274399e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.649999467190355e-05</v>
+        <v>1.658301334828138e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.695800165180117e-05</v>
+        <v>1.71670108102262e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.637500827200711e-05</v>
+        <v>1.70840066857636e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1.666600292082876e-05</v>
+        <v>1.700001303106546e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.683400478214025e-05</v>
+        <v>1.675001112744212e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.679100387264043e-05</v>
+        <v>1.704198075458407e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.679199340287596e-05</v>
+        <v>1.679104752838612e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.674999657552689e-05</v>
+        <v>1.704099122434855e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.687499752733856e-05</v>
+        <v>1.683301525190473e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.699999847915024e-05</v>
+        <v>1.708301715552807e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.69589911820367e-05</v>
+        <v>1.725001493468881e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.725000038277358e-05</v>
+        <v>1.73329608514905e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.716699625831097e-05</v>
+        <v>1.737498678267002e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.741699816193432e-05</v>
+        <v>1.77919864654541e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.71670108102262e-05</v>
+        <v>1.741701271384954e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2354,7 +2354,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.712499943096191e-05</v>
+        <v>1.741602318361402e-05</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.754199911374599e-05</v>
+        <v>1.775001874193549e-05</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.741699816193432e-05</v>
+        <v>1.741695450618863e-05</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.754199911374599e-05</v>
+        <v>1.783401239663363e-05</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.737500133458525e-05</v>
+        <v>1.77919864654541e-05</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.741600863169879e-05</v>
+        <v>1.779204467311502e-05</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.770899689290673e-05</v>
+        <v>1.812499249354005e-05</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1.774998963810503e-05</v>
+        <v>1.820799661800265e-05</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.770799281075597e-05</v>
+        <v>1.804099883884192e-05</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.774998963810503e-05</v>
+        <v>1.804198836907744e-05</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.791599788703024e-05</v>
+        <v>1.800002064555883e-05</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.7917001969181e-05</v>
+        <v>1.837499439716339e-05</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.795799471437931e-05</v>
+        <v>1.816602889448404e-05</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.820799661800265e-05</v>
+        <v>1.862499630078673e-05</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.824999344535172e-05</v>
+        <v>1.850002445280552e-05</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.825000799726695e-05</v>
+        <v>1.874996814876795e-05</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1.920899376273155e-05</v>
+        <v>1.895899185910821e-05</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1.887499820441008e-05</v>
+        <v>1.941696973517537e-05</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1.870800042524934e-05</v>
+        <v>1.920794602483511e-05</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1.937500201165676e-05</v>
+        <v>1.974997576326132e-05</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.908300328068435e-05</v>
+        <v>1.941702794283628e-05</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1.912500010803342e-05</v>
+        <v>1.933297608047724e-05</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1.92909938050434e-05</v>
+        <v>1.920800423249602e-05</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.929199788719416e-05</v>
+        <v>1.933297608047724e-05</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.908300328068435e-05</v>
+        <v>1.945899566635489e-05</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1.950000296346843e-05</v>
+        <v>1.975003397092223e-05</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>2.058400423265994e-05</v>
+        <v>1.945800613611937e-05</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.937498745974153e-05</v>
+        <v>1.987500581890345e-05</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.929199788719416e-05</v>
+        <v>1.970800803974271e-05</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1.945901021827012e-05</v>
+        <v>1.96250039152801e-05</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1.950000296346843e-05</v>
+        <v>1.983396941795945e-05</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1.983299443963915e-05</v>
+        <v>2.029200550168753e-05</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1.970899756997824e-05</v>
+        <v>2.004101406782866e-05</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2.016698999796063e-05</v>
+        <v>2.054101787507534e-05</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>2.024999412242323e-05</v>
+        <v>2.045801375061274e-05</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>2.008301089517772e-05</v>
+        <v>2.049998147413135e-05</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>2.583299647085369e-05</v>
+        <v>2.033298369497061e-05</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>2.016700454987586e-05</v>
+        <v>2.054200740531087e-05</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>2.012500772252679e-05</v>
+        <v>2.041598781943321e-05</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2.012499317061156e-05</v>
+        <v>2.054200740531087e-05</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2.03749950742349e-05</v>
+        <v>2.079200930893421e-05</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2.066600427497178e-05</v>
+        <v>2.104201121255755e-05</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>2.104199666064233e-05</v>
+        <v>2.13750172406435e-05</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2.05000105779618e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2.033299824688584e-05</v>
+        <v>2.083397703245282e-05</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2.079199475701898e-05</v>
+        <v>2.133299130946398e-05</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>2.083300205413252e-05</v>
+        <v>2.112501533702016e-05</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>2.070800110232085e-05</v>
+        <v>2.124998718500137e-05</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2.095800300594419e-05</v>
+        <v>2.116704126819968e-05</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2.141699951607734e-05</v>
+        <v>2.208398655056953e-05</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2.116599353030324e-05</v>
+        <v>2.145796315744519e-05</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2.120799035765231e-05</v>
+        <v>2.191599924117327e-05</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2.141699951607734e-05</v>
+        <v>2.162501914426684e-05</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2.145799226127565e-05</v>
+        <v>2.170802326872945e-05</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2.137498813681304e-05</v>
+        <v>2.166599733754992e-05</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2.154099638573825e-05</v>
+        <v>2.179096918553114e-05</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2.175000554416329e-05</v>
+        <v>2.191704697906971e-05</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2.162500459235162e-05</v>
+        <v>2.266600495204329e-05</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2.174999099224806e-05</v>
+        <v>2.262502675876021e-05</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2.191599924117327e-05</v>
+        <v>2.220796886831522e-05</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2.166700141970068e-05</v>
+        <v>2.20410292968154e-05</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2.20420042751357e-05</v>
+        <v>2.220901660621166e-05</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2.195801062043756e-05</v>
+        <v>2.233299892395735e-05</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2.191700332332402e-05</v>
+        <v>2.254202263429761e-05</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2.20420042751357e-05</v>
+        <v>2.245802897959948e-05</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2.195900015067309e-05</v>
+        <v>2.254202263429761e-05</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2.224999479949474e-05</v>
+        <v>2.249999670311809e-05</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2.504100848454982e-05</v>
+        <v>2.295803278684616e-05</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2.216700522694737e-05</v>
+        <v>2.27079726755619e-05</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2.233299892395735e-05</v>
+        <v>2.31250305660069e-05</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2.779200440272689e-05</v>
+        <v>2.325000241398811e-05</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2.36249907175079e-05</v>
+        <v>2.30839941650629e-05</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2.38330103456974e-05</v>
+        <v>2.316595055162907e-05</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2.37500062212348e-05</v>
+        <v>2.337497426196933e-05</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2.279100590385497e-05</v>
+        <v>2.341601066291332e-05</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2.283400681335479e-05</v>
+        <v>2.366700209677219e-05</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2.28749995585531e-05</v>
+        <v>2.358300844207406e-05</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2.316699828952551e-05</v>
+        <v>2.358295023441315e-05</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2.408299769740552e-05</v>
+        <v>2.345797838643193e-05</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2.312500146217644e-05</v>
+        <v>2.358295023441315e-05</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2.32090096687898e-05</v>
+        <v>2.366700209677219e-05</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>2.379200304858387e-05</v>
+        <v>2.395804040133953e-05</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>2.391700400039554e-05</v>
+        <v>2.387497806921601e-05</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>2.28749995585531e-05</v>
+        <v>2.387503627687693e-05</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>2.295899321325123e-05</v>
+        <v>2.391700400039554e-05</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>2.320799103472382e-05</v>
+        <v>2.383399987593293e-05</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2.358300844207406e-05</v>
+        <v>2.408301224932075e-05</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>2.404100087005645e-05</v>
+        <v>2.429197775200009e-05</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>2.391700400039554e-05</v>
+        <v>2.420798409730196e-05</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>2.399999357294291e-05</v>
+        <v>2.441700780764222e-05</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>2.424999547656626e-05</v>
+        <v>2.43749818764627e-05</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2.37079948419705e-05</v>
+        <v>2.441700780764222e-05</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2.38330103456974e-05</v>
+        <v>2.433301415294409e-05</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>2.387500717304647e-05</v>
+        <v>2.44579860009253e-05</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>2.416700590401888e-05</v>
+        <v>3.708398435264826e-05</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>2.408299769740552e-05</v>
+        <v>2.491701161488891e-05</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>2.391700400039554e-05</v>
+        <v>2.44579860009253e-05</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>2.454200875945389e-05</v>
+        <v>2.48340074904263e-05</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>2.454100467730314e-05</v>
+        <v>2.450001193210483e-05</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>2.454199420753866e-05</v>
+        <v>2.462498378008604e-05</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>2.454199420753866e-05</v>
+        <v>2.433301415294409e-05</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>2.445800055284053e-05</v>
+        <v>2.441700780764222e-05</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>2.466600562911481e-05</v>
+        <v>2.479198155924678e-05</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>2.97920050797984e-05</v>
+        <v>2.470798790454865e-05</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>2.445900463499129e-05</v>
+        <v>2.512498758733273e-05</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>2.491600753273815e-05</v>
+        <v>2.525001764297485e-05</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>2.487500023562461e-05</v>
+        <v>2.470798790454865e-05</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>2.500000118743628e-05</v>
+        <v>2.512504579499364e-05</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>2.504201256670058e-05</v>
+        <v>2.541701542213559e-05</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>2.545799361541867e-05</v>
+        <v>2.541602589190006e-05</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>2.53750040428713e-05</v>
+        <v>2.495798980817199e-05</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>2.570899960119277e-05</v>
+        <v>2.574996324256063e-05</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>2.545799361541867e-05</v>
+        <v>2.554198727011681e-05</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>2.61249952018261e-05</v>
+        <v>4.024995723739266e-05</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>2.579200372565538e-05</v>
+        <v>2.633297117426991e-05</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>2.64169939327985e-05</v>
+        <v>2.583296736702323e-05</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>2.579198917374015e-05</v>
+        <v>2.604100154712796e-05</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>2.61249952018261e-05</v>
+        <v>2.62079993262887e-05</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>2.687498636078089e-05</v>
+        <v>2.595898695290089e-05</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>3.420800203457475e-05</v>
+        <v>2.604199107736349e-05</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>3.445800393819809e-05</v>
+        <v>2.633401891216636e-05</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>3.520899917930365e-05</v>
+        <v>2.654205309227109e-05</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>3.049999941140413e-05</v>
+        <v>2.62079993262887e-05</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>3.13749915221706e-05</v>
+        <v>2.654199488461018e-05</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>3.500000457279384e-05</v>
+        <v>2.675002906471491e-05</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>3.379200643394142e-05</v>
+        <v>2.675002906471491e-05</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>4.425000224728137e-05</v>
+        <v>2.658303128555417e-05</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>3.624999953899533e-05</v>
+        <v>2.675002906471491e-05</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>3.570799890439957e-05</v>
+        <v>2.712500281631947e-05</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>3.208300040569156e-05</v>
+        <v>2.699997276067734e-05</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>3.204200766049325e-05</v>
+        <v>2.716598100960255e-05</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>3.562499477993697e-05</v>
+        <v>2.729101106524467e-05</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>3.612499858718365e-05</v>
+        <v>2.708303509280086e-05</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>3.54999938281253e-05</v>
+        <v>2.745800884440541e-05</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>3.591699351090938e-05</v>
+        <v>3.404100425541401e-05</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>3.645799006335437e-05</v>
+        <v>2.879195380955935e-05</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>3.6375000490807e-05</v>
+        <v>2.845795825123787e-05</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>3.662500239443034e-05</v>
+        <v>2.891698386520147e-05</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>3.683300747070462e-05</v>
+        <v>2.904195571318269e-05</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>3.783300053328276e-05</v>
+        <v>2.862501423805952e-05</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>3.716599894687533e-05</v>
+        <v>2.862495603039861e-05</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>3.787499736063182e-05</v>
+        <v>2.887501614168286e-05</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>3.72500071534887e-05</v>
+        <v>2.891599433496594e-05</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>3.754100180231035e-05</v>
+        <v>2.899998798966408e-05</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>3.604200901463628e-05</v>
+        <v>2.916599623858929e-05</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>3.858300624415278e-05</v>
+        <v>2.949999179691076e-05</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>3.808400651905686e-05</v>
+        <v>2.962502185255289e-05</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>3.866699989885092e-05</v>
+        <v>2.929201582446694e-05</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>3.529200330376625e-05</v>
+        <v>2.96669895760715e-05</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>3.774999640882015e-05</v>
+        <v>2.958299592137337e-05</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>3.758299862965941e-05</v>
+        <v>2.945802407339215e-05</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>3.833298978861421e-05</v>
+        <v>2.966600004583597e-05</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>3.854199894703925e-05</v>
+        <v>2.96669895760715e-05</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>3.445800393819809e-05</v>
+        <v>2.999999560415745e-05</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>3.320899850223213e-05</v>
+        <v>2.974999370053411e-05</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>3.858299169223756e-05</v>
+        <v>3.095803549513221e-05</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>3.845800529234111e-05</v>
+        <v>2.991699147969484e-05</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>3.683300747070462e-05</v>
+        <v>3.004103200510144e-05</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>3.866699989885092e-05</v>
+        <v>3.02919652312994e-05</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>3.891700180247426e-05</v>
+        <v>2.999999560415745e-05</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>3.679200017359108e-05</v>
+        <v>3.049999941140413e-05</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>3.941699105780572e-05</v>
+        <v>3.045797348022461e-05</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>3.708299482241273e-05</v>
+        <v>3.012496745213866e-05</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>3.899999137502164e-05</v>
+        <v>3.062497125938535e-05</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>3.754100180231035e-05</v>
+        <v>3.041699528694153e-05</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>3.974999708589166e-05</v>
+        <v>3.062497125938535e-05</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>3.770799958147109e-05</v>
+        <v>3.104202914983034e-05</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>3.82089929189533e-05</v>
+        <v>3.062502946704626e-05</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>3.887500497512519e-05</v>
+        <v>3.095803549513221e-05</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>3.875000402331352e-05</v>
+        <v>3.191700670868158e-05</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>4.004199581686407e-05</v>
+        <v>3.075000131502748e-05</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>3.645900869742036e-05</v>
+        <v>3.049999941140413e-05</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>3.904200275428593e-05</v>
+        <v>3.125000512227416e-05</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>3.583299985621125e-05</v>
+        <v>3.104202914983034e-05</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>3.779199323616922e-05</v>
+        <v>3.104197094216943e-05</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>3.695800842251629e-05</v>
+        <v>3.145902883261442e-05</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>4.058299236930907e-05</v>
+        <v>3.095803549513221e-05</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>3.816699609160423e-05</v>
+        <v>3.183301305398345e-05</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>4.029199772048742e-05</v>
+        <v>4.262500442564487e-05</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>4.066700057592243e-05</v>
+        <v>3.379205008968711e-05</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>4.066700057592243e-05</v>
+        <v>3.158400068059564e-05</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>3.820800338871777e-05</v>
+        <v>3.162503708153963e-05</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>4.124999395571649e-05</v>
+        <v>3.154203295707703e-05</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>3.779098915401846e-05</v>
+        <v>3.166700480505824e-05</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>4.062498919665813e-05</v>
+        <v>3.137497697025537e-05</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>3.862500307150185e-05</v>
+        <v>3.141601337119937e-05</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>4.13329980801791e-05</v>
+        <v>3.187498077750206e-05</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>4.104099934920669e-05</v>
+        <v>3.175000892952085e-05</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>3.750000905711204e-05</v>
+        <v>3.245798870921135e-05</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>3.829201159533113e-05</v>
+        <v>3.254198236390948e-05</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>3.645799006335437e-05</v>
+        <v>3.262498648837209e-05</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>3.954200656153262e-05</v>
+        <v>4.066701512783766e-05</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>3.829100751318038e-05</v>
+        <v>3.304198617115617e-05</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>3.912500687874854e-05</v>
+        <v>4.266598261892796e-05</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>4.187499871477485e-05</v>
+        <v>3.316695801913738e-05</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>4.204201104585081e-05</v>
+        <v>4.358298610895872e-05</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>4.158299998380244e-05</v>
+        <v>3.308302257210016e-05</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>4.266700125299394e-05</v>
+        <v>3.266701241955161e-05</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>3.174999437760562e-05</v>
+        <v>3.31670162267983e-05</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>3.454199759289622e-05</v>
+        <v>4.166696453467011e-05</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>3.454099351074547e-05</v>
+        <v>3.31670162267983e-05</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>3.308399755042046e-05</v>
+        <v>3.304105484858155e-05</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>3.291599568910897e-05</v>
+        <v>3.295799251645803e-05</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>3.287500294391066e-05</v>
+        <v>3.320799442008138e-05</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>3.291699977125973e-05</v>
+        <v>4.416704177856445e-05</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>3.304099664092064e-05</v>
+        <v>3.662501694634557e-05</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>3.287500294391066e-05</v>
+        <v>3.420800203457475e-05</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>3.337500675115734e-05</v>
+        <v>3.412499791011214e-05</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>3.345799632370472e-05</v>
+        <v>3.441702574491501e-05</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>3.787499736063182e-05</v>
+        <v>3.416702384129167e-05</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>3.416700928937644e-05</v>
+        <v>3.408401971682906e-05</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>3.404199378564954e-05</v>
+        <v>4.420900950208306e-05</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>3.39580001309514e-05</v>
+        <v>3.425002796575427e-05</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>4.087499110028148e-05</v>
+        <v>3.599998308345675e-05</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>4.387499939184636e-05</v>
+        <v>4.558300133794546e-05</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>4.141699173487723e-05</v>
+        <v>3.38749960064888e-05</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>3.837500116787851e-05</v>
+        <v>3.329099854454398e-05</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>4.441599594429135e-05</v>
+        <v>3.408297197893262e-05</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>4.104200343135744e-05</v>
+        <v>3.420794382691383e-05</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>4.429199907463044e-05</v>
+        <v>3.487494541332126e-05</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>4.208298923913389e-05</v>
+        <v>4.912499571219087e-05</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>4.208300379104912e-05</v>
+        <v>4.404201172292233e-05</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>3.579199255909771e-05</v>
+        <v>4.587502917274833e-05</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>3.266599378548563e-05</v>
+        <v>4.495802568271756e-05</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>3.262500104028732e-05</v>
+        <v>3.483297768980265e-05</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>3.954200656153262e-05</v>
+        <v>3.487500362098217e-05</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>4.304200410842896e-05</v>
+        <v>3.425002796575427e-05</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>4.341598832979798e-05</v>
+        <v>3.437499981373549e-05</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>4.370800161268562e-05</v>
+        <v>3.462500171735883e-05</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>4.524999530985951e-05</v>
+        <v>3.412499791011214e-05</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>4.145799903199077e-05</v>
+        <v>3.533303970471025e-05</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>4.541699308902025e-05</v>
+        <v>4.57499991171062e-05</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>4.041599459014833e-05</v>
+        <v>4.570803139358759e-05</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>4.545800038613379e-05</v>
+        <v>4.629202885553241e-05</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>3.999999898951501e-05</v>
+        <v>4.620797699317336e-05</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>4.558300133794546e-05</v>
+        <v>4.670798080042005e-05</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>4.029199772048742e-05</v>
+        <v>4.075001925230026e-05</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>4.641599662136286e-05</v>
+        <v>4.662497667595744e-05</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>4.308400093577802e-05</v>
+        <v>4.212500061839819e-05</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>4.020800406578928e-05</v>
+        <v>4.58330032415688e-05</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>4.237500252202153e-05</v>
+        <v>4.158396041020751e-05</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>4.129200533498079e-05</v>
+        <v>4.316697595641017e-05</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>4.57499991171062e-05</v>
+        <v>4.395795986056328e-05</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>4.008298856206238e-05</v>
+        <v>4.666601307690144e-05</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>4.654200165532529e-05</v>
+        <v>4.125002305954695e-05</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>4.258299304638058e-05</v>
+        <v>4.312500823289156e-05</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>4.699999408330768e-05</v>
+        <v>4.679197445511818e-05</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>4.49579965788871e-05</v>
+        <v>4.600000102072954e-05</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>4.24169993493706e-05</v>
+        <v>4.141603130847216e-05</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>4.645800800062716e-05</v>
+        <v>4.283303860574961e-05</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>4.629099566955119e-05</v>
+        <v>4.679197445511818e-05</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>4.704199091065675e-05</v>
+        <v>4.374998388811946e-05</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>4.312499368097633e-05</v>
+        <v>4.46659978479147e-05</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>4.208300379104912e-05</v>
+        <v>4.716700641438365e-05</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>4.441599594429135e-05</v>
+        <v>4.795799031853676e-05</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>4.341700696386397e-05</v>
+        <v>4.433398135006428e-05</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>4.354100383352488e-05</v>
+        <v>4.529103171080351e-05</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>4.254200030118227e-05</v>
+        <v>4.470802377909422e-05</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>4.591600736603141e-05</v>
+        <v>4.366697976365685e-05</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>4.445799277164042e-05</v>
+        <v>4.549999721348286e-05</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>4.358400474302471e-05</v>
+        <v>4.58330032415688e-05</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>4.345799970906228e-05</v>
+        <v>4.92919934913516e-05</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>4.749999789055437e-05</v>
+        <v>4.379096208140254e-05</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>4.199999966658652e-05</v>
+        <v>3.74580267816782e-05</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>4.266698670107871e-05</v>
+        <v>4.650000482797623e-05</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>4.774999979417771e-05</v>
+        <v>4.641700070351362e-05</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>4.445799277164042e-05</v>
+        <v>4.533299943432212e-05</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>4.895900201518089e-05</v>
+        <v>4.612503107637167e-05</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>4.625000292435288e-05</v>
+        <v>4.837504820898175e-05</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>4.48749924544245e-05</v>
+        <v>4.629202885553241e-05</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>4.774999979417771e-05</v>
+        <v>4.545802948996425e-05</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>4.462499055080116e-05</v>
+        <v>4.479195922613144e-05</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>4.454099689610302e-05</v>
+        <v>4.512496525421739e-05</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>4.720799915958196e-05</v>
+        <v>4.733301466330886e-05</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>4.541699308902025e-05</v>
+        <v>4.774995613843203e-05</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>4.545898991636932e-05</v>
+        <v>4.75000124424696e-05</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>4.554199404083192e-05</v>
+        <v>4.962499951943755e-05</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>4.524999530985951e-05</v>
+        <v>4.937499761581421e-05</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>4.454200097825378e-05</v>
+        <v>5.1083043217659e-05</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>5.054099892731756e-05</v>
+        <v>4.487502155825496e-05</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>4.887500836048275e-05</v>
+        <v>4.637503297999501e-05</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>5.024998972658068e-05</v>
+        <v>4.679203266277909e-05</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>4.99580055475235e-05</v>
+        <v>4.674994852393866e-05</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>4.729100328404456e-05</v>
+        <v>4.63749747723341e-05</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>4.608299059327692e-05</v>
+        <v>4.616600926965475e-05</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>4.633300704881549e-05</v>
+        <v>4.779198206961155e-05</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>4.591701144818217e-05</v>
+        <v>4.858296597376466e-05</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>4.600000102072954e-05</v>
+        <v>5.125004099681973e-05</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>4.674999217968434e-05</v>
+        <v>5.074997898191214e-05</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>4.508299753069878e-05</v>
+        <v>4.920799983665347e-05</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>4.82500036014244e-05</v>
+        <v>5.000003147870302e-05</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>4.808299127034843e-05</v>
+        <v>5.262502236291766e-05</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>5.241700273472816e-05</v>
+        <v>5.254201823845506e-05</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>5.166701157577336e-05</v>
+        <v>4.945800174027681e-05</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>4.866700328420848e-05</v>
+        <v>4.8832967877388e-05</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>5.162500019650906e-05</v>
+        <v>5.162501474842429e-05</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>4.720799915958196e-05</v>
+        <v>5.174998659640551e-05</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>4.783298936672509e-05</v>
+        <v>4.966603592038155e-05</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>5.162500019650906e-05</v>
+        <v>5.183299072086811e-05</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>4.774999979417771e-05</v>
+        <v>4.837499000132084e-05</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>5.145800241734833e-05</v>
+        <v>5.008297739550471e-05</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>5.300001066643745e-05</v>
+        <v>5.354196764528751e-05</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>4.783399344887584e-05</v>
+        <v>5.27920201420784e-05</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>4.116700438316911e-05</v>
+        <v>5.224999040365219e-05</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>4.187499871477485e-05</v>
+        <v>4.912499571219087e-05</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>4.233300569467247e-05</v>
+        <v>4.549999721348286e-05</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>4.862500645685941e-05</v>
+        <v>4.104099934920669e-05</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>5.083299765828997e-05</v>
+        <v>4.150002496317029e-05</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>4.883301153313369e-05</v>
+        <v>4.158302908763289e-05</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>4.995900962967426e-05</v>
+        <v>4.837499000132084e-05</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>4.595800419338048e-05</v>
+        <v>5.000003147870302e-05</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>4.070799332112074e-05</v>
+        <v>5.079200491309166e-05</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>4.212500061839819e-05</v>
+        <v>4.779099253937602e-05</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>4.987500142306089e-05</v>
+        <v>5.079200491309166e-05</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>5.408299330156296e-05</v>
+        <v>5.479197716340423e-05</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>6.329199823085219e-05</v>
+        <v>5.124998278915882e-05</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>5.279199103824794e-05</v>
+        <v>5.187501665204763e-05</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>5.50419936189428e-05</v>
+        <v>5.504197906702757e-05</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>5.129199416842312e-05</v>
+        <v>5.224999040365219e-05</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>5.51249977434054e-05</v>
+        <v>5.57919847778976e-05</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>5.341600626707077e-05</v>
+        <v>5.295895971357822e-05</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>4.887499380856752e-05</v>
+        <v>5.470798350870609e-05</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>4.07920015277341e-05</v>
+        <v>5.316594615578651e-05</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>5.366600817069411e-05</v>
+        <v>4.087499110028148e-05</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>5.016599607188255e-05</v>
+        <v>4.070799332112074e-05</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>5.25840005138889e-05</v>
+        <v>5.412503378465772e-05</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>6.595801096409559e-05</v>
+        <v>5.262502236291766e-05</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>5.508300091605633e-05</v>
+        <v>5.625002086162567e-05</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>4.94170089950785e-05</v>
+        <v>5.541701102629304e-05</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>5.466700531542301e-05</v>
+        <v>5.358300404623151e-05</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>5.320800119079649e-05</v>
+        <v>5.970796337351203e-05</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>5.320800119079649e-05</v>
+        <v>5.820801015943289e-05</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>5.620899901259691e-05</v>
+        <v>5.675002466887236e-05</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>5.341701034922153e-05</v>
+        <v>5.608302308246493e-05</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>5.612500535789877e-05</v>
+        <v>5.34999999217689e-05</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>5.604099715128541e-05</v>
+        <v>5.375000182539225e-05</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>5.34169957973063e-05</v>
+        <v>5.379202775657177e-05</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>5.283400241751224e-05</v>
+        <v>5.599996075034142e-05</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>5.358300404623151e-05</v>
+        <v>5.633302498608828e-05</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>5.43750065844506e-05</v>
+        <v>5.604198668152094e-05</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>5.437499203253537e-05</v>
+        <v>5.441700341179967e-05</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>5.645799683406949e-05</v>
+        <v>5.024997517466545e-05</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>5.620800948236138e-05</v>
+        <v>5.65829686820507e-05</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>5.583299207501113e-05</v>
+        <v>5.379202775657177e-05</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>5.479100218508393e-05</v>
+        <v>5.425000563263893e-05</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>5.437499203253537e-05</v>
+        <v>5.420803790912032e-05</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>5.474999488797039e-05</v>
+        <v>5.612499080598354e-05</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>5.799999053124338e-05</v>
+        <v>5.787500413134694e-05</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>5.408300785347819e-05</v>
+        <v>5.329202394932508e-05</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>5.291598790790886e-05</v>
+        <v>5.687499651685357e-05</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>5.629099905490875e-05</v>
+        <v>5.850003799423575e-05</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>5.383299139793962e-05</v>
+        <v>5.77080063521862e-05</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>5.541699647437781e-05</v>
+        <v>5.737500032410026e-05</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>5.641700408887118e-05</v>
+        <v>5.779200000688434e-05</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>5.550000059884042e-05</v>
+        <v>5.520897684618831e-05</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>5.508300091605633e-05</v>
+        <v>5.687499651685357e-05</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>5.495799996424466e-05</v>
+        <v>5.849997978657484e-05</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>5.520800186786801e-05</v>
+        <v>5.854194751009345e-05</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>5.454198981169611e-05</v>
+        <v>5.29579701833427e-05</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>5.524999869521707e-05</v>
+        <v>5.379202775657177e-05</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>5.4292002459988e-05</v>
+        <v>5.58749889023602e-05</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>5.78339968342334e-05</v>
+        <v>5.683297058567405e-05</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>5.795799370389432e-05</v>
+        <v>5.854200571775436e-05</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>5.812500603497028e-05</v>
+        <v>5.620805313810706e-05</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>5.541699647437781e-05</v>
+        <v>5.870801396667957e-05</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>5.691600381396711e-05</v>
+        <v>5.70000265724957e-05</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>5.816700286231935e-05</v>
+        <v>5.641701864078641e-05</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>5.637500726152211e-05</v>
+        <v>5.920795956626534e-05</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>5.550000059884042e-05</v>
+        <v>5.699996836483479e-05</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>5.545800377149135e-05</v>
+        <v>5.745800444856286e-05</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>5.541600694414228e-05</v>
+        <v>5.520798731595278e-05</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>5.729100666940212e-05</v>
+        <v>5.475000943988562e-05</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>5.566699837800115e-05</v>
+        <v>6.029097130522132e-05</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>5.699999746866524e-05</v>
+        <v>5.862500984221697e-05</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>5.533300281967968e-05</v>
+        <v>5.512498319149017e-05</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>5.637499270960689e-05</v>
+        <v>5.76250022277236e-05</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>5.608299397863448e-05</v>
+        <v>5.63750509172678e-05</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>5.699999746866524e-05</v>
+        <v>5.683297058567405e-05</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>5.575000250246376e-05</v>
+        <v>5.683297058567405e-05</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>5.891699402127415e-05</v>
+        <v>5.970796337351203e-05</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>5.550000059884042e-05</v>
+        <v>6.062502507120371e-05</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>5.575000250246376e-05</v>
+        <v>5.845801206305623e-05</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>5.524999869521707e-05</v>
+        <v>5.720800254493952e-05</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>5.833301111124456e-05</v>
+        <v>5.845801206305623e-05</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>5.666700599249452e-05</v>
+        <v>5.766702815890312e-05</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>5.916699592489749e-05</v>
+        <v>5.808298010379076e-05</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>5.520800186786801e-05</v>
+        <v>5.83329820074141e-05</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>5.758300540037453e-05</v>
+        <v>5.920801777392626e-05</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>5.729199619963765e-05</v>
+        <v>5.654100095853209e-05</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>5.149999924469739e-05</v>
+        <v>4.51250234618783e-05</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>4.616699879989028e-05</v>
+        <v>5.270802648738027e-05</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>5.529199552256614e-05</v>
+        <v>4.75830165669322e-05</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>5.41669869562611e-05</v>
+        <v>5.500001134350896e-05</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>5.68750110687688e-05</v>
+        <v>5.554099334403872e-05</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>5.537499964702874e-05</v>
+        <v>6.012496305629611e-05</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>5.729201075155288e-05</v>
+        <v>5.195802077651024e-05</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>5.666700599249452e-05</v>
+        <v>5.458301166072488e-05</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>5.737500032410026e-05</v>
+        <v>4.825001815333962e-05</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>5.712499842047691e-05</v>
+        <v>4.791701212525368e-05</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>5.716600571759045e-05</v>
+        <v>6.133300485089421e-05</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>5.724999937228858e-05</v>
+        <v>5.879200762137771e-05</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>6.141699850559235e-05</v>
+        <v>6.250001024454832e-05</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>5.650000821333379e-05</v>
+        <v>6.133399438112974e-05</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>5.87090034969151e-05</v>
+        <v>5.70000265724957e-05</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>5.879200762137771e-05</v>
+        <v>5.99999912083149e-05</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>4.554199404083192e-05</v>
+        <v>6.245804252102971e-05</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>5.195901030674577e-05</v>
+        <v>4.608399467542768e-05</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>5.804200191050768e-05</v>
+        <v>5.266600055620074e-05</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>5.808299465570599e-05</v>
+        <v>5.804200191050768e-05</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>5.874999624211341e-05</v>
+        <v>5.787500413134694e-05</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>5.895800131838769e-05</v>
+        <v>5.916698137298226e-05</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>5.76250022277236e-05</v>
+        <v>6.233301246538758e-05</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>5.870799941476434e-05</v>
+        <v>5.87500398978591e-05</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>5.99999912083149e-05</v>
+        <v>6.033299723640084e-05</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>6.212499283719808e-05</v>
+        <v>5.962495924904943e-05</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>5.975000385660678e-05</v>
+        <v>5.937495734542608e-05</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>5.787500413134694e-05</v>
+        <v>5.983305163681507e-05</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>5.941699782852083e-05</v>
+        <v>6.037502316758037e-05</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>5.820799560751766e-05</v>
+        <v>6.012502126395702e-05</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>5.874999624211341e-05</v>
+        <v>6.045802729204297e-05</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>5.879100353922695e-05</v>
+        <v>6.037502316758037e-05</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>6.037500861566514e-05</v>
+        <v>6.029201904311776e-05</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>5.570799112319946e-05</v>
+        <v>6.033299723640084e-05</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>6.370799383148551e-05</v>
+        <v>6.266700802370906e-05</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>6.295800267253071e-05</v>
+        <v>6.141600897535682e-05</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>6.245799886528403e-05</v>
+        <v>5.929195322096348e-05</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>5.866600258741528e-05</v>
+        <v>6.00829953327775e-05</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>5.950000195298344e-05</v>
+        <v>6.145803490653634e-05</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>5.887501174584031e-05</v>
+        <v>6.370799383148551e-05</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>5.912499909754843e-05</v>
+        <v>6.379198748618364e-05</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>6.099999882280827e-05</v>
+        <v>6.387499161064625e-05</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>5.970799247734249e-05</v>
+        <v>6.408401532098651e-05</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>6.125000072643161e-05</v>
+        <v>5.895801587030292e-05</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>6.404099985957146e-05</v>
+        <v>6.216601468622684e-05</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>5.970899655949324e-05</v>
+        <v>6.624998059123755e-05</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>6.070900417398661e-05</v>
+        <v>6.095797289162874e-05</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>6.379099795594811e-05</v>
+        <v>6.091600516811013e-05</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>6.1707993154414e-05</v>
+        <v>6.154202856123447e-05</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>6.441600271500647e-05</v>
+        <v>5.920801777392626e-05</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>6.179198680911213e-05</v>
+        <v>6.112502887845039e-05</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>5.487499583978206e-05</v>
+        <v>6.000004941597581e-05</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>6.166601087898016e-05</v>
+        <v>6.095803109928966e-05</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>5.887499719392508e-05</v>
+        <v>6.212497828528285e-05</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>6.029100040905178e-05</v>
+        <v>6.070802919566631e-05</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>6.070800009183586e-05</v>
+        <v>6.191700231283903e-05</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>6.533299165312201e-05</v>
+        <v>6.020802538841963e-05</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>6.516699795611203e-05</v>
+        <v>7.212499622255564e-05</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>6.500000017695129e-05</v>
+        <v>6.574997678399086e-05</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>6.491699605248868e-05</v>
+        <v>6.1584054492414e-05</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>6.037500861566514e-05</v>
+        <v>6.166700040921569e-05</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>6.125000072643161e-05</v>
+        <v>6.320799002423882e-05</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>6.112499977461994e-05</v>
+        <v>6.18330086581409e-05</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>6.208301056176424e-05</v>
+        <v>6.179203046485782e-05</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>5.983300798106939e-05</v>
+        <v>6.150000263005495e-05</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>6.104201020207256e-05</v>
+        <v>6.141600897535682e-05</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>6.066699279472232e-05</v>
+        <v>5.491700721904635e-05</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>6.000000576023012e-05</v>
+        <v>6.154202856123447e-05</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>6.108300294727087e-05</v>
+        <v>5.670799873769283e-05</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>6.233301246538758e-05</v>
+        <v>5.720800254493952e-05</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>6.629200652241707e-05</v>
+        <v>5.774997407570481e-05</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>6.283300172071904e-05</v>
+        <v>6.183295045047998e-05</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>6.712500180583447e-05</v>
+        <v>5.320803029462695e-05</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>6.745799328200519e-05</v>
+        <v>5.34999999217689e-05</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>6.399999256245792e-05</v>
+        <v>5.34169957973063e-05</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>6.741700053680688e-05</v>
+        <v>6.05420209467411e-05</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>5.691600381396711e-05</v>
+        <v>6.229197606444359e-05</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>5.695800064131618e-05</v>
+        <v>6.029201904311776e-05</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>5.375000182539225e-05</v>
+        <v>5.358300404623151e-05</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>5.779200000688434e-05</v>
+        <v>5.34169957973063e-05</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>7.170799653977156e-05</v>
+        <v>5.912501364946365e-05</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>6.299999949987978e-05</v>
+        <v>5.941599374637008e-05</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>6.412500806618482e-05</v>
+        <v>6.262498209252954e-05</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>6.78329961374402e-05</v>
+        <v>5.445902934297919e-05</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>6.866701005492359e-05</v>
+        <v>6.579200271517038e-05</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>6.287499854806811e-05</v>
+        <v>6.437499541789293e-05</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>6.404099985957146e-05</v>
+        <v>6.912497337907553e-05</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>6.883300375193357e-05</v>
+        <v>6.299995584413409e-05</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>6.366599700413644e-05</v>
+        <v>6.454100366681814e-05</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>6.887500057928264e-05</v>
+        <v>6.841600406914949e-05</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>6.708299042657018e-05</v>
+        <v>6.979098543524742e-05</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>5.137499829288572e-05</v>
+        <v>6.879196735098958e-05</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>6.458298594225198e-05</v>
+        <v>6.549997488036752e-05</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>6.45420077489689e-05</v>
+        <v>6.745796417817473e-05</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>6.716699863318354e-05</v>
+        <v>6.7666987888515e-05</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>6.770799518562853e-05</v>
+        <v>8.516601519659162e-05</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>6.94579939590767e-05</v>
+        <v>6.9500005338341e-05</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>6.933300755918026e-05</v>
+        <v>6.379099795594811e-05</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>6.558299355674535e-05</v>
+        <v>6.666698027402163e-05</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>6.766700244043022e-05</v>
+        <v>6.491702515631914e-05</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>6.925000343471766e-05</v>
+        <v>6.416701944544911e-05</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>6.979198951739818e-05</v>
+        <v>6.779195973649621e-05</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>6.95830094628036e-05</v>
+        <v>7.091695442795753e-05</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>6.962500629015267e-05</v>
+        <v>6.416602991521358e-05</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>6.999999459367245e-05</v>
+        <v>7.108296267688274e-05</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>7.037499744910747e-05</v>
+        <v>6.441702134907246e-05</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>7.03330006217584e-05</v>
+        <v>7.12089822627604e-05</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>7.03330006217584e-05</v>
+        <v>6.862496957182884e-05</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>6.641598884016275e-05</v>
+        <v>7.083301898092031e-05</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>7.091599400155246e-05</v>
+        <v>6.59999786876142e-05</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>7.14170018909499e-05</v>
+        <v>7.066701073199511e-05</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>6.483298784587532e-05</v>
+        <v>6.570800906047225e-05</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>7.145800918806344e-05</v>
+        <v>6.53750030323863e-05</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>7.041700882837176e-05</v>
+        <v>7.129099685698748e-05</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>7.241699495352805e-05</v>
+        <v>6.991595728322864e-05</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>7.212499622255564e-05</v>
+        <v>7.150002056732774e-05</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>6.633299926761538e-05</v>
+        <v>6.591598503291607e-05</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>6.929101073183119e-05</v>
+        <v>6.954203126952052e-05</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>7.28330051060766e-05</v>
+        <v>7.208302849903703e-05</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>7.258300320245326e-05</v>
+        <v>7.283396553248167e-05</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>7.095899491105229e-05</v>
+        <v>7.229100447148085e-05</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>7.266701140906662e-05</v>
+        <v>6.687501445412636e-05</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>7.158299558795989e-05</v>
+        <v>7.291702786460519e-05</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>6.670800212305039e-05</v>
+        <v>6.662501255050302e-05</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>6.879199645482004e-05</v>
+        <v>7.07499566487968e-05</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>7.241699495352805e-05</v>
+        <v>7.141695823520422e-05</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>7.362499309238046e-05</v>
+        <v>7.116701453924179e-05</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>6.641699292231351e-05</v>
+        <v>7.333396933972836e-05</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>6.966700311750174e-05</v>
+        <v>7.379200542345643e-05</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>7.316700066439807e-05</v>
+        <v>7.395801367238164e-05</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>7.14170018909499e-05</v>
+        <v>7.41670373827219e-05</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>7.404200732707977e-05</v>
+        <v>7.325003389269114e-05</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>7.374999404419214e-05</v>
+        <v>6.854202365502715e-05</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>7.441699563059956e-05</v>
+        <v>7.425004150718451e-05</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>7.370799721684307e-05</v>
+        <v>7.487501716241241e-05</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>7.387500954791903e-05</v>
+        <v>7.474998710677028e-05</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>7.44580029277131e-05</v>
+        <v>7.520802319049835e-05</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>7.30419997125864e-05</v>
+        <v>6.854103412479162e-05</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>7.108399586286396e-05</v>
+        <v>7.495802128687501e-05</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>6.837499677203596e-05</v>
+        <v>6.833299994468689e-05</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>7.529200229328126e-05</v>
+        <v>7.491704309359193e-05</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>7.483299123123288e-05</v>
+        <v>7.604103302583098e-05</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>7.499998901039362e-05</v>
+        <v>7.537502096965909e-05</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>7.241599087137729e-05</v>
+        <v>7.670803461223841e-05</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>7.145800918806344e-05</v>
+        <v>6.995804142206907e-05</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>6.46250118734315e-05</v>
+        <v>7.204205030575395e-05</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>6.054200639482588e-05</v>
+        <v>6.616703467443585e-05</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>6.879201100673527e-05</v>
+        <v>6.204203236848116e-05</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>7.341599848587066e-05</v>
+        <v>7.01249809935689e-05</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>7.39170063752681e-05</v>
+        <v>6.291596218943596e-05</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>7.658299000468105e-05</v>
+        <v>6.741698598489165e-05</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>7.695800741203129e-05</v>
+        <v>6.879202555865049e-05</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>7.537500641774386e-05</v>
+        <v>7.72500061430037e-05</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>7.545799599029124e-05</v>
+        <v>7.604202255606651e-05</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>7.624999852851033e-05</v>
+        <v>6.9500005338341e-05</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>7.645800360478461e-05</v>
+        <v>7.291702786460519e-05</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>7.745799666736275e-05</v>
+        <v>7.079099304974079e-05</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>6.149998807813972e-05</v>
+        <v>7.400003960356116e-05</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>7.241699495352805e-05</v>
+        <v>6.974994903430343e-05</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>7.545801054220647e-05</v>
+        <v>6.004195893183351e-05</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>7.662500138394535e-05</v>
+        <v>7.779203588142991e-05</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>7.61660048738122e-05</v>
+        <v>7.804099004715681e-05</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>7.662500138394535e-05</v>
+        <v>7.720902794972062e-05</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>7.654199725948274e-05</v>
+        <v>7.700000423938036e-05</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>7.675000233575702e-05</v>
+        <v>7.66250304877758e-05</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>7.71249906392768e-05</v>
+        <v>7.71670020185411e-05</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>7.72500061430037e-05</v>
+        <v>7.041596109047532e-05</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>7.687498873565346e-05</v>
+        <v>7.570901652798057e-05</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>7.712500519119203e-05</v>
+        <v>7.425004150718451e-05</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>9.358300303574651e-05</v>
+        <v>7.820903556421399e-05</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>7.012499554548413e-05</v>
+        <v>6.945803761482239e-05</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>7.449999975506216e-05</v>
+        <v>7.666600868105888e-05</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>7.79169931774959e-05</v>
+        <v>7.829099195078015e-05</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>7.666600868105888e-05</v>
+        <v>7.812498370185494e-05</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>7.77910026954487e-05</v>
+        <v>7.070897845551372e-05</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>7.900000491645187e-05</v>
+        <v>7.529201684519649e-05</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>7.904099766165018e-05</v>
+        <v>7.162499241530895e-05</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>7.745801121927798e-05</v>
+        <v>7.537496276199818e-05</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>7.858299068175256e-05</v>
+        <v>7.941701915115118e-05</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>7.80420086812228e-05</v>
+        <v>7.116602500900626e-05</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>7.837500015739352e-05</v>
+        <v>7.529201684519649e-05</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>7.841699698474258e-05</v>
+        <v>7.112498860806227e-05</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>7.795800047460943e-05</v>
+        <v>7.741700392216444e-05</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>7.79169931774959e-05</v>
+        <v>7.858296157792211e-05</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>7.491699943784624e-05</v>
+        <v>7.891602581366897e-05</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>7.79999973019585e-05</v>
+        <v>7.937499321997166e-05</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>7.900000491645187e-05</v>
+        <v>7.949996506795287e-05</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>7.658300455659628e-05</v>
+        <v>7.9624995123595e-05</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>7.949999417178333e-05</v>
+        <v>7.920898497104645e-05</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>7.816600555088371e-05</v>
+        <v>7.200002437457442e-05</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>7.858399476390332e-05</v>
+        <v>7.637502858415246e-05</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>7.908300904091448e-05</v>
+        <v>8.016603533178568e-05</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>7.9624995123595e-05</v>
+        <v>7.941701915115118e-05</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>7.854199793655425e-05</v>
+        <v>7.904198719188571e-05</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>7.308299245778471e-05</v>
+        <v>7.949996506795287e-05</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>7.80420086812228e-05</v>
+        <v>8.13750084489584e-05</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>7.633300265297294e-05</v>
+        <v>7.937499321997166e-05</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>8.012499893084168e-05</v>
+        <v>7.279199780896306e-05</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>7.858299068175256e-05</v>
+        <v>7.879198528826237e-05</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>7.991598977241665e-05</v>
+        <v>7.987499702721834e-05</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>8.237500151153654e-05</v>
+        <v>8.129200432449579e-05</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>7.962500967551023e-05</v>
+        <v>7.366598583757877e-05</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>7.991699385456741e-05</v>
+        <v>7.666699821129441e-05</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>7.916700269561261e-05</v>
+        <v>8.008303120732307e-05</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>8.041599357966334e-05</v>
+        <v>7.850001566112041e-05</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>8.079200051724911e-05</v>
+        <v>8.191697997972369e-05</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>6.837499677203596e-05</v>
+        <v>8.291599806398153e-05</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>6.383299478329718e-05</v>
+        <v>8.09579505585134e-05</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>7.254201045725495e-05</v>
+        <v>7.183302659541368e-05</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>7.241599087137729e-05</v>
+        <v>7.758301217108965e-05</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>6.937500438652933e-05</v>
+        <v>7.275003008544445e-05</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>8.291700214613229e-05</v>
+        <v>7.687497418373823e-05</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>7.491699943784624e-05</v>
+        <v>7.916701724752784e-05</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>7.35829962650314e-05</v>
+        <v>8.233397966250777e-05</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>7.412499689962715e-05</v>
+        <v>8.245895151048899e-05</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>8.24590097181499e-05</v>
+        <v>8.179200813174248e-05</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>8.074998913798481e-05</v>
+        <v>7.424998329952359e-05</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>8.037500083446503e-05</v>
+        <v>7.737503619864583e-05</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>8.199999865610152e-05</v>
+        <v>8.150003850460052e-05</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>6.52499875286594e-05</v>
+        <v>8.25420138426125e-05</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>9.995800792239606e-05</v>
+        <v>6.733305053785443e-05</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>8.095899829640985e-05</v>
+        <v>7.983396062627435e-05</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>8.162499580066651e-05</v>
+        <v>8.083297871053219e-05</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>8.066599548328668e-05</v>
+        <v>8.249998791143298e-05</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>8.095799421425909e-05</v>
+        <v>7.470801938325167e-05</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>8.120900020003319e-05</v>
+        <v>8.366600377485156e-05</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>8.191699453163892e-05</v>
+        <v>8.274998981505632e-05</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>7.945799734443426e-05</v>
+        <v>7.391604594886303e-05</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>8.112499199341983e-05</v>
+        <v>7.529102731496096e-05</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>8.095799421425909e-05</v>
+        <v>8.404196705669165e-05</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>8.225000055972487e-05</v>
+        <v>8.149998029693961e-05</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>7.524999091401696e-05</v>
+        <v>8.274998981505632e-05</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>7.52909982111305e-05</v>
+        <v>8.433300536125898e-05</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>7.470800483133644e-05</v>
+        <v>8.458300726488233e-05</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>8.408300345763564e-05</v>
+        <v>8.279102621600032e-05</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>8.416600758209825e-05</v>
+        <v>8.25420138426125e-05</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>8.362499647773802e-05</v>
+        <v>8.299999171867967e-05</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>8.166600309778005e-05</v>
+        <v>8.249998791143298e-05</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>8.175001130439341e-05</v>
+        <v>8.287501987069845e-05</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>8.258299203589559e-05</v>
+        <v>8.220801828429103e-05</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>8.275000436697155e-05</v>
+        <v>8.258299203589559e-05</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>8.062500273808837e-05</v>
+        <v>8.254195563495159e-05</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>8.220900781452656e-05</v>
+        <v>8.220796007663012e-05</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>8.250000246334821e-05</v>
+        <v>8.220801828429103e-05</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>8.183300087694079e-05</v>
+        <v>8.325005182996392e-05</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>8.266599616035819e-05</v>
+        <v>7.587502477690578e-05</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>8.275000436697155e-05</v>
+        <v>7.97079992480576e-05</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>8.229100785683841e-05</v>
+        <v>7.562496466562152e-05</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>8.250000246334821e-05</v>
+        <v>8.483300916850567e-05</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>8.2874990766868e-05</v>
+        <v>8.291698759421706e-05</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>8.366600377485156e-05</v>
+        <v>8.3291030023247e-05</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>7.587499567307532e-05</v>
+        <v>8.395803160965443e-05</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>8.020800305530429e-05</v>
+        <v>8.466601138934493e-05</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>8.304200309794396e-05</v>
+        <v>8.541700663045049e-05</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>8.283300849143416e-05</v>
+        <v>8.299999171867967e-05</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>8.345799869857728e-05</v>
+        <v>8.370802970603108e-05</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>8.658300794195384e-05</v>
+        <v>8.408300345763564e-05</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>7.766600174363703e-05</v>
+        <v>8.458300726488233e-05</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>8.358299965038896e-05</v>
+        <v>7.691700011491776e-05</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>8.262500341515988e-05</v>
+        <v>8.38330015540123e-05</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>8.300000627059489e-05</v>
+        <v>8.416699711233377e-05</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>8.325000817421824e-05</v>
+        <v>8.441600948572159e-05</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>8.279200119432062e-05</v>
+        <v>8.362496737390757e-05</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>8.370800060220063e-05</v>
+        <v>8.374999742954969e-05</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>8.487499144393951e-05</v>
+        <v>8.600001456215978e-05</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>8.05000017862767e-05</v>
+        <v>8.31669894978404e-05</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>7.27909937268123e-05</v>
+        <v>8.416600758209825e-05</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>6.829100311733782e-05</v>
+        <v>7.61249684728682e-05</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>8.2333994214423e-05</v>
+        <v>7.045798702165484e-05</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>8.850000449456275e-05</v>
+        <v>6.983301136642694e-05</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>8.491599874105304e-05</v>
+        <v>6.88339932821691e-05</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>8.462500409223139e-05</v>
+        <v>6.945902714505792e-05</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>8.462498954031616e-05</v>
+        <v>6.904202746227384e-05</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>8.441699901595712e-05</v>
+        <v>8.037500083446503e-05</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>8.520799747202545e-05</v>
+        <v>8.187495404854417e-05</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>8.374999742954969e-05</v>
+        <v>8.441600948572159e-05</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>8.350001007784158e-05</v>
+        <v>8.416699711233377e-05</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>7.258298865053803e-05</v>
+        <v>8.474994683638215e-05</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>7.72500061430037e-05</v>
+        <v>8.454202907159925e-05</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>8.333299774676561e-05</v>
+        <v>7.100001676008105e-05</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>8.445800631307065e-05</v>
+        <v>7.3166040237993e-05</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>8.358299965038896e-05</v>
+        <v>8.533301297575235e-05</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>8.733299910090864e-05</v>
+        <v>8.712505223229527e-05</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>8.425000123679638e-05</v>
+        <v>7.825001375749707e-05</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>8.470899774692953e-05</v>
+        <v>7.829198148101568e-05</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>8.604099275544286e-05</v>
+        <v>8.425000123679638e-05</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>8.475000504404306e-05</v>
+        <v>7.045903475955129e-05</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>8.654101111460477e-05</v>
+        <v>7.112498860806227e-05</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>7.866699888836592e-05</v>
+        <v>7.137499051168561e-05</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>8.712499402463436e-05</v>
+        <v>7.158302469179034e-05</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>8.495899965055287e-05</v>
+        <v>7.529201684519649e-05</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>8.774999878369272e-05</v>
+        <v>7.566699059680104e-05</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>7.87919998401776e-05</v>
+        <v>7.770798401907086e-05</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>7.862500206101686e-05</v>
+        <v>8.991599315777421e-05</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>7.841699698474258e-05</v>
+        <v>8.170900400727987e-05</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>8.758300100453198e-05</v>
+        <v>8.941703708842397e-05</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>8.804199751466513e-05</v>
+        <v>8.320901542901993e-05</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>8.666700159665197e-05</v>
+        <v>8.112500654533505e-05</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>8.537500980310142e-05</v>
+        <v>8.875003550201654e-05</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>8.566600445192307e-05</v>
+        <v>9.475002298131585e-05</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>8.654099656268954e-05</v>
+        <v>8.66670161485672e-05</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>8.633299148641527e-05</v>
+        <v>0.0001012920401990414</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>7.941600051708519e-05</v>
+        <v>8.641602471470833e-05</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>8.65840120241046e-05</v>
+        <v>7.975002517923713e-05</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>8.89999937498942e-05</v>
+        <v>8.670799434185028e-05</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>8.63330060383305e-05</v>
+        <v>8.658302249386907e-05</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>8.587499905843288e-05</v>
+        <v>0.0001039580092765391</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>0.0001085420080926269</v>
+        <v>8.924998110160232e-05</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>8.700000762473792e-05</v>
+        <v>8.745800005272031e-05</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>8.658300794195384e-05</v>
+        <v>8.020800305530429e-05</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>8.699999307282269e-05</v>
+        <v>8.808297570794821e-05</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>8.425000123679638e-05</v>
+        <v>8.758303010836244e-05</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>8.700000762473792e-05</v>
+        <v>8.099997648969293e-05</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>8.695900032762438e-05</v>
+        <v>8.708302630111575e-05</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>8.695801079738885e-05</v>
+        <v>8.083297871053219e-05</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>8.679200254846364e-05</v>
+        <v>7.999996887519956e-05</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>8.733299910090864e-05</v>
+        <v>8.895795326679945e-05</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>8.749999688006938e-05</v>
+        <v>8.083297871053219e-05</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>8.658299339003861e-05</v>
+        <v>8.095800876617432e-05</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>8.75000114319846e-05</v>
+        <v>8.13750084489584e-05</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>8.875000639818609e-05</v>
+        <v>8.150003850460052e-05</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>8.870899910107255e-05</v>
+        <v>8.062500273808837e-05</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>7.924999226815999e-05</v>
+        <v>8.808297570794821e-05</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>7.483299123123288e-05</v>
+        <v>8.899997919797897e-05</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>8.354200690519065e-05</v>
+        <v>8.816597983241081e-05</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>8.037500083446503e-05</v>
+        <v>8.008297299966216e-05</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>8.666599751450121e-05</v>
+        <v>7.408298552036285e-05</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>9.112499537877738e-05</v>
+        <v>8.362502558156848e-05</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>8.804199751466513e-05</v>
+        <v>9.179202606901526e-05</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>8.862500544637442e-05</v>
+        <v>8.470896864309907e-05</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>8.704198990017176e-05</v>
+        <v>8.945801528170705e-05</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>8.745800005272031e-05</v>
+        <v>8.883298141881824e-05</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>8.833300671540201e-05</v>
+        <v>8.816696936264634e-05</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>7.795800047460943e-05</v>
+        <v>8.929200703278184e-05</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>8.687500667292625e-05</v>
+        <v>8.891697507351637e-05</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>9.212500299327075e-05</v>
+        <v>8.887500734999776e-05</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>8.754100417718291e-05</v>
+        <v>7.599999662488699e-05</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>8.81669984664768e-05</v>
+        <v>8.179200813174248e-05</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>8.179199357982725e-05</v>
+        <v>8.887494914233685e-05</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>8.829199941828847e-05</v>
+        <v>8.879200322553515e-05</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>8.766699465923011e-05</v>
+        <v>8.520897245034575e-05</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>8.800000068731606e-05</v>
+        <v>8.404097752645612e-05</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>8.883301052264869e-05</v>
+        <v>8.933397475630045e-05</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>8.870799501892179e-05</v>
+        <v>9.124999633058906e-05</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>8.895900100469589e-05</v>
+        <v>9.008299093693495e-05</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>9.054099791683257e-05</v>
+        <v>9.079201845452189e-05</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>8.924999565351754e-05</v>
+        <v>8.945795707404613e-05</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>8.874999184627086e-05</v>
+        <v>8.354202145710588e-05</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>8.933299977798015e-05</v>
+        <v>9.362504351884127e-05</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>8.379100472666323e-05</v>
+        <v>9.129202226176858e-05</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>9.012500231619924e-05</v>
+        <v>9.095796849578619e-05</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>8.991699723992497e-05</v>
+        <v>9.108398808166385e-05</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>7.916700269561261e-05</v>
+        <v>9.104202035814524e-05</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>8.616699778940529e-05</v>
+        <v>9.008299093693495e-05</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>9.008299093693495e-05</v>
+        <v>9.054195834323764e-05</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>7.72500061430037e-05</v>
+        <v>8.91660456545651e-05</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>7.900000491645187e-05</v>
+        <v>9.229098213836551e-05</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>7.887498941272497e-05</v>
+        <v>9.062502067536116e-05</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>7.904200174380094e-05</v>
+        <v>8.39160056784749e-05</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>7.97079992480576e-05</v>
+        <v>8.991698268800974e-05</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>7.516700134146959e-05</v>
+        <v>9.116594446823001e-05</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>8.058399544097483e-05</v>
+        <v>8.48339986987412e-05</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>7.966700650285929e-05</v>
+        <v>9.495799895375967e-05</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>8.98750004125759e-05</v>
+        <v>9.212503209710121e-05</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>8.820799121167511e-05</v>
+        <v>8.487503509968519e-05</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>8.754098962526768e-05</v>
+        <v>9.245803812518716e-05</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>8.804201206658036e-05</v>
+        <v>9.162497008219361e-05</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>7.404199277516454e-05</v>
+        <v>9.191699791699648e-05</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>8.241699833888561e-05</v>
+        <v>8.458300726488233e-05</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>7.624999852851033e-05</v>
+        <v>8.504203287884593e-05</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>7.524999091401696e-05</v>
+        <v>8.475000504404306e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>8.083399734459817e-05</v>
+        <v>8.516601519659162e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>8.104200242087245e-05</v>
+        <v>9.116600267589092e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/bst_flag/search.xlsx
+++ b/outputs/bst_flag/search.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.417007297277451e-06</v>
+        <v>1.541979145258665e-06</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.08969309926033e-07</v>
+        <v>9.169452823698521e-07</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.124987076967955e-06</v>
+        <v>2.790999133139849e-06</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.040985807776451e-06</v>
+        <v>1.083011738955975e-06</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.125037670135498e-06</v>
+        <v>1.00000761449337e-06</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.04197533801198e-06</v>
+        <v>1.00000761449337e-06</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.457985490560532e-06</v>
+        <v>1.166015863418579e-06</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.332955434918404e-06</v>
+        <v>9.580398909747601e-07</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.333013642579317e-06</v>
+        <v>9.579816833138466e-07</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.375039573758841e-06</v>
+        <v>1.00000761449337e-06</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.540989615023136e-06</v>
+        <v>1.082953531295061e-06</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.667009200900793e-06</v>
+        <v>1.125037670135498e-06</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.62498326972127e-06</v>
+        <v>1.125037670135498e-06</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.791981048882008e-06</v>
+        <v>1.250009518116713e-06</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.833017449826002e-06</v>
+        <v>1.333013642579317e-06</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.957989297807217e-06</v>
+        <v>1.500011421740055e-06</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.042041160166264e-06</v>
+        <v>1.542037352919579e-06</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.083019353449345e-06</v>
+        <v>1.58301554620266e-06</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.167013008147478e-06</v>
+        <v>1.708045601844788e-06</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.250017132610083e-06</v>
+        <v>1.667009200900793e-06</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.166023477911949e-06</v>
+        <v>1.750013325363398e-06</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.500019036233425e-06</v>
+        <v>1.833017449826002e-06</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.584012690931559e-06</v>
+        <v>2.00001522898674e-06</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.707995008677244e-06</v>
+        <v>2.00001522898674e-06</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.62499088421464e-06</v>
+        <v>2.08395067602396e-06</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.042041160166264e-06</v>
+        <v>2.124987076967955e-06</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.917018719017506e-06</v>
+        <v>2.167013008147478e-06</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.957996912300587e-06</v>
+        <v>2.207991201430559e-06</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.124994691461325e-06</v>
+        <v>2.290995325893164e-06</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.833025064319372e-06</v>
+        <v>2.334010787308216e-06</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.62499849870801e-06</v>
+        <v>2.58302316069603e-06</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.5830307751894e-06</v>
+        <v>2.666027285158634e-06</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.540946636348963e-06</v>
+        <v>2.707995008677244e-06</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.541004844009876e-06</v>
+        <v>2.708984538912773e-06</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.708992153406143e-06</v>
+        <v>2.832966856658459e-06</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.791006747633219e-06</v>
+        <v>2.917018719017506e-06</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.708002623170614e-06</v>
+        <v>2.916029188781977e-06</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.125002305954695e-06</v>
+        <v>2.916029188781977e-06</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.999972250312567e-06</v>
+        <v>3.041001036763191e-06</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.084024112671614e-06</v>
+        <v>3.291002940386534e-06</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.207998815923929e-06</v>
+        <v>3.167020622640848e-06</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.249974153935909e-06</v>
+        <v>3.207998815923929e-06</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.917033948004246e-06</v>
+        <v>3.416964318603277e-06</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.582980182021856e-06</v>
+        <v>3.374996595084667e-06</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.58303838968277e-06</v>
+        <v>3.415974788367748e-06</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.666042514145374e-06</v>
+        <v>3.499968443065882e-06</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.916975740343332e-06</v>
+        <v>3.708002623170614e-06</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.999979864805937e-06</v>
+        <v>3.709050361067057e-06</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.833040293306112e-06</v>
+        <v>3.750028554350138e-06</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.957953933626413e-06</v>
+        <v>3.833964001387358e-06</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.084031727164984e-06</v>
+        <v>3.957946319133043e-06</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.084024112671614e-06</v>
+        <v>4.041008651256561e-06</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.125002305954695e-06</v>
+        <v>4.291010554879904e-06</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.584035534411669e-06</v>
+        <v>4.084024112671614e-06</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.999979864805937e-06</v>
+        <v>4.125002305954695e-06</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.542009603232145e-06</v>
+        <v>4.250032361596823e-06</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.62501372769475e-06</v>
+        <v>4.332978278398514e-06</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.750043783336878e-06</v>
+        <v>4.208995960652828e-06</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.708017852157354e-06</v>
+        <v>4.417030140757561e-06</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.041955202817917e-06</v>
+        <v>4.416971933096647e-06</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.167043466120958e-06</v>
+        <v>4.542001988738775e-06</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.958019755780697e-06</v>
+        <v>4.582980182021856e-06</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.375019438564777e-06</v>
+        <v>4.750036168843508e-06</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.916990969330072e-06</v>
+        <v>5.125009920448065e-06</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.916990969330072e-06</v>
+        <v>5.083042196929455e-06</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.791029591113329e-06</v>
+        <v>5.08397351950407e-06</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.749993190169334e-06</v>
+        <v>5.209003575146198e-06</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.917049176990986e-06</v>
+        <v>5.375011824071407e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.08398874849081e-06</v>
+        <v>5.375011824071407e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.375027053058147e-06</v>
+        <v>5.249981768429279e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.082999218255281e-06</v>
+        <v>5.62501372769475e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.249996997416019e-06</v>
+        <v>5.582987796515226e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.458962500095367e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.583003025501966e-06</v>
+        <v>5.62501372769475e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.124966941773891e-06</v>
+        <v>5.582987796515226e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8.375034667551517e-06</v>
+        <v>6.499991286545992e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.833004929125309e-06</v>
+        <v>5.749985575675964e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.624970749020576e-06</v>
+        <v>5.708017852157354e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.458023563027382e-06</v>
+        <v>5.959009286016226e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.916998583823442e-06</v>
+        <v>5.916983354836702e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8.290982805192471e-06</v>
+        <v>6.165995728224516e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8.457980584353209e-06</v>
+        <v>6.166985258460045e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8.000002708286047e-06</v>
+        <v>6.125017534941435e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.582995411008596e-06</v>
+        <v>6.499991286545992e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.749993190169334e-06</v>
+        <v>6.542017217725515e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.66698906570673e-06</v>
+        <v>6.542017217725515e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.749993190169334e-06</v>
+        <v>6.542017217725515e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.749993190169334e-06</v>
+        <v>6.582995411008596e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.916990969330072e-06</v>
+        <v>6.541027687489986e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.791960913687944e-06</v>
+        <v>6.582995411008596e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.999995093792677e-06</v>
+        <v>6.707967258989811e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.249996997416019e-06</v>
+        <v>7.2909751906991e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.333001121878624e-06</v>
+        <v>7.124966941773891e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.541966624557972e-06</v>
+        <v>7.291033398360014e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.6669966802001e-06</v>
+        <v>7.292022928595543e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>7.333990652114153e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.540977094322443e-06</v>
+        <v>7.375027053058147e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.750000804662704e-06</v>
+        <v>7.374968845397234e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.666007149964571e-06</v>
+        <v>7.499998901039362e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.707974873483181e-06</v>
+        <v>7.499998901039362e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.916998583823442e-06</v>
+        <v>7.709022611379623e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.959024515002966e-06</v>
+        <v>7.792026735842228e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8.041970431804657e-06</v>
+        <v>7.750000804662704e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8.083006832748652e-06</v>
+        <v>7.833004929125309e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8.124974556267262e-06</v>
+        <v>8.083006832748652e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8.167000487446785e-06</v>
+        <v>8.000002708286047e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.542032446712255e-06</v>
+        <v>8.250004611909389e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8.624978363513947e-06</v>
+        <v>8.167000487446785e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.582952432334423e-06</v>
+        <v>8.374976459890604e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8.750008419156075e-06</v>
+        <v>8.541974239051342e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8.875038474798203e-06</v>
+        <v>8.624978363513947e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8.707982487976551e-06</v>
+        <v>8.500006515532732e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8.666014764457941e-06</v>
+        <v>8.458970114588737e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.750008419156075e-06</v>
+        <v>8.415954653173685e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.707982487976551e-06</v>
+        <v>8.582952432334423e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.792034350335598e-06</v>
+        <v>8.583010639995337e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>8.874980267137289e-06</v>
+        <v>8.583010639995337e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9.041978046298027e-06</v>
+        <v>8.875038474798203e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9.000010322779417e-06</v>
+        <v>8.916016668081284e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9.124982170760632e-06</v>
+        <v>8.917006198316813e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9.124982170760632e-06</v>
+        <v>8.916016668081284e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.417010005563498e-06</v>
+        <v>9.040988516062498e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.375042282044888e-06</v>
+        <v>9.167008101940155e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.25001222640276e-06</v>
+        <v>9.000010322779417e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9.583018254488707e-06</v>
+        <v>9.165960364043713e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.749957825988531e-06</v>
+        <v>9.665964171290398e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0124989785254e-05</v>
+        <v>9.874987881630659e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.037499168887734e-05</v>
+        <v>9.999959729611874e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.020799390971661e-05</v>
+        <v>9.875046089291573e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.024996163323522e-05</v>
+        <v>9.834009688347578e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.020898343995214e-05</v>
+        <v>9.791983757168055e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.037504989653826e-05</v>
+        <v>9.874987881630659e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.020799390971661e-05</v>
+        <v>9.917013812810183e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.054099993780255e-05</v>
+        <v>1.016701571643353e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.062499359250069e-05</v>
+        <v>1.041695941239595e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.041701762005687e-05</v>
+        <v>1.033302396535873e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.050002174451947e-05</v>
+        <v>1.029204577207565e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.083401730284095e-05</v>
+        <v>1.041701762005687e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.07499654404819e-05</v>
+        <v>1.0542047675699e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.091702142730355e-05</v>
+        <v>1.037499168887734e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.091702142730355e-05</v>
+        <v>1.037504989653826e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.104199327528477e-05</v>
+        <v>1.07910018414259e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.13330315798521e-05</v>
+        <v>1.083296956494451e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.12500274553895e-05</v>
+        <v>1.083302777260542e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.120899105444551e-05</v>
+        <v>1.087499549612403e-05</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.099996734410524e-05</v>
+        <v>1.079199137166142e-05</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.116696512326598e-05</v>
+        <v>1.091702142730355e-05</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.120800152420998e-05</v>
+        <v>1.104199327528477e-05</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.100002555176616e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.166603760793805e-05</v>
+        <v>1.116696512326598e-05</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.150002935901284e-05</v>
+        <v>1.11670233309269e-05</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.179199898615479e-05</v>
+        <v>1.133297337219119e-05</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.174997305497527e-05</v>
+        <v>1.141696702688932e-05</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.175003126263618e-05</v>
+        <v>1.141702523455024e-05</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.170800533145666e-05</v>
+        <v>1.141696702688932e-05</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.170800533145666e-05</v>
+        <v>1.133402111008763e-05</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.162500120699406e-05</v>
+        <v>1.133402111008763e-05</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>1.154205529019237e-05</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.191702904179692e-05</v>
+        <v>1.158303348347545e-05</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.204200088977814e-05</v>
+        <v>1.191598130390048e-05</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.216697273775935e-05</v>
+        <v>1.179199898615479e-05</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.212500501424074e-05</v>
+        <v>1.18750031106174e-05</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.208297908306122e-05</v>
+        <v>1.170800533145666e-05</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.225003506988287e-05</v>
+        <v>1.162500120699406e-05</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.254200469702482e-05</v>
+        <v>1.191697083413601e-05</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.258304109796882e-05</v>
+        <v>1.229200279340148e-05</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.262500882148743e-05</v>
+        <v>1.220800913870335e-05</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.291703665629029e-05</v>
+        <v>1.254200469702482e-05</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.262500882148743e-05</v>
+        <v>1.245900057256222e-05</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.279200660064816e-05</v>
+        <v>1.262500882148743e-05</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.291703665629029e-05</v>
+        <v>1.24999787658453e-05</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.325004268437624e-05</v>
+        <v>1.283298479393125e-05</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.304096076637506e-05</v>
+        <v>1.270801294595003e-05</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.349998638033867e-05</v>
+        <v>1.283304300159216e-05</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.345801865682006e-05</v>
+        <v>1.295801484957337e-05</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.341599272564054e-05</v>
+        <v>1.299998257309198e-05</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.36250164359808e-05</v>
+        <v>1.295795664191246e-05</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.370796235278249e-05</v>
+        <v>1.325004268437624e-05</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.354201231151819e-05</v>
+        <v>1.329201040789485e-05</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.379195600748062e-05</v>
+        <v>1.329102087765932e-05</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.370796235278249e-05</v>
+        <v>1.320900628343225e-05</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.400004839524627e-05</v>
+        <v>1.345801865682006e-05</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.420796616002917e-05</v>
+        <v>1.345801865682006e-05</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.412496203556657e-05</v>
+        <v>1.349998638033867e-05</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.408299431204796e-05</v>
+        <v>1.366599462926388e-05</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.404195791110396e-05</v>
+        <v>1.374998828396201e-05</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.433398574590683e-05</v>
+        <v>1.399999018758535e-05</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.449999399483204e-05</v>
+        <v>1.391698606312275e-05</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.454201992601156e-05</v>
+        <v>1.374998828396201e-05</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.483300002291799e-05</v>
+        <v>1.43329962156713e-05</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.470796996727586e-05</v>
+        <v>1.404195791110396e-05</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.466600224375725e-05</v>
+        <v>1.408398384228349e-05</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.462502405047417e-05</v>
+        <v>1.416599843651056e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.508399145677686e-05</v>
+        <v>1.462502405047417e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.504196552559733e-05</v>
+        <v>1.458299811929464e-05</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.47920218296349e-05</v>
+        <v>1.441600034013391e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.491699367761612e-05</v>
+        <v>1.449999399483204e-05</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.504196552559733e-05</v>
+        <v>1.474999589845538e-05</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.508300192654133e-05</v>
+        <v>1.479196362197399e-05</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.529103610664606e-05</v>
+        <v>1.504202373325825e-05</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.545896520838141e-05</v>
+        <v>1.49579718708992e-05</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.554202754050493e-05</v>
+        <v>1.516594784334302e-05</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.529103610664606e-05</v>
+        <v>1.520902151241899e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.54580338858068e-05</v>
+        <v>1.508399145677686e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.583399716764688e-05</v>
+        <v>1.48749677464366e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.566600985825062e-05</v>
+        <v>1.54169974848628e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.579202944412827e-05</v>
+        <v>1.524999970570207e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.570902531966567e-05</v>
+        <v>1.537497155368328e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.579197123646736e-05</v>
+        <v>1.545797567814589e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.612503547221422e-05</v>
+        <v>1.554196933284402e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.595803769305348e-05</v>
+        <v>1.529202563688159e-05</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.637497916817665e-05</v>
+        <v>1.554202754050493e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.637497916817665e-05</v>
+        <v>1.558399526402354e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.645798329263926e-05</v>
+        <v>1.579202944412827e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.645798329263926e-05</v>
+        <v>1.579202944412827e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.658301334828138e-05</v>
+        <v>1.583399716764688e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.65420351549983e-05</v>
+        <v>1.591700129210949e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.65420351549983e-05</v>
+        <v>1.591700129210949e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.650000922381878e-05</v>
+        <v>1.60830095410347e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.666601747274399e-05</v>
+        <v>1.600000541657209e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.658301334828138e-05</v>
+        <v>1.60830095410347e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.71670108102262e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.70840066857636e-05</v>
+        <v>1.620798138901591e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1.700001303106546e-05</v>
+        <v>1.629203325137496e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.675001112744212e-05</v>
+        <v>1.629203325137496e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.704198075458407e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.679104752838612e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.704099122434855e-05</v>
+        <v>1.679197885096073e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.683301525190473e-05</v>
+        <v>1.629098551347852e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.708301715552807e-05</v>
+        <v>1.670903293415904e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.725001493468881e-05</v>
+        <v>1.700001303106546e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.73329608514905e-05</v>
+        <v>1.674995291978121e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.737498678267002e-05</v>
+        <v>1.675001112744212e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.77919864654541e-05</v>
+        <v>1.691700890660286e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.741701271384954e-05</v>
+        <v>1.695798709988594e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.729099312797189e-05</v>
+        <v>1.820898614823818e-05</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.741602318361402e-05</v>
+        <v>1.712498487904668e-05</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.775001874193549e-05</v>
+        <v>1.725001493468881e-05</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.741695450618863e-05</v>
+        <v>1.725001493468881e-05</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.783401239663363e-05</v>
+        <v>1.733301905915141e-05</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.77919864654541e-05</v>
+        <v>1.729198265820742e-05</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.779204467311502e-05</v>
+        <v>1.762498868629336e-05</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.812499249354005e-05</v>
+        <v>1.72910513356328e-05</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1.820799661800265e-05</v>
+        <v>1.745898043736815e-05</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.804099883884192e-05</v>
+        <v>1.733301905915141e-05</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.804198836907744e-05</v>
+        <v>1.758401049301028e-05</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.800002064555883e-05</v>
+        <v>1.754198456183076e-05</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.837499439716339e-05</v>
+        <v>1.766602508723736e-05</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.816602889448404e-05</v>
+        <v>1.795799471437931e-05</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.862499630078673e-05</v>
+        <v>1.820799661800265e-05</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.850002445280552e-05</v>
+        <v>1.829199027270079e-05</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.874996814876795e-05</v>
+        <v>1.808302477002144e-05</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1.895899185910821e-05</v>
+        <v>1.804198836907744e-05</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1.941696973517537e-05</v>
+        <v>1.862499630078673e-05</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1.920794602483511e-05</v>
+        <v>1.89170241355896e-05</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1.974997576326132e-05</v>
+        <v>1.908402191475034e-05</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.941702794283628e-05</v>
+        <v>1.920899376273155e-05</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1.933297608047724e-05</v>
+        <v>1.891696592792869e-05</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1.920800423249602e-05</v>
+        <v>1.870898995548487e-05</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.933297608047724e-05</v>
+        <v>1.883297227323055e-05</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.945899566635489e-05</v>
+        <v>1.891603460535407e-05</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1.975003397092223e-05</v>
+        <v>1.916702603921294e-05</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1.945800613611937e-05</v>
+        <v>1.90829741768539e-05</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.987500581890345e-05</v>
+        <v>1.916702603921294e-05</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.970800803974271e-05</v>
+        <v>1.920800423249602e-05</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1.96250039152801e-05</v>
+        <v>1.916702603921294e-05</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1.983396941795945e-05</v>
+        <v>1.929199788719416e-05</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>2.029200550168753e-05</v>
+        <v>1.970899756997824e-05</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>2.004101406782866e-05</v>
+        <v>1.949997385963798e-05</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2.054101787507534e-05</v>
+        <v>2.029200550168753e-05</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>2.045801375061274e-05</v>
+        <v>1.970800803974271e-05</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>2.049998147413135e-05</v>
+        <v>1.991697354242206e-05</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>2.033298369497061e-05</v>
+        <v>1.983402762562037e-05</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>2.054200740531087e-05</v>
+        <v>2.016703365370631e-05</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>2.041598781943321e-05</v>
+        <v>1.983303809538484e-05</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2.054200740531087e-05</v>
+        <v>1.999997766688466e-05</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2.079200930893421e-05</v>
+        <v>1.975003397092223e-05</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2.104201121255755e-05</v>
+        <v>2.049998147413135e-05</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>2.13750172406435e-05</v>
+        <v>2.066598972305655e-05</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2.116698306053877e-05</v>
+        <v>2.008298179134727e-05</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2.083397703245282e-05</v>
+        <v>2.033298369497061e-05</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2.133299130946398e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>2.112501533702016e-05</v>
+        <v>2.0667037460953e-05</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>2.124998718500137e-05</v>
+        <v>2.058304380625486e-05</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2.116704126819968e-05</v>
+        <v>2.079101977869868e-05</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2.208398655056953e-05</v>
+        <v>2.133299130946398e-05</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2.145796315744519e-05</v>
+        <v>2.108298940584064e-05</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2.191599924117327e-05</v>
+        <v>2.087501343339682e-05</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2.162501914426684e-05</v>
+        <v>2.129102358594537e-05</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2.170802326872945e-05</v>
+        <v>2.141698496416211e-05</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2.166599733754992e-05</v>
+        <v>2.120796125382185e-05</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2.179096918553114e-05</v>
+        <v>2.154201501980424e-05</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2.191704697906971e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2.266600495204329e-05</v>
+        <v>2.145802136510611e-05</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2.262502675876021e-05</v>
+        <v>2.141698496416211e-05</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2.220796886831522e-05</v>
+        <v>2.708297688513994e-05</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2.20410292968154e-05</v>
+        <v>2.254097489640117e-05</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2.220901660621166e-05</v>
+        <v>2.212502295151353e-05</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2.233299892395735e-05</v>
+        <v>2.208398655056953e-05</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2.254202263429761e-05</v>
+        <v>2.179201692342758e-05</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2.245802897959948e-05</v>
+        <v>2.179201692342758e-05</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2.254202263429761e-05</v>
+        <v>2.220802707597613e-05</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2.249999670311809e-05</v>
+        <v>2.195802517235279e-05</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2.295803278684616e-05</v>
+        <v>2.233299892395735e-05</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2.27079726755619e-05</v>
+        <v>2.220901660621166e-05</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2.31250305660069e-05</v>
+        <v>2.224999479949474e-05</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2.325000241398811e-05</v>
+        <v>2.283399226143956e-05</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2.30839941650629e-05</v>
+        <v>2.245802897959948e-05</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2.316595055162907e-05</v>
+        <v>2.237496664747596e-05</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2.337497426196933e-05</v>
+        <v>2.262502675876021e-05</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2.341601066291332e-05</v>
+        <v>2.287497045472264e-05</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2.366700209677219e-05</v>
+        <v>2.316699828952551e-05</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2.358300844207406e-05</v>
+        <v>2.274999860674143e-05</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2.358295023441315e-05</v>
+        <v>2.295797457918525e-05</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2.345797838643193e-05</v>
+        <v>2.279196633026004e-05</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2.358295023441315e-05</v>
+        <v>2.320902422070503e-05</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2.366700209677219e-05</v>
+        <v>2.291600685566664e-05</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>2.395804040133953e-05</v>
+        <v>2.350000431761146e-05</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>2.387497806921601e-05</v>
+        <v>2.345803659409285e-05</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>2.387503627687693e-05</v>
+        <v>2.316600875928998e-05</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>2.391700400039554e-05</v>
+        <v>2.32080346904695e-05</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>2.383399987593293e-05</v>
+        <v>2.349994610995054e-05</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2.408301224932075e-05</v>
+        <v>2.341700019314885e-05</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>2.429197775200009e-05</v>
+        <v>2.345803659409285e-05</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>2.420798409730196e-05</v>
+        <v>2.362497616559267e-05</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>2.441700780764222e-05</v>
+        <v>2.354203024879098e-05</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>2.43749818764627e-05</v>
+        <v>2.404098631814122e-05</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2.441700780764222e-05</v>
+        <v>2.362497616559267e-05</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2.433301415294409e-05</v>
+        <v>2.362497616559267e-05</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>2.44579860009253e-05</v>
+        <v>2.425001002848148e-05</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>3.708398435264826e-05</v>
+        <v>2.420804230496287e-05</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>2.491701161488891e-05</v>
+        <v>2.387497806921601e-05</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>2.44579860009253e-05</v>
+        <v>2.374994801357388e-05</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>2.48340074904263e-05</v>
+        <v>2.44579860009253e-05</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>2.450001193210483e-05</v>
+        <v>3.266596468165517e-05</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>2.462498378008604e-05</v>
+        <v>2.591696102172136e-05</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>2.433301415294409e-05</v>
+        <v>2.500001573935151e-05</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>2.441700780764222e-05</v>
+        <v>2.504198346287012e-05</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>2.479198155924678e-05</v>
+        <v>2.491701161488891e-05</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>2.470798790454865e-05</v>
+        <v>2.479203976690769e-05</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>2.512498758733273e-05</v>
+        <v>2.533302176743746e-05</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>2.525001764297485e-05</v>
+        <v>2.541701542213559e-05</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>2.470798790454865e-05</v>
+        <v>2.495897933840752e-05</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>2.512504579499364e-05</v>
+        <v>2.479203976690769e-05</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>2.541701542213559e-05</v>
+        <v>2.500001573935151e-05</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>2.541602589190006e-05</v>
+        <v>2.524995943531394e-05</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>2.495798980817199e-05</v>
+        <v>2.533296355977654e-05</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>2.574996324256063e-05</v>
+        <v>2.545799361541867e-05</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>2.554198727011681e-05</v>
+        <v>2.54589831456542e-05</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>4.024995723739266e-05</v>
+        <v>2.55830236710608e-05</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>2.633297117426991e-05</v>
+        <v>2.62079993262887e-05</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>2.583296736702323e-05</v>
+        <v>2.579099964350462e-05</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>2.604100154712796e-05</v>
+        <v>2.554099773988128e-05</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>2.62079993262887e-05</v>
+        <v>2.608296927064657e-05</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>2.595898695290089e-05</v>
+        <v>2.608302747830749e-05</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>2.604199107736349e-05</v>
+        <v>2.595799742266536e-05</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>2.633401891216636e-05</v>
+        <v>2.608302747830749e-05</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>2.654205309227109e-05</v>
+        <v>2.61249952018261e-05</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>2.62079993262887e-05</v>
+        <v>2.650002716109157e-05</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>2.654199488461018e-05</v>
+        <v>2.695899456739426e-05</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>2.675002906471491e-05</v>
+        <v>2.641696482896805e-05</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>2.675002906471491e-05</v>
+        <v>2.645800122991204e-05</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>2.658303128555417e-05</v>
+        <v>2.633297117426991e-05</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>2.675002906471491e-05</v>
+        <v>2.666603541001678e-05</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>2.712500281631947e-05</v>
+        <v>2.633396070450544e-05</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>2.699997276067734e-05</v>
+        <v>2.695800503715873e-05</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>2.716598100960255e-05</v>
+        <v>2.687500091269612e-05</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>2.729101106524467e-05</v>
+        <v>2.679199678823352e-05</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>2.708303509280086e-05</v>
+        <v>2.725003287196159e-05</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>2.745800884440541e-05</v>
+        <v>2.691603731364012e-05</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>3.404100425541401e-05</v>
+        <v>2.708297688513994e-05</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>2.879195380955935e-05</v>
+        <v>2.724997466430068e-05</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>2.845795825123787e-05</v>
+        <v>2.749997656792402e-05</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>2.891698386520147e-05</v>
+        <v>2.766697434708476e-05</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>2.904195571318269e-05</v>
+        <v>2.762500662356615e-05</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>2.862501423805952e-05</v>
+        <v>2.766604302451015e-05</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>2.862495603039861e-05</v>
+        <v>2.79169762507081e-05</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>2.887501614168286e-05</v>
+        <v>2.84170382656157e-05</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>2.891599433496594e-05</v>
+        <v>2.845900598913431e-05</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>2.899998798966408e-05</v>
+        <v>6.391701754182577e-05</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>2.916599623858929e-05</v>
+        <v>3.012496745213866e-05</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>2.949999179691076e-05</v>
+        <v>2.96669895760715e-05</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>2.962502185255289e-05</v>
+        <v>2.933299401775002e-05</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>2.929201582446694e-05</v>
+        <v>2.912501804530621e-05</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>2.96669895760715e-05</v>
+        <v>2.899998798966408e-05</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>2.958299592137337e-05</v>
+        <v>2.937496174126863e-05</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>2.945802407339215e-05</v>
+        <v>2.999999560415745e-05</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>2.966600004583597e-05</v>
+        <v>2.958299592137337e-05</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>2.96669895760715e-05</v>
+        <v>2.912495983764529e-05</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>2.999999560415745e-05</v>
+        <v>2.941698767244816e-05</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>2.974999370053411e-05</v>
+        <v>2.937501994892955e-05</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>3.095803549513221e-05</v>
+        <v>3.004103200510144e-05</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>2.991699147969484e-05</v>
+        <v>2.983398735523224e-05</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>3.004103200510144e-05</v>
+        <v>2.966600004583597e-05</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>3.02919652312994e-05</v>
+        <v>2.962496364489198e-05</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>2.999999560415745e-05</v>
+        <v>2.97080259770155e-05</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>3.049999941140413e-05</v>
+        <v>2.950005000457168e-05</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>3.045797348022461e-05</v>
+        <v>3.004202153533697e-05</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>3.012496745213866e-05</v>
+        <v>2.995796967297792e-05</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>3.062497125938535e-05</v>
+        <v>3.045803168788552e-05</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>3.041699528694153e-05</v>
+        <v>3.004202153533697e-05</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>3.062497125938535e-05</v>
+        <v>3.012502565979958e-05</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>3.104202914983034e-05</v>
+        <v>3.024999750778079e-05</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>3.062502946704626e-05</v>
+        <v>3.012496745213866e-05</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>3.095803549513221e-05</v>
+        <v>3.029103390872478e-05</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>3.191700670868158e-05</v>
+        <v>3.083300543949008e-05</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>3.075000131502748e-05</v>
+        <v>3.066699719056487e-05</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>3.049999941140413e-05</v>
+        <v>3.058300353586674e-05</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>3.125000512227416e-05</v>
+        <v>3.08750313706696e-05</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>3.104202914983034e-05</v>
+        <v>3.083399496972561e-05</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>3.104197094216943e-05</v>
+        <v>3.104202914983034e-05</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>3.145902883261442e-05</v>
+        <v>3.0792027246207e-05</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>3.095803549513221e-05</v>
+        <v>3.083399496972561e-05</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>3.183301305398345e-05</v>
+        <v>3.129203105345368e-05</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>4.262500442564487e-05</v>
+        <v>3.145897062495351e-05</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>3.379205008968711e-05</v>
+        <v>3.108300734311342e-05</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>3.158400068059564e-05</v>
+        <v>3.125000512227416e-05</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>3.162503708153963e-05</v>
+        <v>3.104197094216943e-05</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>3.154203295707703e-05</v>
+        <v>3.133300924673676e-05</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>3.166700480505824e-05</v>
+        <v>3.120902692899108e-05</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>3.137497697025537e-05</v>
+        <v>3.129203105345368e-05</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>3.141601337119937e-05</v>
+        <v>3.162497887387872e-05</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>3.187498077750206e-05</v>
+        <v>3.162497887387872e-05</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>3.175000892952085e-05</v>
+        <v>3.183301305398345e-05</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>3.245798870921135e-05</v>
+        <v>3.154197474941611e-05</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>3.254198236390948e-05</v>
+        <v>3.21660190820694e-05</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>3.262498648837209e-05</v>
+        <v>3.195903263986111e-05</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>4.066701512783766e-05</v>
+        <v>3.179203486070037e-05</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>3.304198617115617e-05</v>
+        <v>3.208301495760679e-05</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>4.266598261892796e-05</v>
+        <v>3.26669542118907e-05</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>3.316695801913738e-05</v>
+        <v>3.254099283367395e-05</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>4.358298610895872e-05</v>
+        <v>3.254198236390948e-05</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>3.308302257210016e-05</v>
+        <v>3.241701051592827e-05</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>3.266701241955161e-05</v>
+        <v>3.241596277803183e-05</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>3.31670162267983e-05</v>
+        <v>3.270799061283469e-05</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>4.166696453467011e-05</v>
+        <v>3.250001464039087e-05</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>3.31670162267983e-05</v>
+        <v>3.245798870921135e-05</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>3.304105484858155e-05</v>
+        <v>3.320904215797782e-05</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>3.295799251645803e-05</v>
+        <v>3.304198617115617e-05</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>3.320799442008138e-05</v>
+        <v>3.350002225488424e-05</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>4.416704177856445e-05</v>
+        <v>3.320799442008138e-05</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>3.662501694634557e-05</v>
+        <v>3.320805262774229e-05</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>3.420800203457475e-05</v>
+        <v>3.308302257210016e-05</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>3.412499791011214e-05</v>
+        <v>3.333302447572351e-05</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>3.441702574491501e-05</v>
+        <v>3.287498839199543e-05</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>3.416702384129167e-05</v>
+        <v>3.383302828297019e-05</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>3.408401971682906e-05</v>
+        <v>3.374996595084667e-05</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>4.420900950208306e-05</v>
+        <v>3.395898966118693e-05</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>3.425002796575427e-05</v>
+        <v>3.404100425541401e-05</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>3.599998308345675e-05</v>
+        <v>3.341695992276073e-05</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>4.558300133794546e-05</v>
+        <v>3.350002225488424e-05</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>3.38749960064888e-05</v>
+        <v>3.329198807477951e-05</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>3.329099854454398e-05</v>
+        <v>3.362499410286546e-05</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>3.408297197893262e-05</v>
+        <v>3.375002415850759e-05</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>3.420794382691383e-05</v>
+        <v>3.604200901463628e-05</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>3.487494541332126e-05</v>
+        <v>3.45829757861793e-05</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>4.912499571219087e-05</v>
+        <v>3.437499981373549e-05</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>4.404201172292233e-05</v>
+        <v>3.44999716617167e-05</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>4.587502917274833e-05</v>
+        <v>3.420800203457475e-05</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>4.495802568271756e-05</v>
+        <v>3.408297197893262e-05</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>3.483297768980265e-05</v>
+        <v>3.395904786884785e-05</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>3.487500362098217e-05</v>
+        <v>3.445800393819809e-05</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>3.425002796575427e-05</v>
+        <v>3.441702574491501e-05</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>3.437499981373549e-05</v>
+        <v>3.470794763416052e-05</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>3.462500171735883e-05</v>
+        <v>3.495800774544477e-05</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>3.412499791011214e-05</v>
+        <v>3.470800584182143e-05</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>3.533303970471025e-05</v>
+        <v>3.483396722003818e-05</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>4.57499991171062e-05</v>
+        <v>3.516598371788859e-05</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>4.570803139358759e-05</v>
+        <v>3.466597991064191e-05</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>4.629202885553241e-05</v>
+        <v>3.499997546896338e-05</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>4.620797699317336e-05</v>
+        <v>3.495800774544477e-05</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>4.670798080042005e-05</v>
+        <v>3.487500362098217e-05</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>4.075001925230026e-05</v>
+        <v>3.487500362098217e-05</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>4.662497667595744e-05</v>
+        <v>3.51249473169446e-05</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>4.212500061839819e-05</v>
+        <v>3.524997737258673e-05</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>4.58330032415688e-05</v>
+        <v>3.508297959342599e-05</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>4.158396041020751e-05</v>
+        <v>3.512500552460551e-05</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>4.316697595641017e-05</v>
+        <v>3.541697515174747e-05</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>4.395795986056328e-05</v>
+        <v>3.537494922056794e-05</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>4.666601307690144e-05</v>
+        <v>3.56250093318522e-05</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>4.125002305954695e-05</v>
+        <v>3.533397102728486e-05</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>4.312500823289156e-05</v>
+        <v>3.579101758077741e-05</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>4.679197445511818e-05</v>
+        <v>3.575003938749433e-05</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>4.600000102072954e-05</v>
+        <v>3.587495302781463e-05</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>4.141603130847216e-05</v>
+        <v>3.579101758077741e-05</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>4.283303860574961e-05</v>
+        <v>3.612495493143797e-05</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>4.679197445511818e-05</v>
+        <v>3.620801726356149e-05</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>4.374998388811946e-05</v>
+        <v>3.649998689070344e-05</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>4.46659978479147e-05</v>
+        <v>3.625004319474101e-05</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>4.716700641438365e-05</v>
+        <v>3.654195461422205e-05</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>4.795799031853676e-05</v>
+        <v>3.650004509836435e-05</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>4.433398135006428e-05</v>
+        <v>3.620801726356149e-05</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>4.529103171080351e-05</v>
+        <v>3.783300053328276e-05</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>4.470802377909422e-05</v>
+        <v>4.50420193374157e-05</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>4.366697976365685e-05</v>
+        <v>4.358298610895872e-05</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>4.549999721348286e-05</v>
+        <v>4.204199649393559e-05</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>4.58330032415688e-05</v>
+        <v>3.712496254593134e-05</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>4.92919934913516e-05</v>
+        <v>4.612503107637167e-05</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>4.379096208140254e-05</v>
+        <v>4.824995994567871e-05</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>3.74580267816782e-05</v>
+        <v>4.533404717221856e-05</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>4.650000482797623e-05</v>
+        <v>4.662497667595744e-05</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>4.641700070351362e-05</v>
+        <v>7.20410025678575e-05</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>4.533299943432212e-05</v>
+        <v>5.745800444856286e-05</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>4.612503107637167e-05</v>
+        <v>4.662503488361835e-05</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>4.837504820898175e-05</v>
+        <v>4.283303860574961e-05</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>4.629202885553241e-05</v>
+        <v>4.745798651129007e-05</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>4.545802948996425e-05</v>
+        <v>4.908302798867226e-05</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>4.479195922613144e-05</v>
+        <v>5.012494511902332e-05</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>4.512496525421739e-05</v>
+        <v>4.524999530985951e-05</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>4.733301466330886e-05</v>
+        <v>4.704098682850599e-05</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>4.774995613843203e-05</v>
+        <v>4.93330298922956e-05</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>4.75000124424696e-05</v>
+        <v>5.108298500999808e-05</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>4.962499951943755e-05</v>
+        <v>4.583399277180433e-05</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>4.937499761581421e-05</v>
+        <v>4.587497096508741e-05</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>5.1083043217659e-05</v>
+        <v>5.037494702264667e-05</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>4.487502155825496e-05</v>
+        <v>4.549999721348286e-05</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>4.637503297999501e-05</v>
+        <v>4.570803139358759e-05</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>4.679203266277909e-05</v>
+        <v>4.691700451076031e-05</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>4.674994852393866e-05</v>
+        <v>5.079101538285613e-05</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>4.63749747723341e-05</v>
+        <v>4.625000292435288e-05</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>4.616600926965475e-05</v>
+        <v>5.062494892627001e-05</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>4.779198206961155e-05</v>
+        <v>4.833401180803776e-05</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>4.858296597376466e-05</v>
+        <v>4.670897033065557e-05</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>5.125004099681973e-05</v>
+        <v>4.687497857958078e-05</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>5.074997898191214e-05</v>
+        <v>5.037500523030758e-05</v>
       </c>
     </row>
     <row r="529">
@@ -4674,7 +4674,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>5.000003147870302e-05</v>
+        <v>5.045800935477018e-05</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>5.262502236291766e-05</v>
+        <v>5.220796447247267e-05</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>5.254201823845506e-05</v>
+        <v>4.937499761581421e-05</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>4.945800174027681e-05</v>
+        <v>5.216698627918959e-05</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>4.8832967877388e-05</v>
+        <v>5.199998850002885e-05</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>5.162501474842429e-05</v>
+        <v>4.891696153208613e-05</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>5.174998659640551e-05</v>
+        <v>4.287500632926822e-05</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>4.966603592038155e-05</v>
+        <v>3.91670037060976e-05</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>5.183299072086811e-05</v>
+        <v>4.558300133794546e-05</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>4.837499000132084e-05</v>
+        <v>4.04579914174974e-05</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>5.008297739550471e-05</v>
+        <v>4.120799712836742e-05</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>5.354196764528751e-05</v>
+        <v>4.08340129069984e-05</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>5.27920201420784e-05</v>
+        <v>4.029198316857219e-05</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>5.224999040365219e-05</v>
+        <v>4.700000863522291e-05</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>4.912499571219087e-05</v>
+        <v>4.10000211559236e-05</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>4.549999721348286e-05</v>
+        <v>5.383300594985485e-05</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>4.104099934920669e-05</v>
+        <v>4.070799332112074e-05</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>4.150002496317029e-05</v>
+        <v>4.116602940484881e-05</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>4.158302908763289e-05</v>
+        <v>4.537496715784073e-05</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>4.837499000132084e-05</v>
+        <v>5.379098001867533e-05</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>5.000003147870302e-05</v>
+        <v>5.291699199005961e-05</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>5.079200491309166e-05</v>
+        <v>5.47909876331687e-05</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>4.779099253937602e-05</v>
+        <v>4.958303179591894e-05</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>5.079200491309166e-05</v>
+        <v>4.9208989366889e-05</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>5.479197716340423e-05</v>
+        <v>5.445803981274366e-05</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>5.124998278915882e-05</v>
+        <v>5.23329945281148e-05</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>5.187501665204763e-05</v>
+        <v>4.604202695190907e-05</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>5.504197906702757e-05</v>
+        <v>4.075001925230026e-05</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>5.224999040365219e-05</v>
+        <v>4.499999340623617e-05</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>5.57919847778976e-05</v>
+        <v>5.291699199005961e-05</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>5.295895971357822e-05</v>
+        <v>5.512498319149017e-05</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>5.470798350870609e-05</v>
+        <v>5.287496605888009e-05</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>5.316594615578651e-05</v>
+        <v>5.608296487480402e-05</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>4.087499110028148e-05</v>
+        <v>5.266699008643627e-05</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>4.070799332112074e-05</v>
+        <v>5.520897684618831e-05</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>5.412503378465772e-05</v>
+        <v>5.075003718957305e-05</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>5.262502236291766e-05</v>
+        <v>5.179201252758503e-05</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>5.625002086162567e-05</v>
+        <v>5.537498509511352e-05</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>5.541701102629304e-05</v>
+        <v>5.212501855567098e-05</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>5.358300404623151e-05</v>
+        <v>5.52500132471323e-05</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>5.970796337351203e-05</v>
+        <v>5.654199048876762e-05</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>5.820801015943289e-05</v>
+        <v>5.129200872033834e-05</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>5.675002466887236e-05</v>
+        <v>5.575001705437899e-05</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>5.608302308246493e-05</v>
+        <v>5.437497748062015e-05</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>5.34999999217689e-05</v>
+        <v>5.633296677842736e-05</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>5.375000182539225e-05</v>
+        <v>5.629198858514428e-05</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>5.379202775657177e-05</v>
+        <v>5.199998850002885e-05</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>5.599996075034142e-05</v>
+        <v>5.462497938424349e-05</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>5.633302498608828e-05</v>
+        <v>5.470804171636701e-05</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>5.604198668152094e-05</v>
+        <v>6.024999311193824e-05</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>5.441700341179967e-05</v>
+        <v>5.70000265724957e-05</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>5.024997517466545e-05</v>
+        <v>5.250005051493645e-05</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>5.65829686820507e-05</v>
+        <v>5.379202775657177e-05</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>5.379202775657177e-05</v>
+        <v>5.400000372901559e-05</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>5.425000563263893e-05</v>
+        <v>5.725002847611904e-05</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>5.420803790912032e-05</v>
+        <v>5.470804171636701e-05</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>5.612499080598354e-05</v>
+        <v>5.429197335615754e-05</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>5.787500413134694e-05</v>
+        <v>5.65829686820507e-05</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>5.329202394932508e-05</v>
+        <v>5.816697375848889e-05</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>5.687499651685357e-05</v>
+        <v>5.462497938424349e-05</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>5.850003799423575e-05</v>
+        <v>5.529198097065091e-05</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>5.77080063521862e-05</v>
+        <v>5.808303831145167e-05</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>5.737500032410026e-05</v>
+        <v>5.779101047664881e-05</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>5.779200000688434e-05</v>
+        <v>5.575001705437899e-05</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>5.520897684618831e-05</v>
+        <v>5.516695091500878e-05</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>5.687499651685357e-05</v>
+        <v>5.512498319149017e-05</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>5.849997978657484e-05</v>
+        <v>6.108300294727087e-05</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>5.854194751009345e-05</v>
+        <v>5.758297629654408e-05</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>5.29579701833427e-05</v>
+        <v>5.712499842047691e-05</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>5.379202775657177e-05</v>
+        <v>5.558296106755733e-05</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>5.58749889023602e-05</v>
+        <v>5.441700341179967e-05</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>5.683297058567405e-05</v>
+        <v>5.466595757752657e-05</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>5.854200571775436e-05</v>
+        <v>5.720800254493952e-05</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>5.620805313810706e-05</v>
+        <v>5.716603482142091e-05</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>5.870801396667957e-05</v>
+        <v>5.683297058567405e-05</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>5.70000265724957e-05</v>
+        <v>5.616695852950215e-05</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>5.641701864078641e-05</v>
+        <v>5.808298010379076e-05</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>5.920795956626534e-05</v>
+        <v>5.650002276524901e-05</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>5.699996836483479e-05</v>
+        <v>7.466698298230767e-05</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>5.745800444856286e-05</v>
+        <v>5.570898065343499e-05</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>5.520798731595278e-05</v>
+        <v>5.929201142862439e-05</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>5.475000943988562e-05</v>
+        <v>5.970802158117294e-05</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>6.029097130522132e-05</v>
+        <v>5.637499270960689e-05</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>5.862500984221697e-05</v>
+        <v>5.670799873769283e-05</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>5.512498319149017e-05</v>
+        <v>6.129196844995022e-05</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>5.76250022277236e-05</v>
+        <v>5.99170452915132e-05</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>5.63750509172678e-05</v>
+        <v>5.70000265724957e-05</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>5.683297058567405e-05</v>
+        <v>5.70000265724957e-05</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>5.683297058567405e-05</v>
+        <v>5.716597661375999e-05</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>5.970796337351203e-05</v>
+        <v>5.825003609061241e-05</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>6.062502507120371e-05</v>
+        <v>5.912495544180274e-05</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>5.845801206305623e-05</v>
+        <v>5.658302688971162e-05</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>5.720800254493952e-05</v>
+        <v>5.991698708385229e-05</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>5.845801206305623e-05</v>
+        <v>4.99580055475235e-05</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>5.766702815890312e-05</v>
+        <v>4.625000292435288e-05</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>5.808298010379076e-05</v>
+        <v>4.687497857958078e-05</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>5.83329820074141e-05</v>
+        <v>4.837499000132084e-05</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>5.920801777392626e-05</v>
+        <v>4.870898555964231e-05</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>5.654100095853209e-05</v>
+        <v>5.429197335615754e-05</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>4.51250234618783e-05</v>
+        <v>4.716700641438365e-05</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>5.270802648738027e-05</v>
+        <v>6.437499541789293e-05</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>4.75830165669322e-05</v>
+        <v>5.954201333224773e-05</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>5.500001134350896e-05</v>
+        <v>5.537498509511352e-05</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>5.554099334403872e-05</v>
+        <v>5.866697756573558e-05</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>6.012496305629611e-05</v>
+        <v>5.829200381413102e-05</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>5.195802077651024e-05</v>
+        <v>5.779200000688434e-05</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>5.458301166072488e-05</v>
+        <v>5.683297058567405e-05</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>4.825001815333962e-05</v>
+        <v>5.929201142862439e-05</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>4.791701212525368e-05</v>
+        <v>5.724997026845813e-05</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>6.133300485089421e-05</v>
+        <v>6.229197606444359e-05</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>5.879200762137771e-05</v>
+        <v>4.541600355878472e-05</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>6.250001024454832e-05</v>
+        <v>5.770899588242173e-05</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>6.133399438112974e-05</v>
+        <v>6.091699469834566e-05</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>5.70000265724957e-05</v>
+        <v>5.9375015553087e-05</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>5.99999912083149e-05</v>
+        <v>5.837500793859363e-05</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>6.245804252102971e-05</v>
+        <v>5.908304592594504e-05</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>4.608399467542768e-05</v>
+        <v>5.887501174584031e-05</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>5.266600055620074e-05</v>
+        <v>5.979201523587108e-05</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>5.804200191050768e-05</v>
+        <v>6.216700421646237e-05</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>5.787500413134694e-05</v>
+        <v>6.045802729204297e-05</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>5.916698137298226e-05</v>
+        <v>5.891697946935892e-05</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>6.233301246538758e-05</v>
+        <v>5.76250022277236e-05</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>5.87500398978591e-05</v>
+        <v>5.966698518022895e-05</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>6.033299723640084e-05</v>
+        <v>6.033398676663637e-05</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>5.962495924904943e-05</v>
+        <v>5.974998930469155e-05</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>5.937495734542608e-05</v>
+        <v>5.83329820074141e-05</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>5.983305163681507e-05</v>
+        <v>6.012502126395702e-05</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>6.037502316758037e-05</v>
+        <v>5.920801777392626e-05</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>6.012502126395702e-05</v>
+        <v>5.887501174584031e-05</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>6.045802729204297e-05</v>
+        <v>5.958299152553082e-05</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>6.037502316758037e-05</v>
+        <v>6.020796718075871e-05</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>6.029201904311776e-05</v>
+        <v>5.966599564999342e-05</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>6.033299723640084e-05</v>
+        <v>6.016704719513655e-05</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>6.266700802370906e-05</v>
+        <v>6.29170099273324e-05</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>6.141600897535682e-05</v>
+        <v>5.87500398978591e-05</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>5.929195322096348e-05</v>
+        <v>6.049999501556158e-05</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>6.00829953327775e-05</v>
+        <v>6.383302388712764e-05</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>6.145803490653634e-05</v>
+        <v>6.166700040921569e-05</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>6.370799383148551e-05</v>
+        <v>5.958398105576634e-05</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>6.379198748618364e-05</v>
+        <v>5.954201333224773e-05</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>6.387499161064625e-05</v>
+        <v>6.108300294727087e-05</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>6.408401532098651e-05</v>
+        <v>5.891703767701983e-05</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>5.895801587030292e-05</v>
+        <v>6.129202665761113e-05</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>6.216601468622684e-05</v>
+        <v>6.441702134907246e-05</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>6.624998059123755e-05</v>
+        <v>5.941599374637008e-05</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>6.095797289162874e-05</v>
+        <v>6.037496495991945e-05</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>6.091600516811013e-05</v>
+        <v>6.28340058028698e-05</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>6.154202856123447e-05</v>
+        <v>6.016698898747563e-05</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>5.920801777392626e-05</v>
+        <v>6.191700231283903e-05</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>6.112502887845039e-05</v>
+        <v>6.195798050612211e-05</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>6.000004941597581e-05</v>
+        <v>6.066600326448679e-05</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>6.095803109928966e-05</v>
+        <v>6.362498970702291e-05</v>
       </c>
     </row>
     <row r="682">
@@ -5898,7 +5898,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>6.070802919566631e-05</v>
+        <v>6.095803109928966e-05</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>6.191700231283903e-05</v>
+        <v>5.974998930469155e-05</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>6.020802538841963e-05</v>
+        <v>6.166700040921569e-05</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>7.212499622255564e-05</v>
+        <v>6.508303340524435e-05</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>6.574997678399086e-05</v>
+        <v>6.362498970702291e-05</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>6.1584054492414e-05</v>
+        <v>6.491702515631914e-05</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>6.166700040921569e-05</v>
+        <v>6.408302579075098e-05</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>6.320799002423882e-05</v>
+        <v>6.379198748618364e-05</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>6.18330086581409e-05</v>
+        <v>6.125000072643161e-05</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>6.179203046485782e-05</v>
+        <v>7.874995935708284e-05</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>6.150000263005495e-05</v>
+        <v>6.587500683963299e-05</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>6.141600897535682e-05</v>
+        <v>6.658298661932349e-05</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>5.491700721904635e-05</v>
+        <v>6.391695933416486e-05</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>6.154202856123447e-05</v>
+        <v>6.191700231283903e-05</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>5.670799873769283e-05</v>
+        <v>6.199994822964072e-05</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>5.720800254493952e-05</v>
+        <v>6.470800144597888e-05</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>5.774997407570481e-05</v>
+        <v>5.504098953679204e-05</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>6.183295045047998e-05</v>
+        <v>5.666696233674884e-05</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>5.320803029462695e-05</v>
+        <v>5.195901030674577e-05</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>5.34999999217689e-05</v>
+        <v>6.266700802370906e-05</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>5.34169957973063e-05</v>
+        <v>6.00829953327775e-05</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>6.05420209467411e-05</v>
+        <v>5.266600055620074e-05</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>6.229197606444359e-05</v>
+        <v>7.095799082890153e-05</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>6.029201904311776e-05</v>
+        <v>6.308301817625761e-05</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>5.358300404623151e-05</v>
+        <v>5.849997978657484e-05</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>5.34169957973063e-05</v>
+        <v>5.816604243591428e-05</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>5.912501364946365e-05</v>
+        <v>5.345902172848582e-05</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>5.941599374637008e-05</v>
+        <v>5.345902172848582e-05</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>6.262498209252954e-05</v>
+        <v>5.408399738371372e-05</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>5.445902934297919e-05</v>
+        <v>5.408300785347819e-05</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>6.579200271517038e-05</v>
+        <v>5.370803410187364e-05</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>6.437499541789293e-05</v>
+        <v>5.379202775657177e-05</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>6.912497337907553e-05</v>
+        <v>5.29579701833427e-05</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>6.299995584413409e-05</v>
+        <v>5.299999611452222e-05</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>6.454100366681814e-05</v>
+        <v>5.416700150817633e-05</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>6.841600406914949e-05</v>
+        <v>5.879200762137771e-05</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>6.979098543524742e-05</v>
+        <v>6.612500874325633e-05</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>6.879196735098958e-05</v>
+        <v>6.53750030323863e-05</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>6.549997488036752e-05</v>
+        <v>6.683304673060775e-05</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>6.745796417817473e-05</v>
+        <v>6.933399708941579e-05</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>6.7666987888515e-05</v>
+        <v>7.162499241530895e-05</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>8.516601519659162e-05</v>
+        <v>6.095797289162874e-05</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>6.9500005338341e-05</v>
+        <v>6.583298090845346e-05</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>6.379099795594811e-05</v>
+        <v>6.445799954235554e-05</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>6.666698027402163e-05</v>
+        <v>6.47500273771584e-05</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>6.491702515631914e-05</v>
+        <v>6.337498780339956e-05</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>6.416701944544911e-05</v>
+        <v>7.004197686910629e-05</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>6.779195973649621e-05</v>
+        <v>6.412499351426959e-05</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>7.091695442795753e-05</v>
+        <v>6.954203126952052e-05</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>6.416602991521358e-05</v>
+        <v>6.42499653622508e-05</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>7.108296267688274e-05</v>
+        <v>6.841699359938502e-05</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>6.441702134907246e-05</v>
+        <v>6.824999582022429e-05</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>7.12089822627604e-05</v>
+        <v>7.029197877272964e-05</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>6.862496957182884e-05</v>
+        <v>7.1333022788167e-05</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>7.083301898092031e-05</v>
+        <v>6.991601549088955e-05</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>6.59999786876142e-05</v>
+        <v>7.108302088454366e-05</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>7.066701073199511e-05</v>
+        <v>6.845803000032902e-05</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>6.570800906047225e-05</v>
+        <v>8.829100988805294e-05</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>6.53750030323863e-05</v>
+        <v>7.116596680134535e-05</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>7.129099685698748e-05</v>
+        <v>6.579200271517038e-05</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>6.991595728322864e-05</v>
+        <v>6.695801857858896e-05</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>7.150002056732774e-05</v>
+        <v>7.90000194683671e-05</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>6.591598503291607e-05</v>
+        <v>7.158395601436496e-05</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>6.954203126952052e-05</v>
+        <v>7.191597251221538e-05</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>7.208302849903703e-05</v>
+        <v>8.045905269682407e-05</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>7.283396553248167e-05</v>
+        <v>7.162499241530895e-05</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>7.229100447148085e-05</v>
+        <v>8.654198609292507e-05</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>6.687501445412636e-05</v>
+        <v>7.208302849903703e-05</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>7.291702786460519e-05</v>
+        <v>7.245800225064158e-05</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>6.662501255050302e-05</v>
+        <v>7.187499431893229e-05</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>7.07499566487968e-05</v>
+        <v>7.266702596098185e-05</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>7.141695823520422e-05</v>
+        <v>7.224996807053685e-05</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>7.116701453924179e-05</v>
+        <v>9.104202035814524e-05</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>7.333396933972836e-05</v>
+        <v>7.245800225064158e-05</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>7.379200542345643e-05</v>
+        <v>7.599999662488699e-05</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>7.395801367238164e-05</v>
+        <v>6.716698408126831e-05</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>7.41670373827219e-05</v>
+        <v>7.262500002980232e-05</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>7.325003389269114e-05</v>
+        <v>7.387500954791903e-05</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>6.854202365502715e-05</v>
+        <v>7.395801367238164e-05</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>7.425004150718451e-05</v>
+        <v>7.316702976822853e-05</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>7.487501716241241e-05</v>
+        <v>7.408304372802377e-05</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>7.474998710677028e-05</v>
+        <v>6.737501826137304e-05</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>7.520802319049835e-05</v>
+        <v>7.337500574067235e-05</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>6.854103412479162e-05</v>
+        <v>7.479102350771427e-05</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>7.495802128687501e-05</v>
+        <v>7.412501145154238e-05</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>6.833299994468689e-05</v>
+        <v>6.71250163577497e-05</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>7.491704309359193e-05</v>
+        <v>6.087496876716614e-05</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>7.604103302583098e-05</v>
+        <v>5.887501174584031e-05</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>7.537502096965909e-05</v>
+        <v>5.791703006252646e-05</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>7.670803461223841e-05</v>
+        <v>7.300003198906779e-05</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>6.995804142206907e-05</v>
+        <v>6.254197796806693e-05</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>7.204205030575395e-05</v>
+        <v>6.058299914002419e-05</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>6.616703467443585e-05</v>
+        <v>6.062502507120371e-05</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>6.204203236848116e-05</v>
+        <v>6.258295616135001e-05</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>7.01249809935689e-05</v>
+        <v>7.229199400171638e-05</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>6.291596218943596e-05</v>
+        <v>7.587496656924486e-05</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>6.741698598489165e-05</v>
+        <v>7.66250304877758e-05</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>6.879202555865049e-05</v>
+        <v>7.645902223885059e-05</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>7.72500061430037e-05</v>
+        <v>7.650000043213367e-05</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>7.604202255606651e-05</v>
+        <v>6.933300755918026e-05</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>6.9500005338341e-05</v>
+        <v>6.245897384360433e-05</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>7.291702786460519e-05</v>
+        <v>7.466599345207214e-05</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>7.079099304974079e-05</v>
+        <v>7.629202445968986e-05</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>7.400003960356116e-05</v>
+        <v>6.908300565555692e-05</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>6.974994903430343e-05</v>
+        <v>7.450004341080785e-05</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>6.004195893183351e-05</v>
+        <v>7.699994603171945e-05</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>7.779203588142991e-05</v>
+        <v>6.987503729760647e-05</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>7.804099004715681e-05</v>
+        <v>7.558299694210291e-05</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>7.720902794972062e-05</v>
+        <v>7.733399979770184e-05</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>7.700000423938036e-05</v>
+        <v>7.750000804662704e-05</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>7.66250304877758e-05</v>
+        <v>7.733301026746631e-05</v>
       </c>
     </row>
     <row r="794">
@@ -6794,7 +6794,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>7.041596109047532e-05</v>
+        <v>7.53339845687151e-05</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>7.570901652798057e-05</v>
+        <v>7.066695252433419e-05</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>7.425004150718451e-05</v>
+        <v>7.72500061430037e-05</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>7.820903556421399e-05</v>
+        <v>7.025001104921103e-05</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>6.945803761482239e-05</v>
+        <v>7.47920130379498e-05</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>7.666600868105888e-05</v>
+        <v>7.737497799098492e-05</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>7.829099195078015e-05</v>
+        <v>7.895799353718758e-05</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>7.812498370185494e-05</v>
+        <v>7.008301327005029e-05</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>7.070897845551372e-05</v>
+        <v>7.799995364621282e-05</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>7.529201684519649e-05</v>
+        <v>7.833301788195968e-05</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>7.162499241530895e-05</v>
+        <v>7.845798972994089e-05</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>7.537496276199818e-05</v>
+        <v>7.787504000589252e-05</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>7.941701915115118e-05</v>
+        <v>7.008400280028582e-05</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>7.116602500900626e-05</v>
+        <v>7.904099766165018e-05</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>7.529201684519649e-05</v>
+        <v>7.83750438131392e-05</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>7.112498860806227e-05</v>
+        <v>7.82920396886766e-05</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>7.741700392216444e-05</v>
+        <v>7.850001566112041e-05</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>7.858296157792211e-05</v>
+        <v>7.895799353718758e-05</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>7.891602581366897e-05</v>
+        <v>7.912499131634831e-05</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>7.937499321997166e-05</v>
+        <v>7.183401612564921e-05</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>7.949996506795287e-05</v>
+        <v>7.520802319049835e-05</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>7.9624995123595e-05</v>
+        <v>7.841701153665781e-05</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>7.920898497104645e-05</v>
+        <v>7.858301978558302e-05</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>7.200002437457442e-05</v>
+        <v>7.987499702721834e-05</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>7.637502858415246e-05</v>
+        <v>7.995800115168095e-05</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>8.016603533178568e-05</v>
+        <v>8.016696665436029e-05</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>7.941701915115118e-05</v>
+        <v>7.200002437457442e-05</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>7.904198719188571e-05</v>
+        <v>8.125003660097718e-05</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>7.949996506795287e-05</v>
+        <v>7.195898797363043e-05</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>8.13750084489584e-05</v>
+        <v>7.29589955881238e-05</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>7.937499321997166e-05</v>
+        <v>7.995800115168095e-05</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>7.279199780896306e-05</v>
+        <v>7.899996126070619e-05</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>7.879198528826237e-05</v>
+        <v>8.029100717976689e-05</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>7.987499702721834e-05</v>
+        <v>7.933302549645305e-05</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>8.129200432449579e-05</v>
+        <v>8.016603533178568e-05</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>7.366598583757877e-05</v>
+        <v>8.029199671000242e-05</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>7.666699821129441e-05</v>
+        <v>7.933296728879213e-05</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>8.008303120732307e-05</v>
+        <v>7.616699440404773e-05</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>7.850001566112041e-05</v>
+        <v>6.841600406914949e-05</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>8.191697997972369e-05</v>
+        <v>6.358296377584338e-05</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>8.291599806398153e-05</v>
+        <v>7.579202065244317e-05</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>8.09579505585134e-05</v>
+        <v>7.199996616691351e-05</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>7.183302659541368e-05</v>
+        <v>7.662497228011489e-05</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>7.758301217108965e-05</v>
+        <v>8.245796198025346e-05</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>7.275003008544445e-05</v>
+        <v>7.404200732707977e-05</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>7.687497418373823e-05</v>
+        <v>7.533299503847957e-05</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>7.916701724752784e-05</v>
+        <v>7.412501145154238e-05</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>8.233397966250777e-05</v>
+        <v>7.387495134025812e-05</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>8.245895151048899e-05</v>
+        <v>7.658300455659628e-05</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>8.179200813174248e-05</v>
+        <v>8.087500464171171e-05</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>7.424998329952359e-05</v>
+        <v>6.620900239795446e-05</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>7.737503619864583e-05</v>
+        <v>7.595802890136838e-05</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>8.150003850460052e-05</v>
+        <v>8.229096420109272e-05</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>8.25420138426125e-05</v>
+        <v>7.391703547909856e-05</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>6.733305053785443e-05</v>
+        <v>7.424998329952359e-05</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>7.983396062627435e-05</v>
+        <v>7.712497608736157e-05</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>8.083297871053219e-05</v>
+        <v>7.420900510624051e-05</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>8.249998791143298e-05</v>
+        <v>7.466698298230767e-05</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>7.470801938325167e-05</v>
+        <v>7.812498370185494e-05</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>8.366600377485156e-05</v>
+        <v>8.249998791143298e-05</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>8.274998981505632e-05</v>
+        <v>8.204201003536582e-05</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>7.391604594886303e-05</v>
+        <v>7.349997758865356e-05</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>7.529102731496096e-05</v>
+        <v>7.508299313485622e-05</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>8.404196705669165e-05</v>
+        <v>7.54999928176403e-05</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>8.149998029693961e-05</v>
+        <v>7.858296157792211e-05</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>8.274998981505632e-05</v>
+        <v>8.166703628376126e-05</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>8.433300536125898e-05</v>
+        <v>7.429200923070312e-05</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>8.458300726488233e-05</v>
+        <v>8.349999552592635e-05</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>8.279102621600032e-05</v>
+        <v>8.304102811962366e-05</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>8.25420138426125e-05</v>
+        <v>8.141598664224148e-05</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>8.299999171867967e-05</v>
+        <v>8.233397966250777e-05</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>8.249998791143298e-05</v>
+        <v>8.237501606345177e-05</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>8.287501987069845e-05</v>
+        <v>7.529201684519649e-05</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>8.220801828429103e-05</v>
+        <v>7.458298932760954e-05</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>8.258299203589559e-05</v>
+        <v>7.537502096965909e-05</v>
       </c>
     </row>
     <row r="870">
@@ -7394,7 +7394,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>8.254195563495159e-05</v>
+        <v>8.441600948572159e-05</v>
       </c>
     </row>
     <row r="871">
@@ -7402,7 +7402,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>8.220796007663012e-05</v>
+        <v>8.312502177432179e-05</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>8.220801828429103e-05</v>
+        <v>7.570802699774504e-05</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>8.325005182996392e-05</v>
+        <v>8.408405119553208e-05</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>7.587502477690578e-05</v>
+        <v>8.312502177432179e-05</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>7.97079992480576e-05</v>
+        <v>8.437497308477759e-05</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>7.562496466562152e-05</v>
+        <v>8.487497689202428e-05</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>8.483300916850567e-05</v>
+        <v>8.441699901595712e-05</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>8.291698759421706e-05</v>
+        <v>8.241698378697038e-05</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>8.3291030023247e-05</v>
+        <v>8.283398346975446e-05</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>8.395803160965443e-05</v>
+        <v>8.337502367794514e-05</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>8.466601138934493e-05</v>
+        <v>8.337496547028422e-05</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>8.541700663045049e-05</v>
+        <v>8.349999552592635e-05</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>8.299999171867967e-05</v>
+        <v>8.641701424494386e-05</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>8.370802970603108e-05</v>
+        <v>8.508400060236454e-05</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>8.408300345763564e-05</v>
+        <v>8.445803541690111e-05</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>8.458300726488233e-05</v>
+        <v>7.670803461223841e-05</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>7.691700011491776e-05</v>
+        <v>7.729197386652231e-05</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>8.38330015540123e-05</v>
+        <v>7.708300836384296e-05</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>8.416699711233377e-05</v>
+        <v>8.712499402463436e-05</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>8.441600948572159e-05</v>
+        <v>7.683300646021962e-05</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>8.362496737390757e-05</v>
+        <v>7.729203207418323e-05</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>8.374999742954969e-05</v>
+        <v>8.566596079617739e-05</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>8.600001456215978e-05</v>
+        <v>7.554201874881983e-05</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>8.31669894978404e-05</v>
+        <v>6.820802809670568e-05</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>8.416600758209825e-05</v>
+        <v>7.929198909550905e-05</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>7.61249684728682e-05</v>
+        <v>6.920797750353813e-05</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>7.045798702165484e-05</v>
+        <v>7.650000043213367e-05</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>6.983301136642694e-05</v>
+        <v>7.579202065244317e-05</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>6.88339932821691e-05</v>
+        <v>8.712499402463436e-05</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>6.945902714505792e-05</v>
+        <v>7.820798782631755e-05</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>6.904202746227384e-05</v>
+        <v>7.412501145154238e-05</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>8.037500083446503e-05</v>
+        <v>8.27079638838768e-05</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>8.187495404854417e-05</v>
+        <v>8.525000885128975e-05</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>8.441600948572159e-05</v>
+        <v>8.516601519659162e-05</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>8.416699711233377e-05</v>
+        <v>7.187499431893229e-05</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>8.474994683638215e-05</v>
+        <v>8.812500163912773e-05</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>8.454202907159925e-05</v>
+        <v>7.90000194683671e-05</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>7.100001676008105e-05</v>
+        <v>8.791702566668391e-05</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>7.3166040237993e-05</v>
+        <v>6.975000724196434e-05</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>8.533301297575235e-05</v>
+        <v>7.495802128687501e-05</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>8.712505223229527e-05</v>
+        <v>7.587496656924486e-05</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>7.825001375749707e-05</v>
+        <v>7.945799734443426e-05</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>7.829198148101568e-05</v>
+        <v>7.091701263561845e-05</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>8.425000123679638e-05</v>
+        <v>7.045897655189037e-05</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>7.045903475955129e-05</v>
+        <v>7.525004912167788e-05</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>7.112498860806227e-05</v>
+        <v>7.241597631946206e-05</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>7.137499051168561e-05</v>
+        <v>8.049997268244624e-05</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>7.158302469179034e-05</v>
+        <v>8.595798863098025e-05</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>7.529201684519649e-05</v>
+        <v>8.629204239696264e-05</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>7.566699059680104e-05</v>
+        <v>8.587504271417856e-05</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>7.770798401907086e-05</v>
+        <v>8.612498641014099e-05</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>8.991599315777421e-05</v>
+        <v>8.67500202730298e-05</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>8.170900400727987e-05</v>
+        <v>8.929101750254631e-05</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>8.941703708842397e-05</v>
+        <v>8.645898196846247e-05</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>8.320901542901993e-05</v>
+        <v>8.683302439749241e-05</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>8.112500654533505e-05</v>
+        <v>8.633302059024572e-05</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>8.875003550201654e-05</v>
+        <v>8.245802018791437e-05</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>9.475002298131585e-05</v>
+        <v>8.762499783188105e-05</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>8.66670161485672e-05</v>
+        <v>8.637498831376433e-05</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>0.0001012920401990414</v>
+        <v>9.879196295514703e-05</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>8.641602471470833e-05</v>
+        <v>8.912495104596019e-05</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>7.975002517923713e-05</v>
+        <v>8.779199561104178e-05</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>8.670799434185028e-05</v>
+        <v>9.658304043114185e-05</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>8.658302249386907e-05</v>
+        <v>8.633302059024572e-05</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>0.0001039580092765391</v>
+        <v>8.962501306086779e-05</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>8.924998110160232e-05</v>
+        <v>8.841598173603415e-05</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>8.745800005272031e-05</v>
+        <v>8.050003089010715e-05</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>8.020800305530429e-05</v>
+        <v>9.866699110716581e-05</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>8.808297570794821e-05</v>
+        <v>8.733296999707818e-05</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>8.758303010836244e-05</v>
+        <v>8.679099846631289e-05</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>8.099997648969293e-05</v>
+        <v>8.749996777623892e-05</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>8.708302630111575e-05</v>
+        <v>8.862500544637442e-05</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>8.083297871053219e-05</v>
+        <v>0.0001046659890562296</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>7.999996887519956e-05</v>
+        <v>8.737505413591862e-05</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>8.895795326679945e-05</v>
+        <v>8.849997539073229e-05</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>8.083297871053219e-05</v>
+        <v>8.687505032867193e-05</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>8.095800876617432e-05</v>
+        <v>8.74160323292017e-05</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>8.13750084489584e-05</v>
+        <v>8.787499973550439e-05</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>8.150003850460052e-05</v>
+        <v>8.525000885128975e-05</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>8.062500273808837e-05</v>
+        <v>7.591699250042439e-05</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>8.808297570794821e-05</v>
+        <v>7.220800034701824e-05</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>8.899997919797897e-05</v>
+        <v>8.079200051724911e-05</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>8.816597983241081e-05</v>
+        <v>8.087500464171171e-05</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>8.008297299966216e-05</v>
+        <v>8.916703518480062e-05</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>7.408298552036285e-05</v>
+        <v>8.120801066979766e-05</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>8.362502558156848e-05</v>
+        <v>8.120801066979766e-05</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>9.179202606901526e-05</v>
+        <v>8.775002788752317e-05</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>8.470896864309907e-05</v>
+        <v>8.154194802045822e-05</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>8.945801528170705e-05</v>
+        <v>8.891697507351637e-05</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>8.883298141881824e-05</v>
+        <v>8.816603804007173e-05</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>8.816696936264634e-05</v>
+        <v>7.754203397780657e-05</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>8.929200703278184e-05</v>
+        <v>8.824997348710895e-05</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>8.891697507351637e-05</v>
+        <v>8.220801828429103e-05</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>8.887500734999776e-05</v>
+        <v>8.820800576359034e-05</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>7.599999662488699e-05</v>
+        <v>8.241599425673485e-05</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>8.179200813174248e-05</v>
+        <v>8.174998220056295e-05</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>8.887494914233685e-05</v>
+        <v>8.849997539073229e-05</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>8.879200322553515e-05</v>
+        <v>8.158304262906313e-05</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>8.520897245034575e-05</v>
+        <v>8.837500354275107e-05</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>8.404097752645612e-05</v>
+        <v>8.866703137755394e-05</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>8.933397475630045e-05</v>
+        <v>8.716696174815297e-05</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>9.124999633058906e-05</v>
+        <v>8.187501225620508e-05</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>9.008299093693495e-05</v>
+        <v>8.966604946181178e-05</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>9.079201845452189e-05</v>
+        <v>8.891697507351637e-05</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>8.945795707404613e-05</v>
+        <v>8.958298712968826e-05</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>8.354202145710588e-05</v>
+        <v>8.954200893640518e-05</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>9.362504351884127e-05</v>
+        <v>8.291698759421706e-05</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>9.129202226176858e-05</v>
+        <v>8.937501115724444e-05</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>9.095796849578619e-05</v>
+        <v>8.895801147446036e-05</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>9.108398808166385e-05</v>
+        <v>8.900003740563989e-05</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>9.104202035814524e-05</v>
+        <v>9.079102892428637e-05</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>9.008299093693495e-05</v>
+        <v>8.962501306086779e-05</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>9.054195834323764e-05</v>
+        <v>9.216601029038429e-05</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>8.91660456545651e-05</v>
+        <v>8.308299584314227e-05</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>9.229098213836551e-05</v>
+        <v>9.041698649525642e-05</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>9.062502067536116e-05</v>
+        <v>9.004201274365187e-05</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>8.39160056784749e-05</v>
+        <v>9.091699030250311e-05</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>8.991698268800974e-05</v>
+        <v>8.370797149837017e-05</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>9.116594446823001e-05</v>
+        <v>9.141699410974979e-05</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>8.48339986987412e-05</v>
+        <v>9.062496246770024e-05</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>9.495799895375967e-05</v>
+        <v>8.341600187122822e-05</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>9.212503209710121e-05</v>
+        <v>8.995801908895373e-05</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>8.487503509968519e-05</v>
+        <v>9.837496327236295e-05</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>9.245803812518716e-05</v>
+        <v>9.041698649525642e-05</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>9.162497008219361e-05</v>
+        <v>9.049999061971903e-05</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>9.191699791699648e-05</v>
+        <v>9.366701124235988e-05</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>8.458300726488233e-05</v>
+        <v>9.670801227912307e-05</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>8.504203287884593e-05</v>
+        <v>8.362502558156848e-05</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>8.475000504404306e-05</v>
+        <v>9.112502448260784e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>8.516601519659162e-05</v>
+        <v>9.125005453824997e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>9.116600267589092e-05</v>
+        <v>9.070901433005929e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/bst_flag/search.xlsx
+++ b/outputs/bst_flag/search.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.541979145258665e-06</v>
+        <v>1.62498326972127e-06</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.170034900307655e-07</v>
+        <v>7.090275175869465e-07</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.169452823698521e-07</v>
+        <v>7.08969309926033e-07</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.790999133139849e-06</v>
+        <v>1.875043381005526e-06</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.083011738955975e-06</v>
+        <v>9.579816833138466e-07</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.00000761449337e-06</v>
+        <v>8.749775588512421e-07</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.00000761449337e-06</v>
+        <v>7.92031642049551e-07</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.166015863418579e-06</v>
+        <v>1.250009518116713e-06</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.580398909747601e-07</v>
+        <v>1.124979462474585e-06</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.579816833138466e-07</v>
+        <v>1.082953531295061e-06</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.00000761449337e-06</v>
+        <v>1.084001269191504e-06</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.082953531295061e-06</v>
+        <v>1.166015863418579e-06</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.125037670135498e-06</v>
+        <v>1.084001269191504e-06</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.125037670135498e-06</v>
+        <v>1.166015863418579e-06</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.250009518116713e-06</v>
+        <v>1.290987711399794e-06</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.333013642579317e-06</v>
+        <v>1.415959559381008e-06</v>
       </c>
     </row>
     <row r="18">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.708045601844788e-06</v>
+        <v>1.707987394183874e-06</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.667009200900793e-06</v>
+        <v>1.750013325363398e-06</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.750013325363398e-06</v>
+        <v>1.667009200900793e-06</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.833017449826002e-06</v>
+        <v>2.00001522898674e-06</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.00001522898674e-06</v>
+        <v>1.917011104524136e-06</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.00001522898674e-06</v>
+        <v>2.042041160166264e-06</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.08395067602396e-06</v>
+        <v>2.040993422269821e-06</v>
       </c>
     </row>
     <row r="28">
@@ -666,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.167013008147478e-06</v>
+        <v>2.208980731666088e-06</v>
       </c>
     </row>
     <row r="30">
@@ -682,7 +682,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.290995325893164e-06</v>
+        <v>2.209038939327002e-06</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.334010787308216e-06</v>
+        <v>2.250017132610083e-06</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.58302316069603e-06</v>
+        <v>2.457993105053902e-06</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.666027285158634e-06</v>
+        <v>2.750020939856768e-06</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.707995008677244e-06</v>
+        <v>2.667016815394163e-06</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.708984538912773e-06</v>
+        <v>2.707995008677244e-06</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.832966856658459e-06</v>
+        <v>2.707995008677244e-06</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.917018719017506e-06</v>
+        <v>2.790999133139849e-06</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.916029188781977e-06</v>
+        <v>2.874992787837982e-06</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.916029188781977e-06</v>
+        <v>2.875050995498896e-06</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.041001036763191e-06</v>
+        <v>3.083026967942715e-06</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.291002940386534e-06</v>
+        <v>3.167020622640848e-06</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.167020622640848e-06</v>
+        <v>3.166962414979935e-06</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.207998815923929e-06</v>
+        <v>3.167020622640848e-06</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.416964318603277e-06</v>
+        <v>3.374996595084667e-06</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.374996595084667e-06</v>
+        <v>3.333028871566057e-06</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.415974788367748e-06</v>
+        <v>3.500026650726795e-06</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.499968443065882e-06</v>
+        <v>3.500026650726795e-06</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.708002623170614e-06</v>
+        <v>3.62499849870801e-06</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.709050361067057e-06</v>
+        <v>3.708992153406143e-06</v>
       </c>
     </row>
     <row r="51">
@@ -850,7 +850,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.833964001387358e-06</v>
+        <v>3.708992153406143e-06</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.957946319133043e-06</v>
+        <v>3.833964001387358e-06</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.041008651256561e-06</v>
+        <v>4.416040610522032e-06</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.291010554879904e-06</v>
+        <v>4.084024112671614e-06</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.084024112671614e-06</v>
+        <v>4.125002305954695e-06</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.125002305954695e-06</v>
+        <v>4.959001671522856e-06</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.250032361596823e-06</v>
+        <v>4.249974153935909e-06</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.332978278398514e-06</v>
+        <v>4.291010554879904e-06</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.208995960652828e-06</v>
+        <v>4.292000085115433e-06</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.417030140757561e-06</v>
+        <v>4.416971933096647e-06</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.416971933096647e-06</v>
+        <v>4.792003892362118e-06</v>
       </c>
     </row>
     <row r="63">
@@ -946,7 +946,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.582980182021856e-06</v>
+        <v>4.541012458503246e-06</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.750036168843508e-06</v>
+        <v>4.833040293306112e-06</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.125009920448065e-06</v>
+        <v>5.292007699608803e-06</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.083042196929455e-06</v>
+        <v>5.166977643966675e-06</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.08397351950407e-06</v>
+        <v>5.124951712787151e-06</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.209003575146198e-06</v>
+        <v>5.332985892891884e-06</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.375011824071407e-06</v>
+        <v>5.166977643966675e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.375011824071407e-06</v>
+        <v>5.415990017354488e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.249981768429279e-06</v>
+        <v>5.375011824071407e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.62501372769475e-06</v>
+        <v>5.500041879713535e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.582987796515226e-06</v>
+        <v>5.499983672052622e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.499983672052622e-06</v>
+        <v>6.041955202817917e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.62501372769475e-06</v>
+        <v>5.708017852157354e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.582987796515226e-06</v>
+        <v>5.708017852157354e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.499991286545992e-06</v>
+        <v>7.041962817311287e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.749985575675964e-06</v>
+        <v>5.916983354836702e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.708017852157354e-06</v>
+        <v>5.875015631318092e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.959009286016226e-06</v>
+        <v>6.165995728224516e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.916983354836702e-06</v>
+        <v>6.165995728224516e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.165995728224516e-06</v>
+        <v>6.584043148905039e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.166985258460045e-06</v>
+        <v>6.249989382922649e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.125017534941435e-06</v>
+        <v>6.459013093262911e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1130,7 +1130,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.542017217725515e-06</v>
+        <v>6.62502134218812e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.542017217725515e-06</v>
+        <v>6.624963134527206e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.542017217725515e-06</v>
+        <v>6.499991286545992e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.582995411008596e-06</v>
+        <v>6.62502134218812e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.541027687489986e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.582995411008596e-06</v>
+        <v>6.749993190169334e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.707967258989811e-06</v>
+        <v>7.0420210249722e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.208029273897409e-06</v>
+        <v>7.166992872953415e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.2909751906991e-06</v>
+        <v>7.249996997416019e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.124966941773891e-06</v>
+        <v>7.166992872953415e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.291033398360014e-06</v>
+        <v>7.416994776576757e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.292022928595543e-06</v>
+        <v>7.416994776576757e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.333990652114153e-06</v>
+        <v>7.62502895668149e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.375027053058147e-06</v>
+        <v>7.916998583823442e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.374968845397234e-06</v>
+        <v>7.583003025501966e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>7.62502895668149e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.499998901039362e-06</v>
+        <v>7.624970749020576e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.709022611379623e-06</v>
+        <v>7.707974873483181e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.792026735842228e-06</v>
+        <v>7.916009053587914e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.750000804662704e-06</v>
+        <v>8.374976459890604e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.833004929125309e-06</v>
+        <v>8.083006832748652e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8.083006832748652e-06</v>
+        <v>7.916998583823442e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8.000002708286047e-06</v>
+        <v>8.250004611909389e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.250004611909389e-06</v>
+        <v>8.666946087032557e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8.167000487446785e-06</v>
+        <v>8.333998266607523e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.374976459890604e-06</v>
+        <v>8.500006515532732e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1346,7 +1346,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8.624978363513947e-06</v>
+        <v>8.66700429469347e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8.500006515532732e-06</v>
+        <v>8.66700429469347e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8.458970114588737e-06</v>
+        <v>8.541974239051342e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.415954653173685e-06</v>
+        <v>8.66700429469347e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.582952432334423e-06</v>
+        <v>8.707982487976551e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.583010639995337e-06</v>
+        <v>8.66700429469347e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>8.583010639995337e-06</v>
+        <v>8.66700429469347e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>8.875038474798203e-06</v>
+        <v>9.541981853544712e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.916016668081284e-06</v>
+        <v>8.959032129496336e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8.917006198316813e-06</v>
+        <v>8.874980267137289e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8.916016668081284e-06</v>
+        <v>9.333016350865364e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9.040988516062498e-06</v>
+        <v>9.25001222640276e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9.167008101940155e-06</v>
+        <v>9.249954018741846e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9.000010322779417e-06</v>
+        <v>9.416951797902584e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9.165960364043713e-06</v>
+        <v>9.29197994992137e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9.665964171290398e-06</v>
+        <v>9.584007784724236e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9.874987881630659e-06</v>
+        <v>1.008296385407448e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9.999959729611874e-06</v>
+        <v>1.024996163323522e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9.875046089291573e-06</v>
+        <v>9.957992006093264e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9.834009688347578e-06</v>
+        <v>1.000001793727279e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9.791983757168055e-06</v>
+        <v>1.016701571643353e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9.874987881630659e-06</v>
+        <v>1.0124989785254e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9.917013812810183e-06</v>
+        <v>1.00419856607914e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.016701571643353e-05</v>
+        <v>1.041701762005687e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.041695941239595e-05</v>
+        <v>1.045799581333995e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.033302396535873e-05</v>
+        <v>1.054198946803808e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.029204577207565e-05</v>
+        <v>1.054099993780255e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.041701762005687e-05</v>
+        <v>1.095799962058663e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.0542047675699e-05</v>
+        <v>1.070898724719882e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.037499168887734e-05</v>
+        <v>1.070799771696329e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.037504989653826e-05</v>
+        <v>1.083302777260542e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.07910018414259e-05</v>
+        <v>1.087499549612403e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.083296956494451e-05</v>
+        <v>1.108401920646429e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.083302777260542e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.087499549612403e-05</v>
+        <v>1.120904926210642e-05</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.079199137166142e-05</v>
+        <v>1.104199327528477e-05</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.091702142730355e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.104199327528477e-05</v>
+        <v>1.112499739974737e-05</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.112499739974737e-05</v>
+        <v>1.11670233309269e-05</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.116696512326598e-05</v>
+        <v>1.129199517890811e-05</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.11670233309269e-05</v>
+        <v>1.158303348347545e-05</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.133297337219119e-05</v>
+        <v>1.154199708253145e-05</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.141696702688932e-05</v>
+        <v>1.145794522017241e-05</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.141702523455024e-05</v>
+        <v>1.166696893051267e-05</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.141696702688932e-05</v>
+        <v>1.154199708253145e-05</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.133402111008763e-05</v>
+        <v>1.166702713817358e-05</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.133402111008763e-05</v>
+        <v>1.158297527581453e-05</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.154205529019237e-05</v>
+        <v>1.18750031106174e-05</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.158303348347545e-05</v>
+        <v>1.183303538709879e-05</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.191598130390048e-05</v>
+        <v>1.199997495859861e-05</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.179199898615479e-05</v>
+        <v>1.208297908306122e-05</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.18750031106174e-05</v>
+        <v>1.212500501424074e-05</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.170800533145666e-05</v>
+        <v>1.216703094542027e-05</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.162500120699406e-05</v>
+        <v>1.224997686222196e-05</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.191697083413601e-05</v>
+        <v>1.237500691786408e-05</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.229200279340148e-05</v>
+        <v>1.241697464138269e-05</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.220800913870335e-05</v>
+        <v>1.266703475266695e-05</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.254200469702482e-05</v>
+        <v>1.279194839298725e-05</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.245900057256222e-05</v>
+        <v>1.275003887712955e-05</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.262500882148743e-05</v>
+        <v>1.320801675319672e-05</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.24999787658453e-05</v>
+        <v>1.295801484957337e-05</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.283298479393125e-05</v>
+        <v>1.325004268437624e-05</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.270801294595003e-05</v>
+        <v>1.308397622779012e-05</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.283304300159216e-05</v>
+        <v>1.329102087765932e-05</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.295801484957337e-05</v>
+        <v>1.337501453235745e-05</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.299998257309198e-05</v>
+        <v>1.354201231151819e-05</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.295795664191246e-05</v>
+        <v>1.329195220023394e-05</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.325004268437624e-05</v>
+        <v>1.366599462926388e-05</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.329201040789485e-05</v>
+        <v>1.349998638033867e-05</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.329102087765932e-05</v>
+        <v>1.358299050480127e-05</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.320900628343225e-05</v>
+        <v>1.366599462926388e-05</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.345801865682006e-05</v>
+        <v>1.37080205604434e-05</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.345801865682006e-05</v>
+        <v>1.383305061608553e-05</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.349998638033867e-05</v>
+        <v>1.387501833960414e-05</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.366599462926388e-05</v>
+        <v>1.387501833960414e-05</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.374998828396201e-05</v>
+        <v>1.399999018758535e-05</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.399999018758535e-05</v>
+        <v>1.429201802238822e-05</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.391698606312275e-05</v>
+        <v>1.416698796674609e-05</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.374998828396201e-05</v>
+        <v>1.437496393918991e-05</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.43329962156713e-05</v>
+        <v>1.466704998165369e-05</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.404195791110396e-05</v>
+        <v>1.437502214685082e-05</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.408398384228349e-05</v>
+        <v>1.470895949751139e-05</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.416599843651056e-05</v>
+        <v>1.470796996727586e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.462502405047417e-05</v>
+        <v>1.48749677464366e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.458299811929464e-05</v>
+        <v>1.495803007856011e-05</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.441600034013391e-05</v>
+        <v>1.48749677464366e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.449999399483204e-05</v>
+        <v>1.466699177399278e-05</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.474999589845538e-05</v>
+        <v>1.508300192654133e-05</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.479196362197399e-05</v>
+        <v>1.508399145677686e-05</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.504202373325825e-05</v>
+        <v>1.554196933284402e-05</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.49579718708992e-05</v>
+        <v>1.558300573378801e-05</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.516594784334302e-05</v>
+        <v>1.550000160932541e-05</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.520902151241899e-05</v>
+        <v>1.550000160932541e-05</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.508399145677686e-05</v>
+        <v>1.529202563688159e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.48749677464366e-05</v>
+        <v>1.529202563688159e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.54169974848628e-05</v>
+        <v>1.554097980260849e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.524999970570207e-05</v>
+        <v>1.554196933284402e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.537497155368328e-05</v>
+        <v>1.562497345730662e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.545797567814589e-05</v>
+        <v>1.608399907127023e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.554196933284402e-05</v>
+        <v>1.608399907127023e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.529202563688159e-05</v>
+        <v>1.599994720891118e-05</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.554202754050493e-05</v>
+        <v>1.620897091925144e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.558399526402354e-05</v>
+        <v>1.620902912691236e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.579202944412827e-05</v>
+        <v>1.616700319573283e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.579202944412827e-05</v>
+        <v>1.624994911253452e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.583399716764688e-05</v>
+        <v>1.629098551347852e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.591700129210949e-05</v>
+        <v>1.662503927946091e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.591700129210949e-05</v>
+        <v>1.683295704424381e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.60830095410347e-05</v>
+        <v>1.645804150030017e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.600000541657209e-05</v>
+        <v>1.650000922381878e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.60830095410347e-05</v>
+        <v>1.658301334828138e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.650000922381878e-05</v>
+        <v>1.700001303106546e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.620798138901591e-05</v>
+        <v>1.675001112744212e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1.629203325137496e-05</v>
+        <v>1.662498107179999e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.629203325137496e-05</v>
+        <v>1.700001303106546e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.650000922381878e-05</v>
+        <v>1.691596116870642e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.650000922381878e-05</v>
+        <v>1.725001493468881e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.679197885096073e-05</v>
+        <v>1.704198075458407e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.629098551347852e-05</v>
+        <v>1.70840066857636e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.670903293415904e-05</v>
+        <v>1.737498678267002e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.700001303106546e-05</v>
+        <v>1.745799090713263e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.674995291978121e-05</v>
+        <v>1.733301905915141e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.675001112744212e-05</v>
+        <v>1.750001683831215e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.691700890660286e-05</v>
+        <v>1.750001683831215e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.695798709988594e-05</v>
+        <v>1.725001493468881e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.820898614823818e-05</v>
+        <v>1.758296275511384e-05</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.712498487904668e-05</v>
+        <v>1.741701271384954e-05</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.725001493468881e-05</v>
+        <v>1.762498868629336e-05</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.725001493468881e-05</v>
+        <v>1.774996053427458e-05</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.733301905915141e-05</v>
+        <v>1.78330228663981e-05</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.729198265820742e-05</v>
+        <v>1.779099693521857e-05</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.762498868629336e-05</v>
+        <v>1.775001874193549e-05</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.72910513356328e-05</v>
+        <v>1.775001874193549e-05</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1.745898043736815e-05</v>
+        <v>1.800002064555883e-05</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.733301905915141e-05</v>
+        <v>1.779099693521857e-05</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.758401049301028e-05</v>
+        <v>1.808401430025697e-05</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.754198456183076e-05</v>
+        <v>1.824996434152126e-05</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.766602508723736e-05</v>
+        <v>1.83339579962194e-05</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.795799471437931e-05</v>
+        <v>1.833401620388031e-05</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.820799661800265e-05</v>
+        <v>1.854199217632413e-05</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.829199027270079e-05</v>
+        <v>1.866702223196626e-05</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.808302477002144e-05</v>
+        <v>1.854199217632413e-05</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1.804198836907744e-05</v>
+        <v>1.887499820441008e-05</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1.862499630078673e-05</v>
+        <v>1.950003206729889e-05</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1.89170241355896e-05</v>
+        <v>1.904199598357081e-05</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1.908402191475034e-05</v>
+        <v>1.966702984645963e-05</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.920899376273155e-05</v>
+        <v>1.96250039152801e-05</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1.891696592792869e-05</v>
+        <v>1.941598020493984e-05</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1.870898995548487e-05</v>
+        <v>1.958396751433611e-05</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.883297227323055e-05</v>
+        <v>1.966702984645963e-05</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.891603460535407e-05</v>
+        <v>1.937500201165676e-05</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1.916702603921294e-05</v>
+        <v>1.987500581890345e-05</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1.90829741768539e-05</v>
+        <v>1.970800803974271e-05</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.916702603921294e-05</v>
+        <v>1.995800994336605e-05</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.920800423249602e-05</v>
+        <v>1.991598401218653e-05</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1.916702603921294e-05</v>
+        <v>2.012500772252679e-05</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1.929199788719416e-05</v>
+        <v>2.016598591580987e-05</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1.970899756997824e-05</v>
+        <v>2.041697734966874e-05</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1.949997385963798e-05</v>
+        <v>2.004200359806418e-05</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2.029200550168753e-05</v>
+        <v>2.091703936457634e-05</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1.970800803974271e-05</v>
+        <v>2.070801565423608e-05</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1.991697354242206e-05</v>
+        <v>2.049998147413135e-05</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1.983402762562037e-05</v>
+        <v>2.041598781943321e-05</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>2.016703365370631e-05</v>
+        <v>2.0667037460953e-05</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1.983303809538484e-05</v>
+        <v>2.062501152977347e-05</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1.999997766688466e-05</v>
+        <v>2.08749552257359e-05</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1.975003397092223e-05</v>
+        <v>2.066697925329208e-05</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2.049998147413135e-05</v>
+        <v>2.108298940584064e-05</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>2.066598972305655e-05</v>
+        <v>2.141698496416211e-05</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2.008298179134727e-05</v>
+        <v>2.112501533702016e-05</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2.033298369497061e-05</v>
+        <v>2.095801755785942e-05</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2.062501152977347e-05</v>
+        <v>2.116698306053877e-05</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>2.0667037460953e-05</v>
+        <v>2.112501533702016e-05</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>2.058304380625486e-05</v>
+        <v>2.133299130946398e-05</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2.079101977869868e-05</v>
+        <v>2.12920131161809e-05</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2.133299130946398e-05</v>
+        <v>2.183299511671066e-05</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2.108298940584064e-05</v>
+        <v>2.162496093660593e-05</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2.087501343339682e-05</v>
+        <v>2.237496664747596e-05</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2.129102358594537e-05</v>
+        <v>2.170901279896498e-05</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2.141698496416211e-05</v>
+        <v>2.166599733754992e-05</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2.120796125382185e-05</v>
+        <v>2.187502104789019e-05</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2.154201501980424e-05</v>
+        <v>2.216699067503214e-05</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2.116698306053877e-05</v>
+        <v>2.19999928958714e-05</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2.145802136510611e-05</v>
+        <v>2.270902041345835e-05</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2.141698496416211e-05</v>
+        <v>2.204097108915448e-05</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2.708297688513994e-05</v>
+        <v>2.220796886831522e-05</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2.254097489640117e-05</v>
+        <v>2.229202073067427e-05</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2.212502295151353e-05</v>
+        <v>2.233299892395735e-05</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2.208398655056953e-05</v>
+        <v>2.216699067503214e-05</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2.179201692342758e-05</v>
+        <v>2.229196252301335e-05</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2.179201692342758e-05</v>
+        <v>2.224999479949474e-05</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2.220802707597613e-05</v>
+        <v>2.233398845419288e-05</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2.195802517235279e-05</v>
+        <v>2.274999860674143e-05</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2.233299892395735e-05</v>
+        <v>2.274999860674143e-05</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2.220901660621166e-05</v>
+        <v>2.291699638590217e-05</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2.224999479949474e-05</v>
+        <v>2.295797457918525e-05</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2.283399226143956e-05</v>
+        <v>2.337497426196933e-05</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2.245802897959948e-05</v>
+        <v>2.31250305660069e-05</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2.237496664747596e-05</v>
+        <v>2.329197013750672e-05</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2.262502675876021e-05</v>
+        <v>2.341601066291332e-05</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2.287497045472264e-05</v>
+        <v>2.345803659409285e-05</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2.316699828952551e-05</v>
+        <v>2.354203024879098e-05</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2.274999860674143e-05</v>
+        <v>2.337503246963024e-05</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2.295797457918525e-05</v>
+        <v>2.354203024879098e-05</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2.279196633026004e-05</v>
+        <v>2.366700209677219e-05</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2.320902422070503e-05</v>
+        <v>2.379203215241432e-05</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2.291600685566664e-05</v>
+        <v>2.354104071855545e-05</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>2.350000431761146e-05</v>
+        <v>2.379104262217879e-05</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>2.345803659409285e-05</v>
+        <v>2.412497997283936e-05</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>2.316600875928998e-05</v>
+        <v>2.416595816612244e-05</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>2.32080346904695e-05</v>
+        <v>2.379197394475341e-05</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>2.349994610995054e-05</v>
+        <v>2.387497806921601e-05</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2.341700019314885e-05</v>
+        <v>2.395902993157506e-05</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>2.345803659409285e-05</v>
+        <v>2.433400368317962e-05</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>2.362497616559267e-05</v>
+        <v>3.925000783056021e-05</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>2.354203024879098e-05</v>
+        <v>2.55000195465982e-05</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>2.404098631814122e-05</v>
+        <v>2.525001764297485e-05</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2.362497616559267e-05</v>
+        <v>2.504099393263459e-05</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2.362497616559267e-05</v>
+        <v>2.470798790454865e-05</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>2.425001002848148e-05</v>
+        <v>2.474995562806726e-05</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>2.420804230496287e-05</v>
+        <v>2.508301986381412e-05</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>2.387497806921601e-05</v>
+        <v>2.520898124203086e-05</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>2.374994801357388e-05</v>
+        <v>2.520898124203086e-05</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>2.44579860009253e-05</v>
+        <v>2.583401510491967e-05</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>3.266596468165517e-05</v>
+        <v>2.579099964350462e-05</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>2.591696102172136e-05</v>
+        <v>2.541596768423915e-05</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>2.500001573935151e-05</v>
+        <v>2.587499329820275e-05</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>2.504198346287012e-05</v>
+        <v>2.545799361541867e-05</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>2.491701161488891e-05</v>
+        <v>2.583401510491967e-05</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>2.479203976690769e-05</v>
+        <v>2.579198917374015e-05</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>2.533302176743746e-05</v>
+        <v>2.62079993262887e-05</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>2.541701542213559e-05</v>
+        <v>2.600002335384488e-05</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>2.495897933840752e-05</v>
+        <v>2.599996514618397e-05</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>2.479203976690769e-05</v>
+        <v>2.620898885652423e-05</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>2.500001573935151e-05</v>
+        <v>2.625002525746822e-05</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>2.524995943531394e-05</v>
+        <v>2.599996514618397e-05</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>2.533296355977654e-05</v>
+        <v>2.645800122991204e-05</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>2.545799361541867e-05</v>
+        <v>2.637505531311035e-05</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>2.54589831456542e-05</v>
+        <v>2.612505340948701e-05</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>2.55830236710608e-05</v>
+        <v>2.733297878876328e-05</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>2.62079993262887e-05</v>
+        <v>2.72920005954802e-05</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>2.579099964350462e-05</v>
+        <v>2.679199678823352e-05</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>2.554099773988128e-05</v>
+        <v>2.65840208157897e-05</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>2.608296927064657e-05</v>
+        <v>2.704199869185686e-05</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>2.608302747830749e-05</v>
+        <v>2.72920005954802e-05</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>2.595799742266536e-05</v>
+        <v>2.725003287196159e-05</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>2.608302747830749e-05</v>
+        <v>2.691702684387565e-05</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>2.61249952018261e-05</v>
+        <v>2.741703065112233e-05</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>2.650002716109157e-05</v>
+        <v>2.775003667920828e-05</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>2.695899456739426e-05</v>
+        <v>2.73330369964242e-05</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>2.641696482896805e-05</v>
+        <v>2.745800884440541e-05</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>2.645800122991204e-05</v>
+        <v>2.762500662356615e-05</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>2.633297117426991e-05</v>
+        <v>2.766697434708476e-05</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>2.666603541001678e-05</v>
+        <v>2.758303890004754e-05</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>2.633396070450544e-05</v>
+        <v>2.787495031952858e-05</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>2.695800503715873e-05</v>
+        <v>2.829200820997357e-05</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>2.687500091269612e-05</v>
+        <v>2.820801455527544e-05</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>2.679199678823352e-05</v>
+        <v>2.829200820997357e-05</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>2.725003287196159e-05</v>
+        <v>2.854102058336139e-05</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>2.691603731364012e-05</v>
+        <v>2.816703636199236e-05</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>2.708297688513994e-05</v>
+        <v>2.870801836252213e-05</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>2.724997466430068e-05</v>
+        <v>2.79580126516521e-05</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>2.749997656792402e-05</v>
+        <v>2.841604873538017e-05</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>2.766697434708476e-05</v>
+        <v>2.891698386520147e-05</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>2.762500662356615e-05</v>
+        <v>2.90420139208436e-05</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>2.766604302451015e-05</v>
+        <v>2.937496174126863e-05</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>2.79169762507081e-05</v>
+        <v>2.924998989328742e-05</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>2.84170382656157e-05</v>
+        <v>2.949999179691076e-05</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>2.845900598913431e-05</v>
+        <v>2.979201963171363e-05</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>6.391701754182577e-05</v>
+        <v>2.924998989328742e-05</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>3.012496745213866e-05</v>
+        <v>2.962496364489198e-05</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>2.96669895760715e-05</v>
+        <v>3.016600385308266e-05</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>2.933299401775002e-05</v>
+        <v>2.999999560415745e-05</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>2.912501804530621e-05</v>
+        <v>3.008299972862005e-05</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>2.899998798966408e-05</v>
+        <v>2.991699147969484e-05</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>2.937496174126863e-05</v>
+        <v>3.008299972862005e-05</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>2.999999560415745e-05</v>
+        <v>3.049999941140413e-05</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>2.958299592137337e-05</v>
+        <v>3.045803168788552e-05</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>2.912495983764529e-05</v>
+        <v>3.02919652312994e-05</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>2.941698767244816e-05</v>
+        <v>3.083300543949008e-05</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>2.937501994892955e-05</v>
+        <v>3.012496745213866e-05</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>3.004103200510144e-05</v>
+        <v>3.141601337119937e-05</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>2.983398735523224e-05</v>
+        <v>3.054202534258366e-05</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>2.966600004583597e-05</v>
+        <v>3.041699528694153e-05</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>2.962496364489198e-05</v>
+        <v>3.070797538384795e-05</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>2.97080259770155e-05</v>
+        <v>3.083300543949008e-05</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>2.950005000457168e-05</v>
+        <v>3.075000131502748e-05</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>3.004202153533697e-05</v>
+        <v>3.079196903854609e-05</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>2.995796967297792e-05</v>
+        <v>3.108300734311342e-05</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>3.045803168788552e-05</v>
+        <v>3.120803739875555e-05</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>3.004202153533697e-05</v>
+        <v>3.129098331555724e-05</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>3.012502565979958e-05</v>
+        <v>3.158301115036011e-05</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>3.024999750778079e-05</v>
+        <v>3.154203295707703e-05</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>3.012496745213866e-05</v>
+        <v>3.179197665303946e-05</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>3.029103390872478e-05</v>
+        <v>3.187498077750206e-05</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>3.083300543949008e-05</v>
+        <v>3.183301305398345e-05</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>3.066699719056487e-05</v>
+        <v>3.162497887387872e-05</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>3.058300353586674e-05</v>
+        <v>3.20419785566628e-05</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>3.08750313706696e-05</v>
+        <v>3.179197665303946e-05</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>3.083399496972561e-05</v>
+        <v>3.21249826811254e-05</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>3.104202914983034e-05</v>
+        <v>3.158400068059564e-05</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>3.0792027246207e-05</v>
+        <v>3.187498077750206e-05</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>3.083399496972561e-05</v>
+        <v>3.166700480505824e-05</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>3.129203105345368e-05</v>
+        <v>3.308302257210016e-05</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>3.145897062495351e-05</v>
+        <v>3.262498648837209e-05</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>3.108300734311342e-05</v>
+        <v>3.241701051592827e-05</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>3.125000512227416e-05</v>
+        <v>3.237498458474874e-05</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>3.104197094216943e-05</v>
+        <v>3.287498839199543e-05</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>3.133300924673676e-05</v>
+        <v>3.258296055719256e-05</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>3.120902692899108e-05</v>
+        <v>3.254198236390948e-05</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>3.129203105345368e-05</v>
+        <v>3.262498648837209e-05</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>3.162497887387872e-05</v>
+        <v>3.287498839199543e-05</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>3.162497887387872e-05</v>
+        <v>3.258296055719256e-05</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>3.183301305398345e-05</v>
+        <v>3.333302447572351e-05</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>3.154197474941611e-05</v>
+        <v>3.337499219924212e-05</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>3.21660190820694e-05</v>
+        <v>3.320799442008138e-05</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>3.195903263986111e-05</v>
+        <v>3.291701432317495e-05</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>3.179203486070037e-05</v>
+        <v>3.324996214359999e-05</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>3.208301495760679e-05</v>
+        <v>3.308395389467478e-05</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>3.26669542118907e-05</v>
+        <v>3.379205008968711e-05</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>3.254099283367395e-05</v>
+        <v>3.341701813042164e-05</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>3.254198236390948e-05</v>
+        <v>3.345799632370472e-05</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>3.241701051592827e-05</v>
+        <v>3.37919918820262e-05</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>3.241596277803183e-05</v>
+        <v>3.404199378564954e-05</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>3.270799061283469e-05</v>
+        <v>3.38749960064888e-05</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>3.250001464039087e-05</v>
+        <v>3.487500362098217e-05</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>3.245798870921135e-05</v>
+        <v>3.975001163780689e-05</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>3.320904215797782e-05</v>
+        <v>3.441702574491501e-05</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>3.304198617115617e-05</v>
+        <v>3.658299101516604e-05</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>3.350002225488424e-05</v>
+        <v>3.883300814777613e-05</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>3.320799442008138e-05</v>
+        <v>3.462500171735883e-05</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>3.320805262774229e-05</v>
+        <v>3.454100806266069e-05</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>3.308302257210016e-05</v>
+        <v>3.495800774544477e-05</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>3.333302447572351e-05</v>
+        <v>4.262500442564487e-05</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>3.287498839199543e-05</v>
+        <v>3.545801155269146e-05</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>3.383302828297019e-05</v>
+        <v>3.508402733132243e-05</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>3.374996595084667e-05</v>
+        <v>3.508297959342599e-05</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>3.395898966118693e-05</v>
+        <v>3.483303589746356e-05</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>3.404100425541401e-05</v>
+        <v>3.508396912366152e-05</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>3.341695992276073e-05</v>
+        <v>3.616698086261749e-05</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>3.350002225488424e-05</v>
+        <v>4.370900569483638e-05</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>3.329198807477951e-05</v>
+        <v>3.599998308345675e-05</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>3.362499410286546e-05</v>
+        <v>3.620801726356149e-05</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>3.375002415850759e-05</v>
+        <v>3.649998689070344e-05</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>3.604200901463628e-05</v>
+        <v>3.620801726356149e-05</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>3.45829757861793e-05</v>
+        <v>4.562496906146407e-05</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>3.437499981373549e-05</v>
+        <v>3.662501694634557e-05</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>3.44999716617167e-05</v>
+        <v>3.649998689070344e-05</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>3.420800203457475e-05</v>
+        <v>4.075001925230026e-05</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>3.408297197893262e-05</v>
+        <v>3.454199759289622e-05</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>3.395904786884785e-05</v>
+        <v>3.441597800701857e-05</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>3.445800393819809e-05</v>
+        <v>3.533298149704933e-05</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>3.441702574491501e-05</v>
+        <v>4.04579914174974e-05</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>3.470794763416052e-05</v>
+        <v>4.283298039808869e-05</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>3.495800774544477e-05</v>
+        <v>4.64579788967967e-05</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>3.470800584182143e-05</v>
+        <v>4.304095637053251e-05</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>3.483396722003818e-05</v>
+        <v>4.516704939305782e-05</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>3.516598371788859e-05</v>
+        <v>4.283303860574961e-05</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>3.466597991064191e-05</v>
+        <v>4.366697976365685e-05</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>3.499997546896338e-05</v>
+        <v>4.412495763972402e-05</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>3.495800774544477e-05</v>
+        <v>4.312500823289156e-05</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>3.487500362098217e-05</v>
+        <v>6.020802538841963e-05</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>3.487500362098217e-05</v>
+        <v>4.712498048320413e-05</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>3.51249473169446e-05</v>
+        <v>4.462501965463161e-05</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>3.524997737258673e-05</v>
+        <v>4.395801806822419e-05</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>3.508297959342599e-05</v>
+        <v>4.775001434609294e-05</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>3.512500552460551e-05</v>
+        <v>4.325003828853369e-05</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>3.541697515174747e-05</v>
+        <v>4.604196874424815e-05</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>3.537494922056794e-05</v>
+        <v>4.333298420533538e-05</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>3.56250093318522e-05</v>
+        <v>4.395801806822419e-05</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>3.533397102728486e-05</v>
+        <v>4.766701022163033e-05</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>3.579101758077741e-05</v>
+        <v>4.304101457819343e-05</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>3.575003938749433e-05</v>
+        <v>4.241702845320106e-05</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>3.587495302781463e-05</v>
+        <v>3.729201853275299e-05</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>3.579101758077741e-05</v>
+        <v>3.804202424362302e-05</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>3.612495493143797e-05</v>
+        <v>3.783300053328276e-05</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>3.620801726356149e-05</v>
+        <v>3.774999640882015e-05</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>3.649998689070344e-05</v>
+        <v>4.754099063575268e-05</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>3.625004319474101e-05</v>
+        <v>4.75830165669322e-05</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>3.654195461422205e-05</v>
+        <v>4.816695582121611e-05</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>3.650004509836435e-05</v>
+        <v>4.766701022163033e-05</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>3.620801726356149e-05</v>
+        <v>4.04579914174974e-05</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>3.783300053328276e-05</v>
+        <v>3.945798380300403e-05</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>4.50420193374157e-05</v>
+        <v>4.75830165669322e-05</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>4.358298610895872e-05</v>
+        <v>3.895803820341825e-05</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>4.204199649393559e-05</v>
+        <v>4.658295074477792e-05</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>3.712496254593134e-05</v>
+        <v>4.737504059448838e-05</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>4.612503107637167e-05</v>
+        <v>4.804198397323489e-05</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>4.824995994567871e-05</v>
+        <v>6.05420209467411e-05</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>4.533404717221856e-05</v>
+        <v>4.762498429045081e-05</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>4.662497667595744e-05</v>
+        <v>3.966700751334429e-05</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>7.20410025678575e-05</v>
+        <v>3.904203185811639e-05</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>5.745800444856286e-05</v>
+        <v>4.749995423480868e-05</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>4.662503488361835e-05</v>
+        <v>3.883399767801166e-05</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>4.283303860574961e-05</v>
+        <v>3.929203376173973e-05</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>4.745798651129007e-05</v>
+        <v>3.924994962289929e-05</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>4.908302798867226e-05</v>
+        <v>4.804198397323489e-05</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>5.012494511902332e-05</v>
+        <v>4.895799793303013e-05</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>4.524999530985951e-05</v>
+        <v>4.766701022163033e-05</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>4.704098682850599e-05</v>
+        <v>4.870799602940679e-05</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>4.93330298922956e-05</v>
+        <v>4.862499190494418e-05</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>5.108298500999808e-05</v>
+        <v>4.904100205749273e-05</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>4.583399277180433e-05</v>
+        <v>4.974997136741877e-05</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>4.587497096508741e-05</v>
+        <v>4.899996565654874e-05</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>5.037494702264667e-05</v>
+        <v>4.833296407014132e-05</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>4.549999721348286e-05</v>
+        <v>4.904100205749273e-05</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>4.570803139358759e-05</v>
+        <v>4.837504820898175e-05</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>4.691700451076031e-05</v>
+        <v>4.933401942253113e-05</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>5.079101538285613e-05</v>
+        <v>4.083395469933748e-05</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>4.625000292435288e-05</v>
+        <v>4.895799793303013e-05</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>5.062494892627001e-05</v>
+        <v>4.950002767145634e-05</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>4.833401180803776e-05</v>
+        <v>5.066604353487492e-05</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>4.670897033065557e-05</v>
+        <v>5.016598151996732e-05</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>4.687497857958078e-05</v>
+        <v>5.012494511902332e-05</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>5.037500523030758e-05</v>
+        <v>4.991603782400489e-05</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>4.920799983665347e-05</v>
+        <v>5.000003147870302e-05</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>5.045800935477018e-05</v>
+        <v>5.008303560316563e-05</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>5.220796447247267e-05</v>
+        <v>4.979199729859829e-05</v>
       </c>
     </row>
     <row r="532">
@@ -4698,7 +4698,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>5.216698627918959e-05</v>
+        <v>4.999997327104211e-05</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>5.199998850002885e-05</v>
+        <v>5.000003147870302e-05</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>4.891696153208613e-05</v>
+        <v>4.920799983665347e-05</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>4.287500632926822e-05</v>
+        <v>4.979100776836276e-05</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>3.91670037060976e-05</v>
+        <v>5.016697105020285e-05</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>4.558300133794546e-05</v>
+        <v>5.054200300946832e-05</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>4.04579914174974e-05</v>
+        <v>5.162501474842429e-05</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>4.120799712836742e-05</v>
+        <v>4.174996865913272e-05</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>4.08340129069984e-05</v>
+        <v>4.329194780439138e-05</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>4.029198316857219e-05</v>
+        <v>4.187499871477485e-05</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>4.700000863522291e-05</v>
+        <v>5.916698137298226e-05</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>4.10000211559236e-05</v>
+        <v>4.329095827415586e-05</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>5.383300594985485e-05</v>
+        <v>4.320801235735416e-05</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>4.070799332112074e-05</v>
+        <v>4.2750034481287e-05</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>4.116602940484881e-05</v>
+        <v>5.179201252758503e-05</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>4.537496715784073e-05</v>
+        <v>4.466698737815022e-05</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>5.379098001867533e-05</v>
+        <v>4.316697595641017e-05</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>5.291699199005961e-05</v>
+        <v>4.220800474286079e-05</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>5.47909876331687e-05</v>
+        <v>4.362501204013824e-05</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>4.958303179591894e-05</v>
+        <v>4.358298610895872e-05</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>4.9208989366889e-05</v>
+        <v>4.304200410842896e-05</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>5.445803981274366e-05</v>
+        <v>0.0001141669927164912</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>5.23329945281148e-05</v>
+        <v>5.200004670768976e-05</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>4.604202695190907e-05</v>
+        <v>4.470802377909422e-05</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>4.075001925230026e-05</v>
+        <v>4.412501584738493e-05</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>4.499999340623617e-05</v>
+        <v>4.408298991620541e-05</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>5.291699199005961e-05</v>
+        <v>4.454102599993348e-05</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>5.512498319149017e-05</v>
+        <v>4.374998388811946e-05</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>5.287496605888009e-05</v>
+        <v>4.441698547452688e-05</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>5.608296487480402e-05</v>
+        <v>4.395900759845972e-05</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>5.266699008643627e-05</v>
+        <v>4.462501965463161e-05</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>5.520897684618831e-05</v>
+        <v>4.46249614469707e-05</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>5.075003718957305e-05</v>
+        <v>4.395900759845972e-05</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>5.179201252758503e-05</v>
+        <v>4.487502155825496e-05</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>5.537498509511352e-05</v>
+        <v>4.408298991620541e-05</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>5.212501855567098e-05</v>
+        <v>4.945800174027681e-05</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>5.52500132471323e-05</v>
+        <v>4.545802948996425e-05</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>5.654199048876762e-05</v>
+        <v>4.629098111763597e-05</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>5.129200872033834e-05</v>
+        <v>4.650000482797623e-05</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>5.575001705437899e-05</v>
+        <v>5.304202204570174e-05</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>5.437497748062015e-05</v>
+        <v>4.679197445511818e-05</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>5.633296677842736e-05</v>
+        <v>4.608300514519215e-05</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>5.629198858514428e-05</v>
+        <v>5.420902743935585e-05</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>5.199998850002885e-05</v>
+        <v>5.77080063521862e-05</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>5.462497938424349e-05</v>
+        <v>4.629098111763597e-05</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>5.470804171636701e-05</v>
+        <v>5.41249755769968e-05</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>6.024999311193824e-05</v>
+        <v>5.416700150817633e-05</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>5.70000265724957e-05</v>
+        <v>4.558300133794546e-05</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>5.250005051493645e-05</v>
+        <v>4.608300514519215e-05</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>5.379202775657177e-05</v>
+        <v>4.591705510392785e-05</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>5.400000372901559e-05</v>
+        <v>5.533301737159491e-05</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>5.725002847611904e-05</v>
+        <v>5.299999611452222e-05</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>5.470804171636701e-05</v>
+        <v>5.337502807378769e-05</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>5.429197335615754e-05</v>
+        <v>5.558301927521825e-05</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>5.65829686820507e-05</v>
+        <v>5.408300785347819e-05</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>5.816697375848889e-05</v>
+        <v>5.45420334674418e-05</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>5.462497938424349e-05</v>
+        <v>4.845799412578344e-05</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>5.529198097065091e-05</v>
+        <v>8.337502367794514e-05</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>5.808303831145167e-05</v>
+        <v>6.112502887845039e-05</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>5.779101047664881e-05</v>
+        <v>5.716702435165644e-05</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>5.575001705437899e-05</v>
+        <v>5.866697756573558e-05</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>5.516695091500878e-05</v>
+        <v>5.841703386977315e-05</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>5.512498319149017e-05</v>
+        <v>5.783297820016742e-05</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>6.108300294727087e-05</v>
+        <v>5.404202966019511e-05</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>5.758297629654408e-05</v>
+        <v>4.762504249811172e-05</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>5.712499842047691e-05</v>
+        <v>5.63750509172678e-05</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>5.558296106755733e-05</v>
+        <v>5.983305163681507e-05</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>5.441700341179967e-05</v>
+        <v>6.099999882280827e-05</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>5.466595757752657e-05</v>
+        <v>5.983299342915416e-05</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>5.720800254493952e-05</v>
+        <v>6.162503268569708e-05</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>5.716603482142091e-05</v>
+        <v>6.091600516811013e-05</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>5.683297058567405e-05</v>
+        <v>5.758303450420499e-05</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>5.616695852950215e-05</v>
+        <v>5.833304021507502e-05</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>5.808298010379076e-05</v>
+        <v>5.774997407570481e-05</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>5.650002276524901e-05</v>
+        <v>5.87500398978591e-05</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>7.466698298230767e-05</v>
+        <v>6.1166996601969e-05</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>5.570898065343499e-05</v>
+        <v>5.845801206305623e-05</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>5.929201142862439e-05</v>
+        <v>5.725002847611904e-05</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>5.970802158117294e-05</v>
+        <v>6.233295425772667e-05</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>5.637499270960689e-05</v>
+        <v>5.808303831145167e-05</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>5.670799873769283e-05</v>
+        <v>6.337498780339956e-05</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>6.129196844995022e-05</v>
+        <v>5.991599755361676e-05</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>5.99170452915132e-05</v>
+        <v>5.770899588242173e-05</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>5.70000265724957e-05</v>
+        <v>5.987501936033368e-05</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>5.70000265724957e-05</v>
+        <v>5.829200381413102e-05</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>5.716597661375999e-05</v>
+        <v>5.908298771828413e-05</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>5.825003609061241e-05</v>
+        <v>6.35830219835043e-05</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>5.912495544180274e-05</v>
+        <v>6.195798050612211e-05</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>5.658302688971162e-05</v>
+        <v>5.962501745671034e-05</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>5.991698708385229e-05</v>
+        <v>5.904101999476552e-05</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>4.99580055475235e-05</v>
+        <v>5.924998549744487e-05</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>4.625000292435288e-05</v>
+        <v>5.800003418698907e-05</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>4.687497857958078e-05</v>
+        <v>5.933304782956839e-05</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>4.837499000132084e-05</v>
+        <v>6.312498589977622e-05</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>4.870898555964231e-05</v>
+        <v>5.141599103808403e-05</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>5.429197335615754e-05</v>
+        <v>5.275005241855979e-05</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>4.716700641438365e-05</v>
+        <v>4.862499190494418e-05</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>6.437499541789293e-05</v>
+        <v>4.908302798867226e-05</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>5.954201333224773e-05</v>
+        <v>5.679199239239097e-05</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>5.537498509511352e-05</v>
+        <v>5.562498699873686e-05</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>5.866697756573558e-05</v>
+        <v>6.19160127826035e-05</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>5.829200381413102e-05</v>
+        <v>5.133304512128234e-05</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>5.779200000688434e-05</v>
+        <v>6.425002356991172e-05</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>5.683297058567405e-05</v>
+        <v>6.333302007988095e-05</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>5.929201142862439e-05</v>
+        <v>6.129097891971469e-05</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>5.724997026845813e-05</v>
+        <v>6.412499351426959e-05</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>6.229197606444359e-05</v>
+        <v>6.083300104364753e-05</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>4.541600355878472e-05</v>
+        <v>5.862500984221697e-05</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>5.770899588242173e-05</v>
+        <v>6.016698898747563e-05</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>6.091699469834566e-05</v>
+        <v>5.895801587030292e-05</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>5.9375015553087e-05</v>
+        <v>5.258398596197367e-05</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>5.837500793859363e-05</v>
+        <v>6.412499351426959e-05</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>5.908304592594504e-05</v>
+        <v>6.391701754182577e-05</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>5.887501174584031e-05</v>
+        <v>6.383296567946672e-05</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>5.979201523587108e-05</v>
+        <v>6.037496495991945e-05</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>6.216700421646237e-05</v>
+        <v>6.037502316758037e-05</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>6.045802729204297e-05</v>
+        <v>6.012496305629611e-05</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>5.891697946935892e-05</v>
+        <v>6.204203236848116e-05</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>5.76250022277236e-05</v>
+        <v>5.970796337351203e-05</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>5.966698518022895e-05</v>
+        <v>5.845801206305623e-05</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>6.033398676663637e-05</v>
+        <v>5.949998740106821e-05</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>5.974998930469155e-05</v>
+        <v>5.51670091226697e-05</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>5.83329820074141e-05</v>
+        <v>6.170797860249877e-05</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>6.012502126395702e-05</v>
+        <v>6.020802538841963e-05</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>5.920801777392626e-05</v>
+        <v>6.541702896356583e-05</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>5.887501174584031e-05</v>
+        <v>6.383302388712764e-05</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>5.958299152553082e-05</v>
+        <v>6.35419855825603e-05</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>6.020796718075871e-05</v>
+        <v>6.158300675451756e-05</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>5.966599564999342e-05</v>
+        <v>6.245903205126524e-05</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>6.016704719513655e-05</v>
+        <v>6.016698898747563e-05</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>6.29170099273324e-05</v>
+        <v>6.22920342721045e-05</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>5.87500398978591e-05</v>
+        <v>6.150000263005495e-05</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>6.049999501556158e-05</v>
+        <v>6.1208033002913e-05</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>6.383302388712764e-05</v>
+        <v>6.720802048221231e-05</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>6.166700040921569e-05</v>
+        <v>6.458297139033675e-05</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>5.958398105576634e-05</v>
+        <v>6.458302959799767e-05</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>5.954201333224773e-05</v>
+        <v>6.720796227455139e-05</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>6.108300294727087e-05</v>
+        <v>6.462499732151628e-05</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>5.891703767701983e-05</v>
+        <v>6.708299042657018e-05</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>6.129202665761113e-05</v>
+        <v>6.716698408126831e-05</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>6.441702134907246e-05</v>
+        <v>6.491702515631914e-05</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>5.941599374637008e-05</v>
+        <v>6.562500493600965e-05</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>6.037496495991945e-05</v>
+        <v>6.566697265952826e-05</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>6.28340058028698e-05</v>
+        <v>6.841699359938502e-05</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>6.016698898747563e-05</v>
+        <v>6.270798621699214e-05</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>6.191700231283903e-05</v>
+        <v>6.325001595541835e-05</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>6.195798050612211e-05</v>
+        <v>6.195803871378303e-05</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>6.066600326448679e-05</v>
+        <v>6.741599645465612e-05</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>6.362498970702291e-05</v>
+        <v>6.304198177531362e-05</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>6.212497828528285e-05</v>
+        <v>6.78329961374402e-05</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>6.095803109928966e-05</v>
+        <v>6.099999882280827e-05</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>5.974998930469155e-05</v>
+        <v>6.320799002423882e-05</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>6.166700040921569e-05</v>
+        <v>6.954203126952052e-05</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>6.508303340524435e-05</v>
+        <v>6.416701944544911e-05</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>6.362498970702291e-05</v>
+        <v>6.400002166628838e-05</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>6.491702515631914e-05</v>
+        <v>6.233301246538758e-05</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>6.408302579075098e-05</v>
+        <v>6.895797559991479e-05</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>6.379198748618364e-05</v>
+        <v>6.287498399615288e-05</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>6.125000072643161e-05</v>
+        <v>6.900000153109431e-05</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>7.874995935708284e-05</v>
+        <v>6.449996726587415e-05</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>6.587500683963299e-05</v>
+        <v>6.562500493600965e-05</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>6.658298661932349e-05</v>
+        <v>7.004197686910629e-05</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>6.391695933416486e-05</v>
+        <v>7.079198257997632e-05</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>6.191700231283903e-05</v>
+        <v>6.379099795594811e-05</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>6.199994822964072e-05</v>
+        <v>6.979197496548295e-05</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>6.470800144597888e-05</v>
+        <v>6.391701754182577e-05</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>5.504098953679204e-05</v>
+        <v>6.741698598489165e-05</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>5.666696233674884e-05</v>
+        <v>6.683403626084328e-05</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>5.195901030674577e-05</v>
+        <v>5.991599755361676e-05</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>6.266700802370906e-05</v>
+        <v>5.583296297118068e-05</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>6.00829953327775e-05</v>
+        <v>6.154197035357356e-05</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>5.266600055620074e-05</v>
+        <v>5.991698708385229e-05</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>7.095799082890153e-05</v>
+        <v>5.608401261270046e-05</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>6.308301817625761e-05</v>
+        <v>6.474996916949749e-05</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>5.849997978657484e-05</v>
+        <v>6.233400199562311e-05</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>5.816604243591428e-05</v>
+        <v>6.108300294727087e-05</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>5.345902172848582e-05</v>
+        <v>6.137497257441282e-05</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>5.345902172848582e-05</v>
+        <v>6.062502507120371e-05</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>5.408399738371372e-05</v>
+        <v>5.991599755361676e-05</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>5.408300785347819e-05</v>
+        <v>6.200000643730164e-05</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>5.370803410187364e-05</v>
+        <v>6.07079709880054e-05</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>5.379202775657177e-05</v>
+        <v>6.250001024454832e-05</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>5.29579701833427e-05</v>
+        <v>6.104202475398779e-05</v>
       </c>
     </row>
     <row r="716">
@@ -6162,7 +6162,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>5.299999611452222e-05</v>
+        <v>5.583296297118068e-05</v>
       </c>
     </row>
     <row r="717">
@@ -6170,7 +6170,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>5.416700150817633e-05</v>
+        <v>6.133300485089421e-05</v>
       </c>
     </row>
     <row r="718">
@@ -6178,7 +6178,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>5.879200762137771e-05</v>
+        <v>6.074999691918492e-05</v>
       </c>
     </row>
     <row r="719">
@@ -6186,7 +6186,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>6.612500874325633e-05</v>
+        <v>6.145803490653634e-05</v>
       </c>
     </row>
     <row r="720">
@@ -6194,7 +6194,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>6.53750030323863e-05</v>
+        <v>6.120797479525208e-05</v>
       </c>
     </row>
     <row r="721">
@@ -6202,7 +6202,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>6.683304673060775e-05</v>
+        <v>6.791600026190281e-05</v>
       </c>
     </row>
     <row r="722">
@@ -6210,7 +6210,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>6.933399708941579e-05</v>
+        <v>6.241700612008572e-05</v>
       </c>
     </row>
     <row r="723">
@@ -6218,7 +6218,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>7.162499241530895e-05</v>
+        <v>6.133300485089421e-05</v>
       </c>
     </row>
     <row r="724">
@@ -6226,7 +6226,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>6.095797289162874e-05</v>
+        <v>7.216597441583872e-05</v>
       </c>
     </row>
     <row r="725">
@@ -6234,7 +6234,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>6.583298090845346e-05</v>
+        <v>6.283394759520888e-05</v>
       </c>
     </row>
     <row r="726">
@@ -6242,7 +6242,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>6.445799954235554e-05</v>
+        <v>6.391602801159024e-05</v>
       </c>
     </row>
     <row r="727">
@@ -6250,7 +6250,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>6.47500273771584e-05</v>
+        <v>7.149996235966682e-05</v>
       </c>
     </row>
     <row r="728">
@@ -6258,7 +6258,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>6.337498780339956e-05</v>
+        <v>6.704096449539065e-05</v>
       </c>
     </row>
     <row r="729">
@@ -6266,7 +6266,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>7.004197686910629e-05</v>
+        <v>7.254199590533972e-05</v>
       </c>
     </row>
     <row r="730">
@@ -6274,7 +6274,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>6.412499351426959e-05</v>
+        <v>7.220800034701824e-05</v>
       </c>
     </row>
     <row r="731">
@@ -6282,7 +6282,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>6.954203126952052e-05</v>
+        <v>7.262500002980232e-05</v>
       </c>
     </row>
     <row r="732">
@@ -6290,7 +6290,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>6.42499653622508e-05</v>
+        <v>6.925000343471766e-05</v>
       </c>
     </row>
     <row r="733">
@@ -6298,7 +6298,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>6.841699359938502e-05</v>
+        <v>7.337500574067235e-05</v>
       </c>
     </row>
     <row r="734">
@@ -6306,7 +6306,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>6.824999582022429e-05</v>
+        <v>6.591703277081251e-05</v>
       </c>
     </row>
     <row r="735">
@@ -6314,7 +6314,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>7.029197877272964e-05</v>
+        <v>7.079198257997632e-05</v>
       </c>
     </row>
     <row r="736">
@@ -6322,7 +6322,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>7.1333022788167e-05</v>
+        <v>7.095799082890153e-05</v>
       </c>
     </row>
     <row r="737">
@@ -6330,7 +6330,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>6.991601549088955e-05</v>
+        <v>7.341703167185187e-05</v>
       </c>
     </row>
     <row r="738">
@@ -6338,7 +6338,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>7.108302088454366e-05</v>
+        <v>7.320800796151161e-05</v>
       </c>
     </row>
     <row r="739">
@@ -6346,7 +6346,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>6.845803000032902e-05</v>
+        <v>7.300003198906779e-05</v>
       </c>
     </row>
     <row r="740">
@@ -6354,7 +6354,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>8.829100988805294e-05</v>
+        <v>7.300003198906779e-05</v>
       </c>
     </row>
     <row r="741">
@@ -6362,7 +6362,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>7.116596680134535e-05</v>
+        <v>7.379200542345643e-05</v>
       </c>
     </row>
     <row r="742">
@@ -6370,7 +6370,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>6.579200271517038e-05</v>
+        <v>6.704195402562618e-05</v>
       </c>
     </row>
     <row r="743">
@@ -6378,7 +6378,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>6.695801857858896e-05</v>
+        <v>7.387500954791903e-05</v>
       </c>
     </row>
     <row r="744">
@@ -6386,7 +6386,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>7.90000194683671e-05</v>
+        <v>7.412495324388146e-05</v>
       </c>
     </row>
     <row r="745">
@@ -6394,7 +6394,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>7.158395601436496e-05</v>
+        <v>7.420900510624051e-05</v>
       </c>
     </row>
     <row r="746">
@@ -6402,7 +6402,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>7.191597251221538e-05</v>
+        <v>7.862498750910163e-05</v>
       </c>
     </row>
     <row r="747">
@@ -6410,7 +6410,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>8.045905269682407e-05</v>
+        <v>7.491698488593102e-05</v>
       </c>
     </row>
     <row r="748">
@@ -6418,7 +6418,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>7.162499241530895e-05</v>
+        <v>6.983301136642694e-05</v>
       </c>
     </row>
     <row r="749">
@@ -6426,7 +6426,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>8.654198609292507e-05</v>
+        <v>7.47920130379498e-05</v>
       </c>
     </row>
     <row r="750">
@@ -6434,7 +6434,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>7.208302849903703e-05</v>
+        <v>6.845803000032902e-05</v>
       </c>
     </row>
     <row r="751">
@@ -6442,7 +6442,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>7.245800225064158e-05</v>
+        <v>7.391697727143764e-05</v>
       </c>
     </row>
     <row r="752">
@@ -6450,7 +6450,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>7.187499431893229e-05</v>
+        <v>6.933300755918026e-05</v>
       </c>
     </row>
     <row r="753">
@@ -6458,7 +6458,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>7.266702596098185e-05</v>
+        <v>7.599999662488699e-05</v>
       </c>
     </row>
     <row r="754">
@@ -6466,7 +6466,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>7.224996807053685e-05</v>
+        <v>8.504203287884593e-05</v>
       </c>
     </row>
     <row r="755">
@@ -6474,7 +6474,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>9.104202035814524e-05</v>
+        <v>7.566600106656551e-05</v>
       </c>
     </row>
     <row r="756">
@@ -6482,7 +6482,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>7.245800225064158e-05</v>
+        <v>7.620797259733081e-05</v>
       </c>
     </row>
     <row r="757">
@@ -6490,7 +6490,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>7.599999662488699e-05</v>
+        <v>7.558299694210291e-05</v>
       </c>
     </row>
     <row r="758">
@@ -6498,7 +6498,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>6.716698408126831e-05</v>
+        <v>6.887497147545218e-05</v>
       </c>
     </row>
     <row r="759">
@@ -6506,7 +6506,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>7.262500002980232e-05</v>
+        <v>7.308297790586948e-05</v>
       </c>
     </row>
     <row r="760">
@@ -6514,7 +6514,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>7.387500954791903e-05</v>
+        <v>7.008400280028582e-05</v>
       </c>
     </row>
     <row r="761">
@@ -6522,7 +6522,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>7.395801367238164e-05</v>
+        <v>7.558299694210291e-05</v>
       </c>
     </row>
     <row r="762">
@@ -6530,7 +6530,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>7.316702976822853e-05</v>
+        <v>6.287498399615288e-05</v>
       </c>
     </row>
     <row r="763">
@@ -6538,7 +6538,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>7.408304372802377e-05</v>
+        <v>6.05420209467411e-05</v>
       </c>
     </row>
     <row r="764">
@@ -6546,7 +6546,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>6.737501826137304e-05</v>
+        <v>6.920797750353813e-05</v>
       </c>
     </row>
     <row r="765">
@@ -6554,7 +6554,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>7.337500574067235e-05</v>
+        <v>6.216601468622684e-05</v>
       </c>
     </row>
     <row r="766">
@@ -6562,7 +6562,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>7.479102350771427e-05</v>
+        <v>7.220898987725377e-05</v>
       </c>
     </row>
     <row r="767">
@@ -6570,7 +6570,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>7.412501145154238e-05</v>
+        <v>6.49159774184227e-05</v>
       </c>
     </row>
     <row r="768">
@@ -6578,7 +6578,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>6.71250163577497e-05</v>
+        <v>6.579200271517038e-05</v>
       </c>
     </row>
     <row r="769">
@@ -6586,7 +6586,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>6.087496876716614e-05</v>
+        <v>6.158300675451756e-05</v>
       </c>
     </row>
     <row r="770">
@@ -6594,7 +6594,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>5.887501174584031e-05</v>
+        <v>6.099999882280827e-05</v>
       </c>
     </row>
     <row r="771">
@@ -6602,7 +6602,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>5.791703006252646e-05</v>
+        <v>6.612495053559542e-05</v>
       </c>
     </row>
     <row r="772">
@@ -6610,7 +6610,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>7.300003198906779e-05</v>
+        <v>6.687501445412636e-05</v>
       </c>
     </row>
     <row r="773">
@@ -6618,7 +6618,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>6.254197796806693e-05</v>
+        <v>6.7666987888515e-05</v>
       </c>
     </row>
     <row r="774">
@@ -6626,7 +6626,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>6.058299914002419e-05</v>
+        <v>6.654200842604041e-05</v>
       </c>
     </row>
     <row r="775">
@@ -6634,7 +6634,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>6.062502507120371e-05</v>
+        <v>6.804103031754494e-05</v>
       </c>
     </row>
     <row r="776">
@@ -6642,7 +6642,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>6.258295616135001e-05</v>
+        <v>6.212497828528285e-05</v>
       </c>
     </row>
     <row r="777">
@@ -6650,7 +6650,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>7.229199400171638e-05</v>
+        <v>6.187497638165951e-05</v>
       </c>
     </row>
     <row r="778">
@@ -6658,7 +6658,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>7.587496656924486e-05</v>
+        <v>6.658298661932349e-05</v>
       </c>
     </row>
     <row r="779">
@@ -6666,7 +6666,7 @@
         <v>777</v>
       </c>
       <c r="B779" t="n">
-        <v>7.66250304877758e-05</v>
+        <v>6.687501445412636e-05</v>
       </c>
     </row>
     <row r="780">
@@ -6674,7 +6674,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>7.645902223885059e-05</v>
+        <v>6.787502206861973e-05</v>
       </c>
     </row>
     <row r="781">
@@ -6682,7 +6682,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>7.650000043213367e-05</v>
+        <v>6.887497147545218e-05</v>
       </c>
     </row>
     <row r="782">
@@ -6690,7 +6690,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>6.933300755918026e-05</v>
+        <v>6.71250163577497e-05</v>
       </c>
     </row>
     <row r="783">
@@ -6698,7 +6698,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>6.245897384360433e-05</v>
+        <v>6.266601849347353e-05</v>
       </c>
     </row>
     <row r="784">
@@ -6706,7 +6706,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>7.466599345207214e-05</v>
+        <v>7.179100066423416e-05</v>
       </c>
     </row>
     <row r="785">
@@ -6714,7 +6714,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>7.629202445968986e-05</v>
+        <v>6.77499920129776e-05</v>
       </c>
     </row>
     <row r="786">
@@ -6722,7 +6722,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>6.908300565555692e-05</v>
+        <v>6.712495815008879e-05</v>
       </c>
     </row>
     <row r="787">
@@ -6730,7 +6730,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>7.450004341080785e-05</v>
+        <v>6.670801667496562e-05</v>
       </c>
     </row>
     <row r="788">
@@ -6738,7 +6738,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>7.699994603171945e-05</v>
+        <v>6.629200652241707e-05</v>
       </c>
     </row>
     <row r="789">
@@ -6746,7 +6746,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>6.987503729760647e-05</v>
+        <v>6.770895561203361e-05</v>
       </c>
     </row>
     <row r="790">
@@ -6754,7 +6754,7 @@
         <v>788</v>
       </c>
       <c r="B790" t="n">
-        <v>7.558299694210291e-05</v>
+        <v>6.695796037092805e-05</v>
       </c>
     </row>
     <row r="791">
@@ -6762,7 +6762,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>7.733399979770184e-05</v>
+        <v>6.891699740663171e-05</v>
       </c>
     </row>
     <row r="792">
@@ -6770,7 +6770,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>7.750000804662704e-05</v>
+        <v>6.587500683963299e-05</v>
       </c>
     </row>
     <row r="793">
@@ -6778,7 +6778,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>7.733301026746631e-05</v>
+        <v>6.395805394276977e-05</v>
       </c>
     </row>
     <row r="794">
@@ -6786,7 +6786,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>7.71670020185411e-05</v>
+        <v>6.300001405179501e-05</v>
       </c>
     </row>
     <row r="795">
@@ -6794,7 +6794,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>7.53339845687151e-05</v>
+        <v>6.341602420434356e-05</v>
       </c>
     </row>
     <row r="796">
@@ -6802,7 +6802,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>7.066695252433419e-05</v>
+        <v>6.262498209252954e-05</v>
       </c>
     </row>
     <row r="797">
@@ -6810,7 +6810,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>7.72500061430037e-05</v>
+        <v>6.304099224507809e-05</v>
       </c>
     </row>
     <row r="798">
@@ -6818,7 +6818,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>7.025001104921103e-05</v>
+        <v>6.387499161064625e-05</v>
       </c>
     </row>
     <row r="799">
@@ -6826,7 +6826,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>7.47920130379498e-05</v>
+        <v>6.416701944544911e-05</v>
       </c>
     </row>
     <row r="800">
@@ -6834,7 +6834,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>7.737497799098492e-05</v>
+        <v>6.287498399615288e-05</v>
       </c>
     </row>
     <row r="801">
@@ -6842,7 +6842,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="n">
-        <v>7.895799353718758e-05</v>
+        <v>7.083395030349493e-05</v>
       </c>
     </row>
     <row r="802">
@@ -6850,7 +6850,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>7.008301327005029e-05</v>
+        <v>6.445799954235554e-05</v>
       </c>
     </row>
     <row r="803">
@@ -6858,7 +6858,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>7.799995364621282e-05</v>
+        <v>6.816600216552615e-05</v>
       </c>
     </row>
     <row r="804">
@@ -6866,7 +6866,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>7.833301788195968e-05</v>
+        <v>6.35419855825603e-05</v>
       </c>
     </row>
     <row r="805">
@@ -6874,7 +6874,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>7.845798972994089e-05</v>
+        <v>6.391596980392933e-05</v>
       </c>
     </row>
     <row r="806">
@@ -6882,7 +6882,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>7.787504000589252e-05</v>
+        <v>6.379099795594811e-05</v>
       </c>
     </row>
     <row r="807">
@@ -6890,7 +6890,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>7.008400280028582e-05</v>
+        <v>6.762502016499639e-05</v>
       </c>
     </row>
     <row r="808">
@@ -6898,7 +6898,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>7.904099766165018e-05</v>
+        <v>7.312500383704901e-05</v>
       </c>
     </row>
     <row r="809">
@@ -6906,7 +6906,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>7.83750438131392e-05</v>
+        <v>8.174998220056295e-05</v>
       </c>
     </row>
     <row r="810">
@@ -6914,7 +6914,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>7.82920396886766e-05</v>
+        <v>8.187501225620508e-05</v>
       </c>
     </row>
     <row r="811">
@@ -6922,7 +6922,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>7.850001566112041e-05</v>
+        <v>7.966696284711361e-05</v>
       </c>
     </row>
     <row r="812">
@@ -6930,7 +6930,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>7.895799353718758e-05</v>
+        <v>8.216704009100795e-05</v>
       </c>
     </row>
     <row r="813">
@@ -6938,7 +6938,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>7.912499131634831e-05</v>
+        <v>7.645797450095415e-05</v>
       </c>
     </row>
     <row r="814">
@@ -6946,7 +6946,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>7.183401612564921e-05</v>
+        <v>8.079101098701358e-05</v>
       </c>
     </row>
     <row r="815">
@@ -6954,7 +6954,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>7.520802319049835e-05</v>
+        <v>7.466599345207214e-05</v>
       </c>
     </row>
     <row r="816">
@@ -6962,7 +6962,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>7.841701153665781e-05</v>
+        <v>7.400003960356116e-05</v>
       </c>
     </row>
     <row r="817">
@@ -6970,7 +6970,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>7.858301978558302e-05</v>
+        <v>7.004098733887076e-05</v>
       </c>
     </row>
     <row r="818">
@@ -6978,7 +6978,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>7.987499702721834e-05</v>
+        <v>7.02079851180315e-05</v>
       </c>
     </row>
     <row r="819">
@@ -6986,7 +6986,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>7.995800115168095e-05</v>
+        <v>7.12500186637044e-05</v>
       </c>
     </row>
     <row r="820">
@@ -6994,7 +6994,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>8.016696665436029e-05</v>
+        <v>9.116699220612645e-05</v>
       </c>
     </row>
     <row r="821">
@@ -7002,7 +7002,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>7.200002437457442e-05</v>
+        <v>8.283398346975446e-05</v>
       </c>
     </row>
     <row r="822">
@@ -7010,7 +7010,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>8.125003660097718e-05</v>
+        <v>8.337502367794514e-05</v>
       </c>
     </row>
     <row r="823">
@@ -7018,7 +7018,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>7.195898797363043e-05</v>
+        <v>9.287503780797124e-05</v>
       </c>
     </row>
     <row r="824">
@@ -7026,7 +7026,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>7.29589955881238e-05</v>
+        <v>8.479197276756167e-05</v>
       </c>
     </row>
     <row r="825">
@@ -7034,7 +7034,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>7.995800115168095e-05</v>
+        <v>7.450004341080785e-05</v>
       </c>
     </row>
     <row r="826">
@@ -7042,7 +7042,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>7.899996126070619e-05</v>
+        <v>7.879198528826237e-05</v>
       </c>
     </row>
     <row r="827">
@@ -7050,7 +7050,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>8.029100717976689e-05</v>
+        <v>7.454102160409093e-05</v>
       </c>
     </row>
     <row r="828">
@@ -7058,7 +7058,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>7.933302549645305e-05</v>
+        <v>8.504203287884593e-05</v>
       </c>
     </row>
     <row r="829">
@@ -7066,7 +7066,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>8.016603533178568e-05</v>
+        <v>7.504201494157314e-05</v>
       </c>
     </row>
     <row r="830">
@@ -7074,7 +7074,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>8.029199671000242e-05</v>
+        <v>7.775000995025039e-05</v>
       </c>
     </row>
     <row r="831">
@@ -7082,7 +7082,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>7.933296728879213e-05</v>
+        <v>8.166598854586482e-05</v>
       </c>
     </row>
     <row r="832">
@@ -7090,7 +7090,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>7.616699440404773e-05</v>
+        <v>8.104200242087245e-05</v>
       </c>
     </row>
     <row r="833">
@@ -7098,7 +7098,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>6.841600406914949e-05</v>
+        <v>8.212495595216751e-05</v>
       </c>
     </row>
     <row r="834">
@@ -7106,7 +7106,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>6.358296377584338e-05</v>
+        <v>7.775000995025039e-05</v>
       </c>
     </row>
     <row r="835">
@@ -7114,7 +7114,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>7.579202065244317e-05</v>
+        <v>7.05840066075325e-05</v>
       </c>
     </row>
     <row r="836">
@@ -7122,7 +7122,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>7.199996616691351e-05</v>
+        <v>6.645900430157781e-05</v>
       </c>
     </row>
     <row r="837">
@@ -7130,7 +7130,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>7.662497228011489e-05</v>
+        <v>7.275003008544445e-05</v>
       </c>
     </row>
     <row r="838">
@@ -7138,7 +7138,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>8.245796198025346e-05</v>
+        <v>7.312500383704901e-05</v>
       </c>
     </row>
     <row r="839">
@@ -7146,7 +7146,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>7.404200732707977e-05</v>
+        <v>6.762502016499639e-05</v>
       </c>
     </row>
     <row r="840">
@@ -7154,7 +7154,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>7.533299503847957e-05</v>
+        <v>7.037498289719224e-05</v>
       </c>
     </row>
     <row r="841">
@@ -7162,7 +7162,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>7.412501145154238e-05</v>
+        <v>7.304101018235087e-05</v>
       </c>
     </row>
     <row r="842">
@@ -7170,7 +7170,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>7.387495134025812e-05</v>
+        <v>8.050003089010715e-05</v>
       </c>
     </row>
     <row r="843">
@@ -7178,7 +7178,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>7.658300455659628e-05</v>
+        <v>8.395803160965443e-05</v>
       </c>
     </row>
     <row r="844">
@@ -7186,7 +7186,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>8.087500464171171e-05</v>
+        <v>8.279201574623585e-05</v>
       </c>
     </row>
     <row r="845">
@@ -7194,7 +7194,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>6.620900239795446e-05</v>
+        <v>8.375005563721061e-05</v>
       </c>
     </row>
     <row r="846">
@@ -7202,7 +7202,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>7.595802890136838e-05</v>
+        <v>7.520802319049835e-05</v>
       </c>
     </row>
     <row r="847">
@@ -7210,7 +7210,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>8.229096420109272e-05</v>
+        <v>7.662497228011489e-05</v>
       </c>
     </row>
     <row r="848">
@@ -7218,7 +7218,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>7.391703547909856e-05</v>
+        <v>7.066701073199511e-05</v>
       </c>
     </row>
     <row r="849">
@@ -7226,7 +7226,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>7.424998329952359e-05</v>
+        <v>8.374999742954969e-05</v>
       </c>
     </row>
     <row r="850">
@@ -7234,7 +7234,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>7.712497608736157e-05</v>
+        <v>8.333299774676561e-05</v>
       </c>
     </row>
     <row r="851">
@@ -7242,7 +7242,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>7.420900510624051e-05</v>
+        <v>8.637498831376433e-05</v>
       </c>
     </row>
     <row r="852">
@@ -7250,7 +7250,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>7.466698298230767e-05</v>
+        <v>8.395797340199351e-05</v>
       </c>
     </row>
     <row r="853">
@@ -7258,7 +7258,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>7.812498370185494e-05</v>
+        <v>8.26249597594142e-05</v>
       </c>
     </row>
     <row r="854">
@@ -7266,7 +7266,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>8.249998791143298e-05</v>
+        <v>7.562502287328243e-05</v>
       </c>
     </row>
     <row r="855">
@@ -7274,7 +7274,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>8.204201003536582e-05</v>
+        <v>7.966702105477452e-05</v>
       </c>
     </row>
     <row r="856">
@@ -7282,7 +7282,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>7.349997758865356e-05</v>
+        <v>7.620902033522725e-05</v>
       </c>
     </row>
     <row r="857">
@@ -7290,7 +7290,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>7.508299313485622e-05</v>
+        <v>7.962505333125591e-05</v>
       </c>
     </row>
     <row r="858">
@@ -7298,7 +7298,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>7.54999928176403e-05</v>
+        <v>7.629202445968986e-05</v>
       </c>
     </row>
     <row r="859">
@@ -7306,7 +7306,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>7.858296157792211e-05</v>
+        <v>8.087500464171171e-05</v>
       </c>
     </row>
     <row r="860">
@@ -7314,7 +7314,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>8.166703628376126e-05</v>
+        <v>8.570798672735691e-05</v>
       </c>
     </row>
     <row r="861">
@@ -7322,7 +7322,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>7.429200923070312e-05</v>
+        <v>7.783301407471299e-05</v>
       </c>
     </row>
     <row r="862">
@@ -7330,7 +7330,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>8.349999552592635e-05</v>
+        <v>7.820798782631755e-05</v>
       </c>
     </row>
     <row r="863">
@@ -7338,7 +7338,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>8.304102811962366e-05</v>
+        <v>7.679103873670101e-05</v>
       </c>
     </row>
     <row r="864">
@@ -7346,7 +7346,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>8.141598664224148e-05</v>
+        <v>7.78749817982316e-05</v>
       </c>
     </row>
     <row r="865">
@@ -7354,7 +7354,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>8.233397966250777e-05</v>
+        <v>7.758400170132518e-05</v>
       </c>
     </row>
     <row r="866">
@@ -7362,7 +7362,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>8.237501606345177e-05</v>
+        <v>8.516601519659162e-05</v>
       </c>
     </row>
     <row r="867">
@@ -7370,7 +7370,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>7.529201684519649e-05</v>
+        <v>8.533400250598788e-05</v>
       </c>
     </row>
     <row r="868">
@@ -7378,7 +7378,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>7.458298932760954e-05</v>
+        <v>8.625001646578312e-05</v>
       </c>
     </row>
     <row r="869">
@@ -7386,7 +7386,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>7.537502096965909e-05</v>
+        <v>8.520798292011023e-05</v>
       </c>
     </row>
     <row r="870">
@@ -7402,7 +7402,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>8.312502177432179e-05</v>
+        <v>8.466601138934493e-05</v>
       </c>
     </row>
     <row r="872">
@@ -7410,7 +7410,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="n">
-        <v>7.570802699774504e-05</v>
+        <v>8.470797911286354e-05</v>
       </c>
     </row>
     <row r="873">
@@ -7418,7 +7418,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>8.408405119553208e-05</v>
+        <v>8.829100988805294e-05</v>
       </c>
     </row>
     <row r="874">
@@ -7426,7 +7426,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>8.312502177432179e-05</v>
+        <v>7.841701153665781e-05</v>
       </c>
     </row>
     <row r="875">
@@ -7434,7 +7434,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>8.437497308477759e-05</v>
+        <v>7.72500061430037e-05</v>
       </c>
     </row>
     <row r="876">
@@ -7442,7 +7442,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>8.487497689202428e-05</v>
+        <v>7.987499702721834e-05</v>
       </c>
     </row>
     <row r="877">
@@ -7450,7 +7450,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="n">
-        <v>8.441699901595712e-05</v>
+        <v>8.650001836940646e-05</v>
       </c>
     </row>
     <row r="878">
@@ -7458,7 +7458,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>8.241698378697038e-05</v>
+        <v>7.783295586705208e-05</v>
       </c>
     </row>
     <row r="879">
@@ -7466,7 +7466,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>8.283398346975446e-05</v>
+        <v>8.866703137755394e-05</v>
       </c>
     </row>
     <row r="880">
@@ -7474,7 +7474,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>8.337502367794514e-05</v>
+        <v>8.595798863098025e-05</v>
       </c>
     </row>
     <row r="881">
@@ -7482,7 +7482,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>8.337496547028422e-05</v>
+        <v>7.999996887519956e-05</v>
       </c>
     </row>
     <row r="882">
@@ -7490,7 +7490,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>8.349999552592635e-05</v>
+        <v>8.645799243822694e-05</v>
       </c>
     </row>
     <row r="883">
@@ -7498,7 +7498,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>8.641701424494386e-05</v>
+        <v>8.770800195634365e-05</v>
       </c>
     </row>
     <row r="884">
@@ -7506,7 +7506,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>8.508400060236454e-05</v>
+        <v>8.733401773497462e-05</v>
       </c>
     </row>
     <row r="885">
@@ -7514,7 +7514,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>8.445803541690111e-05</v>
+        <v>8.591701043769717e-05</v>
       </c>
     </row>
     <row r="886">
@@ -7522,7 +7522,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>7.670803461223841e-05</v>
+        <v>8.56660190038383e-05</v>
       </c>
     </row>
     <row r="887">
@@ -7530,7 +7530,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>7.729197386652231e-05</v>
+        <v>8.73749959282577e-05</v>
       </c>
     </row>
     <row r="888">
@@ -7538,7 +7538,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="n">
-        <v>7.708300836384296e-05</v>
+        <v>8.620898006483912e-05</v>
       </c>
     </row>
     <row r="889">
@@ -7546,7 +7546,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>8.712499402463436e-05</v>
+        <v>8.933397475630045e-05</v>
       </c>
     </row>
     <row r="890">
@@ -7554,7 +7554,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>7.683300646021962e-05</v>
+        <v>8.741702185943723e-05</v>
       </c>
     </row>
     <row r="891">
@@ -7562,7 +7562,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>7.729203207418323e-05</v>
+        <v>8.695805445313454e-05</v>
       </c>
     </row>
     <row r="892">
@@ -7570,7 +7570,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>8.566596079617739e-05</v>
+        <v>8.62909946590662e-05</v>
       </c>
     </row>
     <row r="893">
@@ -7578,7 +7578,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>7.554201874881983e-05</v>
+        <v>7.804203778505325e-05</v>
       </c>
     </row>
     <row r="894">
@@ -7586,7 +7586,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>6.820802809670568e-05</v>
+        <v>7.158296648412943e-05</v>
       </c>
     </row>
     <row r="895">
@@ -7594,7 +7594,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="n">
-        <v>7.929198909550905e-05</v>
+        <v>8.012499893084168e-05</v>
       </c>
     </row>
     <row r="896">
@@ -7602,7 +7602,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>6.920797750353813e-05</v>
+        <v>7.029197877272964e-05</v>
       </c>
     </row>
     <row r="897">
@@ -7610,7 +7610,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>7.650000043213367e-05</v>
+        <v>7.608399027958512e-05</v>
       </c>
     </row>
     <row r="898">
@@ -7618,7 +7618,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>7.579202065244317e-05</v>
+        <v>7.383397314697504e-05</v>
       </c>
     </row>
     <row r="899">
@@ -7626,7 +7626,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="n">
-        <v>8.712499402463436e-05</v>
+        <v>8.387496927753091e-05</v>
       </c>
     </row>
     <row r="900">
@@ -7634,7 +7634,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="n">
-        <v>7.820798782631755e-05</v>
+        <v>8.766696555539966e-05</v>
       </c>
     </row>
     <row r="901">
@@ -7642,7 +7642,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>7.412501145154238e-05</v>
+        <v>8.374999742954969e-05</v>
       </c>
     </row>
     <row r="902">
@@ -7650,7 +7650,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>8.27079638838768e-05</v>
+        <v>8.225004421547055e-05</v>
       </c>
     </row>
     <row r="903">
@@ -7658,7 +7658,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>8.525000885128975e-05</v>
+        <v>8.699996396899223e-05</v>
       </c>
     </row>
     <row r="904">
@@ -7666,7 +7666,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>8.516601519659162e-05</v>
+        <v>8.420797530561686e-05</v>
       </c>
     </row>
     <row r="905">
@@ -7674,7 +7674,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>7.187499431893229e-05</v>
+        <v>7.470796117559075e-05</v>
       </c>
     </row>
     <row r="906">
@@ -7682,7 +7682,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>8.812500163912773e-05</v>
+        <v>8.583301678299904e-05</v>
       </c>
     </row>
     <row r="907">
@@ -7690,7 +7690,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>7.90000194683671e-05</v>
+        <v>7.958401693031192e-05</v>
       </c>
     </row>
     <row r="908">
@@ -7698,7 +7698,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>8.791702566668391e-05</v>
+        <v>7.908401312306523e-05</v>
       </c>
     </row>
     <row r="909">
@@ -7706,7 +7706,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>6.975000724196434e-05</v>
+        <v>8.695799624547362e-05</v>
       </c>
     </row>
     <row r="910">
@@ -7714,7 +7714,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>7.495802128687501e-05</v>
+        <v>8.016696665436029e-05</v>
       </c>
     </row>
     <row r="911">
@@ -7722,7 +7722,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>7.587496656924486e-05</v>
+        <v>8.84170294739306e-05</v>
       </c>
     </row>
     <row r="912">
@@ -7730,7 +7730,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>7.945799734443426e-05</v>
+        <v>8.395896293222904e-05</v>
       </c>
     </row>
     <row r="913">
@@ -7738,7 +7738,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>7.091701263561845e-05</v>
+        <v>9.070796659216285e-05</v>
       </c>
     </row>
     <row r="914">
@@ -7746,7 +7746,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>7.045897655189037e-05</v>
+        <v>8.025002898648381e-05</v>
       </c>
     </row>
     <row r="915">
@@ -7754,7 +7754,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>7.525004912167788e-05</v>
+        <v>8.870800957083702e-05</v>
       </c>
     </row>
     <row r="916">
@@ -7762,7 +7762,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>7.241597631946206e-05</v>
+        <v>8.879101369529963e-05</v>
       </c>
     </row>
     <row r="917">
@@ -7770,7 +7770,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>8.049997268244624e-05</v>
+        <v>8.73749959282577e-05</v>
       </c>
     </row>
     <row r="918">
@@ -7778,7 +7778,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>8.595798863098025e-05</v>
+        <v>8.150003850460052e-05</v>
       </c>
     </row>
     <row r="919">
@@ -7786,7 +7786,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>8.629204239696264e-05</v>
+        <v>8.945900481194258e-05</v>
       </c>
     </row>
     <row r="920">
@@ -7794,7 +7794,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>8.587504271417856e-05</v>
+        <v>8.883298141881824e-05</v>
       </c>
     </row>
     <row r="921">
@@ -7802,7 +7802,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>8.612498641014099e-05</v>
+        <v>8.945795707404613e-05</v>
       </c>
     </row>
     <row r="922">
@@ -7810,7 +7810,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>8.67500202730298e-05</v>
+        <v>8.841598173603415e-05</v>
       </c>
     </row>
     <row r="923">
@@ -7818,7 +7818,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>8.929101750254631e-05</v>
+        <v>8.845800766721368e-05</v>
       </c>
     </row>
     <row r="924">
@@ -7826,7 +7826,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>8.645898196846247e-05</v>
+        <v>8.77920538187027e-05</v>
       </c>
     </row>
     <row r="925">
@@ -7834,7 +7834,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>8.683302439749241e-05</v>
+        <v>8.849997539073229e-05</v>
       </c>
     </row>
     <row r="926">
@@ -7842,7 +7842,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>8.633302059024572e-05</v>
+        <v>8.820800576359034e-05</v>
       </c>
     </row>
     <row r="927">
@@ -7850,7 +7850,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>8.245802018791437e-05</v>
+        <v>8.812500163912773e-05</v>
       </c>
     </row>
     <row r="928">
@@ -7858,7 +7858,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>8.762499783188105e-05</v>
+        <v>8.808303391560912e-05</v>
       </c>
     </row>
     <row r="929">
@@ -7866,7 +7866,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>8.637498831376433e-05</v>
+        <v>8.829100988805294e-05</v>
       </c>
     </row>
     <row r="930">
@@ -7874,7 +7874,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>9.879196295514703e-05</v>
+        <v>8.854200132191181e-05</v>
       </c>
     </row>
     <row r="931">
@@ -7882,7 +7882,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>8.912495104596019e-05</v>
+        <v>8.858402725309134e-05</v>
       </c>
     </row>
     <row r="932">
@@ -7890,7 +7890,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>8.779199561104178e-05</v>
+        <v>8.837500354275107e-05</v>
       </c>
     </row>
     <row r="933">
@@ -7898,7 +7898,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="n">
-        <v>9.658304043114185e-05</v>
+        <v>8.90420051291585e-05</v>
       </c>
     </row>
     <row r="934">
@@ -7906,7 +7906,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="n">
-        <v>8.633302059024572e-05</v>
+        <v>8.854200132191181e-05</v>
       </c>
     </row>
     <row r="935">
@@ -7914,7 +7914,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>8.962501306086779e-05</v>
+        <v>8.875003550201654e-05</v>
       </c>
     </row>
     <row r="936">
@@ -7922,7 +7922,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>8.841598173603415e-05</v>
+        <v>8.933403296396136e-05</v>
       </c>
     </row>
     <row r="937">
@@ -7930,7 +7930,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="n">
-        <v>8.050003089010715e-05</v>
+        <v>8.341699140146375e-05</v>
       </c>
     </row>
     <row r="938">
@@ -7938,7 +7938,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>9.866699110716581e-05</v>
+        <v>8.616701234132051e-05</v>
       </c>
     </row>
     <row r="939">
@@ -7946,7 +7946,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="n">
-        <v>8.733296999707818e-05</v>
+        <v>7.858301978558302e-05</v>
       </c>
     </row>
     <row r="940">
@@ -7954,7 +7954,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>8.679099846631289e-05</v>
+        <v>8.595798863098025e-05</v>
       </c>
     </row>
     <row r="941">
@@ -7962,7 +7962,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>8.749996777623892e-05</v>
+        <v>9.154202416539192e-05</v>
       </c>
     </row>
     <row r="942">
@@ -7970,7 +7970,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="n">
-        <v>8.862500544637442e-05</v>
+        <v>8.9749984908849e-05</v>
       </c>
     </row>
     <row r="943">
@@ -7978,7 +7978,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>0.0001046659890562296</v>
+        <v>8.9749984908849e-05</v>
       </c>
     </row>
     <row r="944">
@@ -7986,7 +7986,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>8.737505413591862e-05</v>
+        <v>9.029201464727521e-05</v>
       </c>
     </row>
     <row r="945">
@@ -7994,7 +7994,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>8.849997539073229e-05</v>
+        <v>8.304195944219828e-05</v>
       </c>
     </row>
     <row r="946">
@@ -8002,7 +8002,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>8.687505032867193e-05</v>
+        <v>8.962495485320687e-05</v>
       </c>
     </row>
     <row r="947">
@@ -8010,7 +8010,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>8.74160323292017e-05</v>
+        <v>8.900003740563989e-05</v>
       </c>
     </row>
     <row r="948">
@@ -8018,7 +8018,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>8.787499973550439e-05</v>
+        <v>9.329203749075532e-05</v>
       </c>
     </row>
     <row r="949">
@@ -8026,7 +8026,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>8.525000885128975e-05</v>
+        <v>7.383304182440042e-05</v>
       </c>
     </row>
     <row r="950">
@@ -8034,7 +8034,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="n">
-        <v>7.591699250042439e-05</v>
+        <v>8.270802209153771e-05</v>
       </c>
     </row>
     <row r="951">
@@ -8042,7 +8042,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>7.220800034701824e-05</v>
+        <v>9.083299664780498e-05</v>
       </c>
     </row>
     <row r="952">
@@ -8050,7 +8050,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>8.079200051724911e-05</v>
+        <v>9.104097262024879e-05</v>
       </c>
     </row>
     <row r="953">
@@ -8058,7 +8058,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>8.087500464171171e-05</v>
+        <v>9.179202606901526e-05</v>
       </c>
     </row>
     <row r="954">
@@ -8066,7 +8066,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="n">
-        <v>8.916703518480062e-05</v>
+        <v>8.425000123679638e-05</v>
       </c>
     </row>
     <row r="955">
@@ -8074,7 +8074,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>8.120801066979766e-05</v>
+        <v>9.045901242643595e-05</v>
       </c>
     </row>
     <row r="956">
@@ -8082,7 +8082,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>8.120801066979766e-05</v>
+        <v>9.1583002358675e-05</v>
       </c>
     </row>
     <row r="957">
@@ -8090,7 +8090,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>8.775002788752317e-05</v>
+        <v>8.987501496449113e-05</v>
       </c>
     </row>
     <row r="958">
@@ -8098,7 +8098,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>8.154194802045822e-05</v>
+        <v>9.079196024686098e-05</v>
       </c>
     </row>
     <row r="959">
@@ -8106,7 +8106,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>8.891697507351637e-05</v>
+        <v>8.07500327937305e-05</v>
       </c>
     </row>
     <row r="960">
@@ -8114,7 +8114,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>8.816603804007173e-05</v>
+        <v>8.862500544637442e-05</v>
       </c>
     </row>
     <row r="961">
@@ -8122,7 +8122,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>7.754203397780657e-05</v>
+        <v>9.066704660654068e-05</v>
       </c>
     </row>
     <row r="962">
@@ -8130,7 +8130,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>8.824997348710895e-05</v>
+        <v>9.370804764330387e-05</v>
       </c>
     </row>
     <row r="963">
@@ -8138,7 +8138,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>8.220801828429103e-05</v>
+        <v>8.299999171867967e-05</v>
       </c>
     </row>
     <row r="964">
@@ -8146,7 +8146,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>8.820800576359034e-05</v>
+        <v>7.870903937146068e-05</v>
       </c>
     </row>
     <row r="965">
@@ -8154,7 +8154,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>8.241599425673485e-05</v>
+        <v>8.537498069927096e-05</v>
       </c>
     </row>
     <row r="966">
@@ -8162,7 +8162,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="n">
-        <v>8.174998220056295e-05</v>
+        <v>7.516704499721527e-05</v>
       </c>
     </row>
     <row r="967">
@@ -8170,7 +8170,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>8.849997539073229e-05</v>
+        <v>8.025002898648381e-05</v>
       </c>
     </row>
     <row r="968">
@@ -8178,7 +8178,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>8.158304262906313e-05</v>
+        <v>8.016597712412477e-05</v>
       </c>
     </row>
     <row r="969">
@@ -8186,7 +8186,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>8.837500354275107e-05</v>
+        <v>8.087500464171171e-05</v>
       </c>
     </row>
     <row r="970">
@@ -8194,7 +8194,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>8.866703137755394e-05</v>
+        <v>7.700000423938036e-05</v>
       </c>
     </row>
     <row r="971">
@@ -8202,7 +8202,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>8.716696174815297e-05</v>
+        <v>7.687497418373823e-05</v>
       </c>
     </row>
     <row r="972">
@@ -8210,7 +8210,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>8.187501225620508e-05</v>
+        <v>7.545901462435722e-05</v>
       </c>
     </row>
     <row r="973">
@@ -8218,7 +8218,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>8.966604946181178e-05</v>
+        <v>7.991702295839787e-05</v>
       </c>
     </row>
     <row r="974">
@@ -8226,7 +8226,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>8.891697507351637e-05</v>
+        <v>8.158298442140222e-05</v>
       </c>
     </row>
     <row r="975">
@@ -8234,7 +8234,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>8.958298712968826e-05</v>
+        <v>8.125003660097718e-05</v>
       </c>
     </row>
     <row r="976">
@@ -8242,7 +8242,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>8.954200893640518e-05</v>
+        <v>8.025002898648381e-05</v>
       </c>
     </row>
     <row r="977">
@@ -8250,7 +8250,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>8.291698759421706e-05</v>
+        <v>8.016597712412477e-05</v>
       </c>
     </row>
     <row r="978">
@@ -8258,7 +8258,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="n">
-        <v>8.937501115724444e-05</v>
+        <v>8.004205301403999e-05</v>
       </c>
     </row>
     <row r="979">
@@ -8266,7 +8266,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>8.895801147446036e-05</v>
+        <v>8.041603723540902e-05</v>
       </c>
     </row>
     <row r="980">
@@ -8274,7 +8274,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>8.900003740563989e-05</v>
+        <v>8.554203668609262e-05</v>
       </c>
     </row>
     <row r="981">
@@ -8282,7 +8282,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>9.079102892428637e-05</v>
+        <v>8.1458012573421e-05</v>
       </c>
     </row>
     <row r="982">
@@ -8290,7 +8290,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>8.962501306086779e-05</v>
+        <v>8.079200051724911e-05</v>
       </c>
     </row>
     <row r="983">
@@ -8298,7 +8298,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>9.216601029038429e-05</v>
+        <v>8.129095658659935e-05</v>
       </c>
     </row>
     <row r="984">
@@ -8306,7 +8306,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>8.308299584314227e-05</v>
+        <v>8.099997648969293e-05</v>
       </c>
     </row>
     <row r="985">
@@ -8314,7 +8314,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>9.041698649525642e-05</v>
+        <v>8.366699330508709e-05</v>
       </c>
     </row>
     <row r="986">
@@ -8322,7 +8322,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>9.004201274365187e-05</v>
+        <v>8.516700472682714e-05</v>
       </c>
     </row>
     <row r="987">
@@ -8330,7 +8330,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>9.091699030250311e-05</v>
+        <v>9.441695874556899e-05</v>
       </c>
     </row>
     <row r="988">
@@ -8338,7 +8338,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>8.370797149837017e-05</v>
+        <v>7.758301217108965e-05</v>
       </c>
     </row>
     <row r="989">
@@ -8346,7 +8346,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>9.141699410974979e-05</v>
+        <v>7.783400360494852e-05</v>
       </c>
     </row>
     <row r="990">
@@ -8354,7 +8354,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>9.062496246770024e-05</v>
+        <v>7.800001185387373e-05</v>
       </c>
     </row>
     <row r="991">
@@ -8362,7 +8362,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>8.341600187122822e-05</v>
+        <v>7.787504000589252e-05</v>
       </c>
     </row>
     <row r="992">
@@ -8370,7 +8370,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>8.995801908895373e-05</v>
+        <v>7.78749817982316e-05</v>
       </c>
     </row>
     <row r="993">
@@ -8378,7 +8378,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>9.837496327236295e-05</v>
+        <v>8.120801066979766e-05</v>
       </c>
     </row>
     <row r="994">
@@ -8386,7 +8386,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>9.041698649525642e-05</v>
+        <v>8.379202336072922e-05</v>
       </c>
     </row>
     <row r="995">
@@ -8394,7 +8394,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>9.049999061971903e-05</v>
+        <v>7.904099766165018e-05</v>
       </c>
     </row>
     <row r="996">
@@ -8402,7 +8402,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>9.366701124235988e-05</v>
+        <v>8.183298632502556e-05</v>
       </c>
     </row>
     <row r="997">
@@ -8410,7 +8410,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>9.670801227912307e-05</v>
+        <v>8.924998110160232e-05</v>
       </c>
     </row>
     <row r="998">
@@ -8418,7 +8418,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="n">
-        <v>8.362502558156848e-05</v>
+        <v>9.166699601337314e-05</v>
       </c>
     </row>
     <row r="999">
@@ -8426,7 +8426,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>9.112502448260784e-05</v>
+        <v>9.287497960031033e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -8434,7 +8434,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>9.125005453824997e-05</v>
+        <v>9.883299935609102e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -8442,7 +8442,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>9.070901433005929e-05</v>
+        <v>9.037501877173781e-05</v>
       </c>
     </row>
   </sheetData>
